--- a/数据整理/stocks/A股/上证主板/601669-中国电建.xlsx
+++ b/数据整理/stocks/A股/上证主板/601669-中国电建.xlsx
@@ -451,7 +451,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F10"/>
+  <dimension ref="A1:H10"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -472,15 +472,25 @@
       </c>
       <c r="D1" s="1" t="inlineStr">
         <is>
+          <t>基金金额</t>
+        </is>
+      </c>
+      <c r="E1" s="1" t="inlineStr">
+        <is>
           <t>股票总仓位</t>
         </is>
       </c>
-      <c r="E1" s="1" t="inlineStr">
+      <c r="F1" s="1" t="inlineStr">
         <is>
           <t>仓位占比</t>
         </is>
       </c>
-      <c r="F1" s="1" t="inlineStr">
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
         <is>
           <t>仓位排名</t>
         </is>
@@ -492,26 +502,36 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>006038</t>
+          <t>005223</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>大成景恒混合C</t>
+          <t>广发中证基建工程指数A</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>91.86</t>
+          <t>25.70</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>2.11</t>
-        </is>
-      </c>
-      <c r="F2" t="n">
-        <v>10</v>
+          <t>94.22</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>6.77</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>1.7399</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>4</v>
       </c>
     </row>
     <row r="3">
@@ -520,26 +540,36 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>090019</t>
+          <t>515900</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>大成景恒混合A</t>
+          <t>博时中证央企创新驱动ETF</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>91.86</t>
+          <t>49.31</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>2.11</t>
-        </is>
-      </c>
-      <c r="F3" t="n">
-        <v>10</v>
+          <t>99.05</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>2.84</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>1.4004</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>8</v>
       </c>
     </row>
     <row r="4">
@@ -548,25 +578,35 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>005223</t>
+          <t>005224</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>广发中证基建工程指数A</t>
+          <t>广发中证基建工程指数C</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
+          <t>14.06</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
           <t>94.22</t>
         </is>
       </c>
-      <c r="E4" t="inlineStr">
+      <c r="F4" t="inlineStr">
         <is>
           <t>6.77</t>
         </is>
       </c>
-      <c r="F4" t="n">
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>0.9519</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
         <v>4</v>
       </c>
     </row>
@@ -576,26 +616,36 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>005224</t>
+          <t>515680</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>广发中证基建工程指数C</t>
+          <t>嘉实中证央企创新驱动ETF</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>94.22</t>
+          <t>31.64</t>
         </is>
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>6.77</t>
-        </is>
-      </c>
-      <c r="F5" t="n">
-        <v>4</v>
+          <t>98.98</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>2.77</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>0.8764</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>8</v>
       </c>
     </row>
     <row r="6">
@@ -614,15 +664,25 @@
       </c>
       <c r="D6" t="inlineStr">
         <is>
+          <t>10.68</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
           <t>94.32</t>
         </is>
       </c>
-      <c r="E6" t="inlineStr">
+      <c r="F6" t="inlineStr">
         <is>
           <t>6.78</t>
         </is>
       </c>
-      <c r="F6" t="n">
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>0.7241</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
         <v>4</v>
       </c>
     </row>
@@ -632,25 +692,35 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>159974</t>
+          <t>515600</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>富国中证央企创新驱动ETF</t>
+          <t>广发中证央企创新驱动ETF</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>99.22</t>
+          <t>22.61</t>
         </is>
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>2.82</t>
-        </is>
-      </c>
-      <c r="F7" t="n">
+          <t>99.13</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>2.78</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>0.6286</t>
+        </is>
+      </c>
+      <c r="H7" t="n">
         <v>8</v>
       </c>
     </row>
@@ -660,25 +730,35 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>515600</t>
+          <t>159974</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>广发中证央企创新驱动ETF</t>
+          <t>富国中证央企创新驱动ETF</t>
         </is>
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>99.13</t>
+          <t>4.81</t>
         </is>
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>2.78</t>
-        </is>
-      </c>
-      <c r="F8" t="n">
+          <t>99.22</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>2.82</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>0.1356</t>
+        </is>
+      </c>
+      <c r="H8" t="n">
         <v>8</v>
       </c>
     </row>
@@ -688,26 +768,36 @@
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>515680</t>
+          <t>090019</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>嘉实中证央企创新驱动ETF</t>
+          <t>大成景恒混合A</t>
         </is>
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>98.98</t>
+          <t>0.45</t>
         </is>
       </c>
       <c r="E9" t="inlineStr">
         <is>
-          <t>2.77</t>
-        </is>
-      </c>
-      <c r="F9" t="n">
-        <v>8</v>
+          <t>91.86</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>2.11</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>0.0095</t>
+        </is>
+      </c>
+      <c r="H9" t="n">
+        <v>10</v>
       </c>
     </row>
     <row r="10">
@@ -716,26 +806,36 @@
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>515900</t>
+          <t>006038</t>
         </is>
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>博时中证央企创新驱动ETF</t>
+          <t>大成景恒混合C</t>
         </is>
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>99.05</t>
+          <t>0.17</t>
         </is>
       </c>
       <c r="E10" t="inlineStr">
         <is>
-          <t>2.84</t>
-        </is>
-      </c>
-      <c r="F10" t="n">
-        <v>8</v>
+          <t>91.86</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>2.11</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>0.0036</t>
+        </is>
+      </c>
+      <c r="H10" t="n">
+        <v>10</v>
       </c>
     </row>
   </sheetData>
@@ -749,7 +849,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F8"/>
+  <dimension ref="A1:H8"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -770,15 +870,25 @@
       </c>
       <c r="D1" s="2" t="inlineStr">
         <is>
+          <t>基金金额</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
           <t>股票总仓位</t>
         </is>
       </c>
-      <c r="E1" s="2" t="inlineStr">
+      <c r="F1" s="2" t="inlineStr">
         <is>
           <t>仓位占比</t>
         </is>
       </c>
-      <c r="F1" s="2" t="inlineStr">
+      <c r="G1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
         <is>
           <t>仓位排名</t>
         </is>
@@ -790,25 +900,35 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>165525</t>
+          <t>005223</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>信诚中证基建工程指数（LOF）</t>
+          <t>广发中证基建工程指数A</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>94.39</t>
+          <t>28.00</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>6.71</t>
-        </is>
-      </c>
-      <c r="F2" t="n">
+          <t>94.92</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>6.74</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>1.8872</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
         <v>4</v>
       </c>
     </row>
@@ -818,25 +938,35 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>515600</t>
+          <t>515900</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>广发中证央企创新驱动ETF</t>
+          <t>博时中证央企创新驱动ETF</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>99.35</t>
+          <t>44.69</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>2.86</t>
-        </is>
-      </c>
-      <c r="F3" t="n">
+          <t>98.96</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>2.92</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>1.3049</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
         <v>9</v>
       </c>
     </row>
@@ -846,26 +976,36 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>515680</t>
+          <t>005224</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>嘉实中证央企创新驱动ETF</t>
+          <t>广发中证基建工程指数C</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>99.15</t>
+          <t>14.06</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>2.89</t>
-        </is>
-      </c>
-      <c r="F4" t="n">
-        <v>9</v>
+          <t>94.92</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>6.74</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>0.9476</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>4</v>
       </c>
     </row>
     <row r="5">
@@ -874,25 +1014,35 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>515900</t>
+          <t>515680</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>博时中证央企创新驱动ETF</t>
+          <t>嘉实中证央企创新驱动ETF</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>98.96</t>
+          <t>28.82</t>
         </is>
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>2.92</t>
-        </is>
-      </c>
-      <c r="F5" t="n">
+          <t>99.15</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>2.89</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>0.8329</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
         <v>9</v>
       </c>
     </row>
@@ -902,26 +1052,36 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>159974</t>
+          <t>165525</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>富国中证央企创新驱动ETF</t>
+          <t>信诚中证基建工程指数（LOF）</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>98.96</t>
+          <t>11.09</t>
         </is>
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>2.91</t>
-        </is>
-      </c>
-      <c r="F6" t="n">
-        <v>9</v>
+          <t>94.39</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>6.71</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>0.7441</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
+        <v>4</v>
       </c>
     </row>
     <row r="7">
@@ -930,26 +1090,36 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>005223</t>
+          <t>515600</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>广发中证基建工程指数A</t>
+          <t>广发中证央企创新驱动ETF</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>94.92</t>
+          <t>23.14</t>
         </is>
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>6.74</t>
-        </is>
-      </c>
-      <c r="F7" t="n">
-        <v>4</v>
+          <t>99.35</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>2.86</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>0.6618</t>
+        </is>
+      </c>
+      <c r="H7" t="n">
+        <v>9</v>
       </c>
     </row>
     <row r="8">
@@ -958,26 +1128,36 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>005224</t>
+          <t>159974</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>广发中证基建工程指数C</t>
+          <t>富国中证央企创新驱动ETF</t>
         </is>
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>94.92</t>
+          <t>4.86</t>
         </is>
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>6.74</t>
-        </is>
-      </c>
-      <c r="F8" t="n">
-        <v>4</v>
+          <t>98.96</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>2.91</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>0.1414</t>
+        </is>
+      </c>
+      <c r="H8" t="n">
+        <v>9</v>
       </c>
     </row>
   </sheetData>

--- a/数据整理/stocks/A股/上证主板/601669-中国电建.xlsx
+++ b/数据整理/stocks/A股/上证主板/601669-中国电建.xlsx
@@ -8,6 +8,7 @@
   <sheets>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2020-Q4" sheetId="1" state="visible" r:id="rId1"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="3" state="visible" r:id="rId3"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -1163,4 +1164,364 @@
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:H9"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>基金代码</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>基金名称</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>基金金额</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>005223</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>广发中证基建工程指数A</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>22.03</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>94.85</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>6.36</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>1.4011</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>515900</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>博时中证央企创新驱动ETF</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>43.16</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>98.40</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>3.12</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>1.3466</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>515680</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>嘉实中证央企创新驱动ETF</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>26.79</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>99.33</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>3.13</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>0.8385</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>005224</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>广发中证基建工程指数C</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>10.92</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>94.85</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>6.36</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>0.6945</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>515600</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>广发中证央企创新驱动ETF</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>21.12</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>98.83</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>3.16</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>0.6674</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>165525</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>信诚中证基建工程指数（LOF）</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>8.89</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>94.30</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>6.35</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>0.5645</t>
+        </is>
+      </c>
+      <c r="H7" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>159974</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>富国中证央企创新驱动ETF</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>4.69</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>98.84</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>3.14</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>0.1473</t>
+        </is>
+      </c>
+      <c r="H8" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>516950</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>银华中证基建交易型开放式指数证券投资基金</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>1.84</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>96.47</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>4.39</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>0.0808</t>
+        </is>
+      </c>
+      <c r="H9" t="n">
+        <v>7</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
 </file>
--- a/数据整理/stocks/A股/上证主板/601669-中国电建.xlsx
+++ b/数据整理/stocks/A股/上证主板/601669-中国电建.xlsx
@@ -9,6 +9,7 @@
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2020-Q4" sheetId="1" state="visible" r:id="rId1"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="2" state="visible" r:id="rId2"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="4" state="visible" r:id="rId4"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -1524,4 +1525,3062 @@
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:H80"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>基金代码</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>基金名称</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>基金金额</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>516970</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>广发中证基建工程交易型开放式指数证券投资基金</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>57.92</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>99.53</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>12.02</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>6.9620</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>515900</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>博时中证央企创新驱动ETF</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>50.95</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>99.48</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>5.93</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>3.0213</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>001410</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>信达澳银新能源产业股票</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>148.10</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>88.58</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>1.88</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>2.7843</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>005730</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>国泰江源优势精选灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>64.43</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>91.95</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>4.08</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>2.6287</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>010027</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>景顺长城核心中景一年持有期混合</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>72.43</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>86.30</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>3.39</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>2.4554</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>010108</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>景顺长城核心招景混合</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>70.33</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>90.56</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>3.49</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>2.4545</t>
+        </is>
+      </c>
+      <c r="H7" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>512960</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>博时中证央企结构调整ETF</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>74.98</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>99.36</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>2.45</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>1.8370</t>
+        </is>
+      </c>
+      <c r="H8" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>165525</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>信诚中证基建工程指数（LOF）</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>15.73</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>93.77</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>11.31</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>1.7791</t>
+        </is>
+      </c>
+      <c r="H9" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="2" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>009474</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>国泰致远优势混合</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>42.51</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>92.66</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>4.18</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>1.7769</t>
+        </is>
+      </c>
+      <c r="H10" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="2" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>512950</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>华夏中证央企结构调整ETF</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>71.86</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>98.54</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>2.41</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>1.7318</t>
+        </is>
+      </c>
+      <c r="H11" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="2" t="n">
+        <v>10</v>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>515680</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>嘉实中证央企创新驱动ETF</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>28.29</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>99.40</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>5.90</t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr">
+        <is>
+          <t>1.6691</t>
+        </is>
+      </c>
+      <c r="H12" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="2" t="n">
+        <v>11</v>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>515600</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>广发中证央企创新驱动ETF</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>22.86</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>99.00</t>
+        </is>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>5.78</t>
+        </is>
+      </c>
+      <c r="G13" t="inlineStr">
+        <is>
+          <t>1.3213</t>
+        </is>
+      </c>
+      <c r="H13" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="2" t="n">
+        <v>12</v>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>012608</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>信达澳银领先智选混合型证券投资基金</t>
+        </is>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>49.92</t>
+        </is>
+      </c>
+      <c r="E14" t="inlineStr">
+        <is>
+          <t>71.01</t>
+        </is>
+      </c>
+      <c r="F14" t="inlineStr">
+        <is>
+          <t>1.69</t>
+        </is>
+      </c>
+      <c r="G14" t="inlineStr">
+        <is>
+          <t>0.8436</t>
+        </is>
+      </c>
+      <c r="H14" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="2" t="n">
+        <v>13</v>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>011188</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>信达澳银星奕混合A</t>
+        </is>
+      </c>
+      <c r="D15" t="inlineStr">
+        <is>
+          <t>44.84</t>
+        </is>
+      </c>
+      <c r="E15" t="inlineStr">
+        <is>
+          <t>86.85</t>
+        </is>
+      </c>
+      <c r="F15" t="inlineStr">
+        <is>
+          <t>1.75</t>
+        </is>
+      </c>
+      <c r="G15" t="inlineStr">
+        <is>
+          <t>0.7847</t>
+        </is>
+      </c>
+      <c r="H15" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="2" t="n">
+        <v>14</v>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>398001</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>中海优质成长混合</t>
+        </is>
+      </c>
+      <c r="D16" t="inlineStr">
+        <is>
+          <t>16.97</t>
+        </is>
+      </c>
+      <c r="E16" t="inlineStr">
+        <is>
+          <t>81.25</t>
+        </is>
+      </c>
+      <c r="F16" t="inlineStr">
+        <is>
+          <t>3.88</t>
+        </is>
+      </c>
+      <c r="G16" t="inlineStr">
+        <is>
+          <t>0.6584</t>
+        </is>
+      </c>
+      <c r="H16" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="2" t="n">
+        <v>15</v>
+      </c>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>516950</t>
+        </is>
+      </c>
+      <c r="C17" t="inlineStr">
+        <is>
+          <t>银华中证基建交易型开放式指数证券投资基金</t>
+        </is>
+      </c>
+      <c r="D17" t="inlineStr">
+        <is>
+          <t>7.31</t>
+        </is>
+      </c>
+      <c r="E17" t="inlineStr">
+        <is>
+          <t>97.87</t>
+        </is>
+      </c>
+      <c r="F17" t="inlineStr">
+        <is>
+          <t>8.67</t>
+        </is>
+      </c>
+      <c r="G17" t="inlineStr">
+        <is>
+          <t>0.6338</t>
+        </is>
+      </c>
+      <c r="H17" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="2" t="n">
+        <v>16</v>
+      </c>
+      <c r="B18" t="inlineStr">
+        <is>
+          <t>900008</t>
+        </is>
+      </c>
+      <c r="C18" t="inlineStr">
+        <is>
+          <t>中信证券稳健回报混合A</t>
+        </is>
+      </c>
+      <c r="D18" t="inlineStr">
+        <is>
+          <t>9.22</t>
+        </is>
+      </c>
+      <c r="E18" t="inlineStr">
+        <is>
+          <t>90.00</t>
+        </is>
+      </c>
+      <c r="F18" t="inlineStr">
+        <is>
+          <t>6.79</t>
+        </is>
+      </c>
+      <c r="G18" t="inlineStr">
+        <is>
+          <t>0.6260</t>
+        </is>
+      </c>
+      <c r="H18" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="2" t="n">
+        <v>17</v>
+      </c>
+      <c r="B19" t="inlineStr">
+        <is>
+          <t>010363</t>
+        </is>
+      </c>
+      <c r="C19" t="inlineStr">
+        <is>
+          <t>信达澳银匠心臻选两年持有期混合</t>
+        </is>
+      </c>
+      <c r="D19" t="inlineStr">
+        <is>
+          <t>51.41</t>
+        </is>
+      </c>
+      <c r="E19" t="inlineStr">
+        <is>
+          <t>85.95</t>
+        </is>
+      </c>
+      <c r="F19" t="inlineStr">
+        <is>
+          <t>1.20</t>
+        </is>
+      </c>
+      <c r="G19" t="inlineStr">
+        <is>
+          <t>0.6169</t>
+        </is>
+      </c>
+      <c r="H19" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" s="2" t="n">
+        <v>18</v>
+      </c>
+      <c r="B20" t="inlineStr">
+        <is>
+          <t>006257</t>
+        </is>
+      </c>
+      <c r="C20" t="inlineStr">
+        <is>
+          <t>信达澳银先进智造股票</t>
+        </is>
+      </c>
+      <c r="D20" t="inlineStr">
+        <is>
+          <t>31.51</t>
+        </is>
+      </c>
+      <c r="E20" t="inlineStr">
+        <is>
+          <t>85.54</t>
+        </is>
+      </c>
+      <c r="F20" t="inlineStr">
+        <is>
+          <t>1.65</t>
+        </is>
+      </c>
+      <c r="G20" t="inlineStr">
+        <is>
+          <t>0.5199</t>
+        </is>
+      </c>
+      <c r="H20" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" s="2" t="n">
+        <v>19</v>
+      </c>
+      <c r="B21" t="inlineStr">
+        <is>
+          <t>006039</t>
+        </is>
+      </c>
+      <c r="C21" t="inlineStr">
+        <is>
+          <t>富兰克林国海估值优势灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D21" t="inlineStr">
+        <is>
+          <t>19.21</t>
+        </is>
+      </c>
+      <c r="E21" t="inlineStr">
+        <is>
+          <t>83.33</t>
+        </is>
+      </c>
+      <c r="F21" t="inlineStr">
+        <is>
+          <t>2.24</t>
+        </is>
+      </c>
+      <c r="G21" t="inlineStr">
+        <is>
+          <t>0.4303</t>
+        </is>
+      </c>
+      <c r="H21" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" s="2" t="n">
+        <v>20</v>
+      </c>
+      <c r="B22" t="inlineStr">
+        <is>
+          <t>003857</t>
+        </is>
+      </c>
+      <c r="C22" t="inlineStr">
+        <is>
+          <t>前海开源周期优选灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D22" t="inlineStr">
+        <is>
+          <t>5.29</t>
+        </is>
+      </c>
+      <c r="E22" t="inlineStr">
+        <is>
+          <t>79.28</t>
+        </is>
+      </c>
+      <c r="F22" t="inlineStr">
+        <is>
+          <t>7.40</t>
+        </is>
+      </c>
+      <c r="G22" t="inlineStr">
+        <is>
+          <t>0.3915</t>
+        </is>
+      </c>
+      <c r="H22" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" s="2" t="n">
+        <v>21</v>
+      </c>
+      <c r="B23" t="inlineStr">
+        <is>
+          <t>121002</t>
+        </is>
+      </c>
+      <c r="C23" t="inlineStr">
+        <is>
+          <t>国投瑞银景气行业混合</t>
+        </is>
+      </c>
+      <c r="D23" t="inlineStr">
+        <is>
+          <t>9.16</t>
+        </is>
+      </c>
+      <c r="E23" t="inlineStr">
+        <is>
+          <t>69.55</t>
+        </is>
+      </c>
+      <c r="F23" t="inlineStr">
+        <is>
+          <t>3.70</t>
+        </is>
+      </c>
+      <c r="G23" t="inlineStr">
+        <is>
+          <t>0.3389</t>
+        </is>
+      </c>
+      <c r="H23" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" s="2" t="n">
+        <v>22</v>
+      </c>
+      <c r="B24" t="inlineStr">
+        <is>
+          <t>159974</t>
+        </is>
+      </c>
+      <c r="C24" t="inlineStr">
+        <is>
+          <t>富国中证央企创新驱动ETF</t>
+        </is>
+      </c>
+      <c r="D24" t="inlineStr">
+        <is>
+          <t>5.77</t>
+        </is>
+      </c>
+      <c r="E24" t="inlineStr">
+        <is>
+          <t>99.22</t>
+        </is>
+      </c>
+      <c r="F24" t="inlineStr">
+        <is>
+          <t>5.87</t>
+        </is>
+      </c>
+      <c r="G24" t="inlineStr">
+        <is>
+          <t>0.3387</t>
+        </is>
+      </c>
+      <c r="H24" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" s="2" t="n">
+        <v>23</v>
+      </c>
+      <c r="B25" t="inlineStr">
+        <is>
+          <t>010425</t>
+        </is>
+      </c>
+      <c r="C25" t="inlineStr">
+        <is>
+          <t>国投瑞银开放视角精选混合A</t>
+        </is>
+      </c>
+      <c r="D25" t="inlineStr">
+        <is>
+          <t>8.89</t>
+        </is>
+      </c>
+      <c r="E25" t="inlineStr">
+        <is>
+          <t>92.88</t>
+        </is>
+      </c>
+      <c r="F25" t="inlineStr">
+        <is>
+          <t>3.72</t>
+        </is>
+      </c>
+      <c r="G25" t="inlineStr">
+        <is>
+          <t>0.3307</t>
+        </is>
+      </c>
+      <c r="H25" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" s="2" t="n">
+        <v>24</v>
+      </c>
+      <c r="B26" t="inlineStr">
+        <is>
+          <t>519193</t>
+        </is>
+      </c>
+      <c r="C26" t="inlineStr">
+        <is>
+          <t>万家消费成长股票</t>
+        </is>
+      </c>
+      <c r="D26" t="inlineStr">
+        <is>
+          <t>6.55</t>
+        </is>
+      </c>
+      <c r="E26" t="inlineStr">
+        <is>
+          <t>88.23</t>
+        </is>
+      </c>
+      <c r="F26" t="inlineStr">
+        <is>
+          <t>4.70</t>
+        </is>
+      </c>
+      <c r="G26" t="inlineStr">
+        <is>
+          <t>0.3078</t>
+        </is>
+      </c>
+      <c r="H26" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" s="2" t="n">
+        <v>25</v>
+      </c>
+      <c r="B27" t="inlineStr">
+        <is>
+          <t>160716</t>
+        </is>
+      </c>
+      <c r="C27" t="inlineStr">
+        <is>
+          <t>嘉实中证锐联基本面50指数(LOF)A</t>
+        </is>
+      </c>
+      <c r="D27" t="inlineStr">
+        <is>
+          <t>11.20</t>
+        </is>
+      </c>
+      <c r="E27" t="inlineStr">
+        <is>
+          <t>94.89</t>
+        </is>
+      </c>
+      <c r="F27" t="inlineStr">
+        <is>
+          <t>2.68</t>
+        </is>
+      </c>
+      <c r="G27" t="inlineStr">
+        <is>
+          <t>0.3002</t>
+        </is>
+      </c>
+      <c r="H27" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" s="2" t="n">
+        <v>26</v>
+      </c>
+      <c r="B28" t="inlineStr">
+        <is>
+          <t>450004</t>
+        </is>
+      </c>
+      <c r="C28" t="inlineStr">
+        <is>
+          <t>国富深化价值混合</t>
+        </is>
+      </c>
+      <c r="D28" t="inlineStr">
+        <is>
+          <t>14.50</t>
+        </is>
+      </c>
+      <c r="E28" t="inlineStr">
+        <is>
+          <t>82.61</t>
+        </is>
+      </c>
+      <c r="F28" t="inlineStr">
+        <is>
+          <t>2.04</t>
+        </is>
+      </c>
+      <c r="G28" t="inlineStr">
+        <is>
+          <t>0.2958</t>
+        </is>
+      </c>
+      <c r="H28" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" s="2" t="n">
+        <v>27</v>
+      </c>
+      <c r="B29" t="inlineStr">
+        <is>
+          <t>005983</t>
+        </is>
+      </c>
+      <c r="C29" t="inlineStr">
+        <is>
+          <t>上投摩根核心精选股票</t>
+        </is>
+      </c>
+      <c r="D29" t="inlineStr">
+        <is>
+          <t>9.47</t>
+        </is>
+      </c>
+      <c r="E29" t="inlineStr">
+        <is>
+          <t>90.64</t>
+        </is>
+      </c>
+      <c r="F29" t="inlineStr">
+        <is>
+          <t>2.93</t>
+        </is>
+      </c>
+      <c r="G29" t="inlineStr">
+        <is>
+          <t>0.2775</t>
+        </is>
+      </c>
+      <c r="H29" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" s="2" t="n">
+        <v>28</v>
+      </c>
+      <c r="B30" t="inlineStr">
+        <is>
+          <t>005400</t>
+        </is>
+      </c>
+      <c r="C30" t="inlineStr">
+        <is>
+          <t>万家潜力价值灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D30" t="inlineStr">
+        <is>
+          <t>5.12</t>
+        </is>
+      </c>
+      <c r="E30" t="inlineStr">
+        <is>
+          <t>89.07</t>
+        </is>
+      </c>
+      <c r="F30" t="inlineStr">
+        <is>
+          <t>4.77</t>
+        </is>
+      </c>
+      <c r="G30" t="inlineStr">
+        <is>
+          <t>0.2442</t>
+        </is>
+      </c>
+      <c r="H30" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" s="2" t="n">
+        <v>29</v>
+      </c>
+      <c r="B31" t="inlineStr">
+        <is>
+          <t>009688</t>
+        </is>
+      </c>
+      <c r="C31" t="inlineStr">
+        <is>
+          <t>万家鑫动力月月购一年滚动持有混合</t>
+        </is>
+      </c>
+      <c r="D31" t="inlineStr">
+        <is>
+          <t>4.88</t>
+        </is>
+      </c>
+      <c r="E31" t="inlineStr">
+        <is>
+          <t>85.98</t>
+        </is>
+      </c>
+      <c r="F31" t="inlineStr">
+        <is>
+          <t>4.79</t>
+        </is>
+      </c>
+      <c r="G31" t="inlineStr">
+        <is>
+          <t>0.2338</t>
+        </is>
+      </c>
+      <c r="H31" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" s="2" t="n">
+        <v>30</v>
+      </c>
+      <c r="B32" t="inlineStr">
+        <is>
+          <t>011223</t>
+        </is>
+      </c>
+      <c r="C32" t="inlineStr">
+        <is>
+          <t>信达澳银星奕混合C</t>
+        </is>
+      </c>
+      <c r="D32" t="inlineStr">
+        <is>
+          <t>11.22</t>
+        </is>
+      </c>
+      <c r="E32" t="inlineStr">
+        <is>
+          <t>86.85</t>
+        </is>
+      </c>
+      <c r="F32" t="inlineStr">
+        <is>
+          <t>1.75</t>
+        </is>
+      </c>
+      <c r="G32" t="inlineStr">
+        <is>
+          <t>0.1964</t>
+        </is>
+      </c>
+      <c r="H32" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" s="2" t="n">
+        <v>31</v>
+      </c>
+      <c r="B33" t="inlineStr">
+        <is>
+          <t>007484</t>
+        </is>
+      </c>
+      <c r="C33" t="inlineStr">
+        <is>
+          <t>信达澳银核心科技混合</t>
+        </is>
+      </c>
+      <c r="D33" t="inlineStr">
+        <is>
+          <t>11.59</t>
+        </is>
+      </c>
+      <c r="E33" t="inlineStr">
+        <is>
+          <t>84.01</t>
+        </is>
+      </c>
+      <c r="F33" t="inlineStr">
+        <is>
+          <t>1.68</t>
+        </is>
+      </c>
+      <c r="G33" t="inlineStr">
+        <is>
+          <t>0.1947</t>
+        </is>
+      </c>
+      <c r="H33" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" s="2" t="n">
+        <v>32</v>
+      </c>
+      <c r="B34" t="inlineStr">
+        <is>
+          <t>009511</t>
+        </is>
+      </c>
+      <c r="C34" t="inlineStr">
+        <is>
+          <t>信达澳银研究优选混合</t>
+        </is>
+      </c>
+      <c r="D34" t="inlineStr">
+        <is>
+          <t>11.23</t>
+        </is>
+      </c>
+      <c r="E34" t="inlineStr">
+        <is>
+          <t>87.04</t>
+        </is>
+      </c>
+      <c r="F34" t="inlineStr">
+        <is>
+          <t>1.68</t>
+        </is>
+      </c>
+      <c r="G34" t="inlineStr">
+        <is>
+          <t>0.1887</t>
+        </is>
+      </c>
+      <c r="H34" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" s="2" t="n">
+        <v>33</v>
+      </c>
+      <c r="B35" t="inlineStr">
+        <is>
+          <t>011325</t>
+        </is>
+      </c>
+      <c r="C35" t="inlineStr">
+        <is>
+          <t>国泰江源优势精选灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D35" t="inlineStr">
+        <is>
+          <t>4.44</t>
+        </is>
+      </c>
+      <c r="E35" t="inlineStr">
+        <is>
+          <t>91.95</t>
+        </is>
+      </c>
+      <c r="F35" t="inlineStr">
+        <is>
+          <t>4.08</t>
+        </is>
+      </c>
+      <c r="G35" t="inlineStr">
+        <is>
+          <t>0.1812</t>
+        </is>
+      </c>
+      <c r="H35" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" s="2" t="n">
+        <v>34</v>
+      </c>
+      <c r="B36" t="inlineStr">
+        <is>
+          <t>001047</t>
+        </is>
+      </c>
+      <c r="C36" t="inlineStr">
+        <is>
+          <t>光大保德信国企改革主题股票</t>
+        </is>
+      </c>
+      <c r="D36" t="inlineStr">
+        <is>
+          <t>3.58</t>
+        </is>
+      </c>
+      <c r="E36" t="inlineStr">
+        <is>
+          <t>87.22</t>
+        </is>
+      </c>
+      <c r="F36" t="inlineStr">
+        <is>
+          <t>4.94</t>
+        </is>
+      </c>
+      <c r="G36" t="inlineStr">
+        <is>
+          <t>0.1769</t>
+        </is>
+      </c>
+      <c r="H36" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" s="2" t="n">
+        <v>35</v>
+      </c>
+      <c r="B37" t="inlineStr">
+        <is>
+          <t>673060</t>
+        </is>
+      </c>
+      <c r="C37" t="inlineStr">
+        <is>
+          <t>西部利得景瑞灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D37" t="inlineStr">
+        <is>
+          <t>5.99</t>
+        </is>
+      </c>
+      <c r="E37" t="inlineStr">
+        <is>
+          <t>89.32</t>
+        </is>
+      </c>
+      <c r="F37" t="inlineStr">
+        <is>
+          <t>2.77</t>
+        </is>
+      </c>
+      <c r="G37" t="inlineStr">
+        <is>
+          <t>0.1659</t>
+        </is>
+      </c>
+      <c r="H37" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" s="2" t="n">
+        <v>36</v>
+      </c>
+      <c r="B38" t="inlineStr">
+        <is>
+          <t>900078</t>
+        </is>
+      </c>
+      <c r="C38" t="inlineStr">
+        <is>
+          <t>中信证券稳健回报混合C</t>
+        </is>
+      </c>
+      <c r="D38" t="inlineStr">
+        <is>
+          <t>2.31</t>
+        </is>
+      </c>
+      <c r="E38" t="inlineStr">
+        <is>
+          <t>90.00</t>
+        </is>
+      </c>
+      <c r="F38" t="inlineStr">
+        <is>
+          <t>6.79</t>
+        </is>
+      </c>
+      <c r="G38" t="inlineStr">
+        <is>
+          <t>0.1568</t>
+        </is>
+      </c>
+      <c r="H38" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" s="2" t="n">
+        <v>37</v>
+      </c>
+      <c r="B39" t="inlineStr">
+        <is>
+          <t>001127</t>
+        </is>
+      </c>
+      <c r="C39" t="inlineStr">
+        <is>
+          <t>中银宏观策略灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D39" t="inlineStr">
+        <is>
+          <t>5.39</t>
+        </is>
+      </c>
+      <c r="E39" t="inlineStr">
+        <is>
+          <t>74.45</t>
+        </is>
+      </c>
+      <c r="F39" t="inlineStr">
+        <is>
+          <t>2.82</t>
+        </is>
+      </c>
+      <c r="G39" t="inlineStr">
+        <is>
+          <t>0.1520</t>
+        </is>
+      </c>
+      <c r="H39" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" s="2" t="n">
+        <v>38</v>
+      </c>
+      <c r="B40" t="inlineStr">
+        <is>
+          <t>161910</t>
+        </is>
+      </c>
+      <c r="C40" t="inlineStr">
+        <is>
+          <t>万家新机遇价值驱动灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D40" t="inlineStr">
+        <is>
+          <t>2.87</t>
+        </is>
+      </c>
+      <c r="E40" t="inlineStr">
+        <is>
+          <t>91.90</t>
+        </is>
+      </c>
+      <c r="F40" t="inlineStr">
+        <is>
+          <t>4.84</t>
+        </is>
+      </c>
+      <c r="G40" t="inlineStr">
+        <is>
+          <t>0.1389</t>
+        </is>
+      </c>
+      <c r="H40" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41" s="2" t="n">
+        <v>39</v>
+      </c>
+      <c r="B41" t="inlineStr">
+        <is>
+          <t>011132</t>
+        </is>
+      </c>
+      <c r="C41" t="inlineStr">
+        <is>
+          <t>鹏扬沪深300质量成长低波动指数证券投资基金A</t>
+        </is>
+      </c>
+      <c r="D41" t="inlineStr">
+        <is>
+          <t>3.25</t>
+        </is>
+      </c>
+      <c r="E41" t="inlineStr">
+        <is>
+          <t>94.18</t>
+        </is>
+      </c>
+      <c r="F41" t="inlineStr">
+        <is>
+          <t>3.85</t>
+        </is>
+      </c>
+      <c r="G41" t="inlineStr">
+        <is>
+          <t>0.1251</t>
+        </is>
+      </c>
+      <c r="H41" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="42">
+      <c r="A42" s="2" t="n">
+        <v>40</v>
+      </c>
+      <c r="B42" t="inlineStr">
+        <is>
+          <t>009437</t>
+        </is>
+      </c>
+      <c r="C42" t="inlineStr">
+        <is>
+          <t>信达澳银科技创新一年定期开放混合A</t>
+        </is>
+      </c>
+      <c r="D42" t="inlineStr">
+        <is>
+          <t>6.90</t>
+        </is>
+      </c>
+      <c r="E42" t="inlineStr">
+        <is>
+          <t>89.74</t>
+        </is>
+      </c>
+      <c r="F42" t="inlineStr">
+        <is>
+          <t>1.66</t>
+        </is>
+      </c>
+      <c r="G42" t="inlineStr">
+        <is>
+          <t>0.1145</t>
+        </is>
+      </c>
+      <c r="H42" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="43">
+      <c r="A43" s="2" t="n">
+        <v>41</v>
+      </c>
+      <c r="B43" t="inlineStr">
+        <is>
+          <t>160638</t>
+        </is>
+      </c>
+      <c r="C43" t="inlineStr">
+        <is>
+          <t>鹏华中证一带一路主题指数（LOF）</t>
+        </is>
+      </c>
+      <c r="D43" t="inlineStr">
+        <is>
+          <t>3.91</t>
+        </is>
+      </c>
+      <c r="E43" t="inlineStr">
+        <is>
+          <t>94.90</t>
+        </is>
+      </c>
+      <c r="F43" t="inlineStr">
+        <is>
+          <t>2.64</t>
+        </is>
+      </c>
+      <c r="G43" t="inlineStr">
+        <is>
+          <t>0.1032</t>
+        </is>
+      </c>
+      <c r="H43" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="44">
+      <c r="A44" s="2" t="n">
+        <v>42</v>
+      </c>
+      <c r="B44" t="inlineStr">
+        <is>
+          <t>510160</t>
+        </is>
+      </c>
+      <c r="C44" t="inlineStr">
+        <is>
+          <t>南方中证南方小康产业ETF</t>
+        </is>
+      </c>
+      <c r="D44" t="inlineStr">
+        <is>
+          <t>2.97</t>
+        </is>
+      </c>
+      <c r="E44" t="inlineStr">
+        <is>
+          <t>99.20</t>
+        </is>
+      </c>
+      <c r="F44" t="inlineStr">
+        <is>
+          <t>3.05</t>
+        </is>
+      </c>
+      <c r="G44" t="inlineStr">
+        <is>
+          <t>0.0906</t>
+        </is>
+      </c>
+      <c r="H44" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="45">
+      <c r="A45" s="2" t="n">
+        <v>43</v>
+      </c>
+      <c r="B45" t="inlineStr">
+        <is>
+          <t>001463</t>
+        </is>
+      </c>
+      <c r="C45" t="inlineStr">
+        <is>
+          <t>光大保德信一带一路战略主题混合</t>
+        </is>
+      </c>
+      <c r="D45" t="inlineStr">
+        <is>
+          <t>2.01</t>
+        </is>
+      </c>
+      <c r="E45" t="inlineStr">
+        <is>
+          <t>86.24</t>
+        </is>
+      </c>
+      <c r="F45" t="inlineStr">
+        <is>
+          <t>4.08</t>
+        </is>
+      </c>
+      <c r="G45" t="inlineStr">
+        <is>
+          <t>0.0820</t>
+        </is>
+      </c>
+      <c r="H45" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="46">
+      <c r="A46" s="2" t="n">
+        <v>44</v>
+      </c>
+      <c r="B46" t="inlineStr">
+        <is>
+          <t>003858</t>
+        </is>
+      </c>
+      <c r="C46" t="inlineStr">
+        <is>
+          <t>前海开源周期优选灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D46" t="inlineStr">
+        <is>
+          <t>1.07</t>
+        </is>
+      </c>
+      <c r="E46" t="inlineStr">
+        <is>
+          <t>79.28</t>
+        </is>
+      </c>
+      <c r="F46" t="inlineStr">
+        <is>
+          <t>7.40</t>
+        </is>
+      </c>
+      <c r="G46" t="inlineStr">
+        <is>
+          <t>0.0792</t>
+        </is>
+      </c>
+      <c r="H46" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="47">
+      <c r="A47" s="2" t="n">
+        <v>45</v>
+      </c>
+      <c r="B47" t="inlineStr">
+        <is>
+          <t>010568</t>
+        </is>
+      </c>
+      <c r="C47" t="inlineStr">
+        <is>
+          <t>海富通惠睿精选混合A</t>
+        </is>
+      </c>
+      <c r="D47" t="inlineStr">
+        <is>
+          <t>9.87</t>
+        </is>
+      </c>
+      <c r="E47" t="inlineStr">
+        <is>
+          <t>25.13</t>
+        </is>
+      </c>
+      <c r="F47" t="inlineStr">
+        <is>
+          <t>0.65</t>
+        </is>
+      </c>
+      <c r="G47" t="inlineStr">
+        <is>
+          <t>0.0642</t>
+        </is>
+      </c>
+      <c r="H47" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="48">
+      <c r="A48" s="2" t="n">
+        <v>46</v>
+      </c>
+      <c r="B48" t="inlineStr">
+        <is>
+          <t>006085</t>
+        </is>
+      </c>
+      <c r="C48" t="inlineStr">
+        <is>
+          <t>万家新机遇价值驱动灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D48" t="inlineStr">
+        <is>
+          <t>1.30</t>
+        </is>
+      </c>
+      <c r="E48" t="inlineStr">
+        <is>
+          <t>91.90</t>
+        </is>
+      </c>
+      <c r="F48" t="inlineStr">
+        <is>
+          <t>4.84</t>
+        </is>
+      </c>
+      <c r="G48" t="inlineStr">
+        <is>
+          <t>0.0629</t>
+        </is>
+      </c>
+      <c r="H48" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="49">
+      <c r="A49" s="2" t="n">
+        <v>47</v>
+      </c>
+      <c r="B49" t="inlineStr">
+        <is>
+          <t>005401</t>
+        </is>
+      </c>
+      <c r="C49" t="inlineStr">
+        <is>
+          <t>万家潜力价值灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D49" t="inlineStr">
+        <is>
+          <t>1.25</t>
+        </is>
+      </c>
+      <c r="E49" t="inlineStr">
+        <is>
+          <t>89.07</t>
+        </is>
+      </c>
+      <c r="F49" t="inlineStr">
+        <is>
+          <t>4.77</t>
+        </is>
+      </c>
+      <c r="G49" t="inlineStr">
+        <is>
+          <t>0.0596</t>
+        </is>
+      </c>
+      <c r="H49" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="50">
+      <c r="A50" s="2" t="n">
+        <v>48</v>
+      </c>
+      <c r="B50" t="inlineStr">
+        <is>
+          <t>010398</t>
+        </is>
+      </c>
+      <c r="C50" t="inlineStr">
+        <is>
+          <t>中加科享混合A</t>
+        </is>
+      </c>
+      <c r="D50" t="inlineStr">
+        <is>
+          <t>6.20</t>
+        </is>
+      </c>
+      <c r="E50" t="inlineStr">
+        <is>
+          <t>23.24</t>
+        </is>
+      </c>
+      <c r="F50" t="inlineStr">
+        <is>
+          <t>0.94</t>
+        </is>
+      </c>
+      <c r="G50" t="inlineStr">
+        <is>
+          <t>0.0583</t>
+        </is>
+      </c>
+      <c r="H50" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="51">
+      <c r="A51" s="2" t="n">
+        <v>49</v>
+      </c>
+      <c r="B51" t="inlineStr">
+        <is>
+          <t>011133</t>
+        </is>
+      </c>
+      <c r="C51" t="inlineStr">
+        <is>
+          <t>鹏扬沪深300质量成长低波动指数证券投资基金C</t>
+        </is>
+      </c>
+      <c r="D51" t="inlineStr">
+        <is>
+          <t>1.46</t>
+        </is>
+      </c>
+      <c r="E51" t="inlineStr">
+        <is>
+          <t>94.18</t>
+        </is>
+      </c>
+      <c r="F51" t="inlineStr">
+        <is>
+          <t>3.85</t>
+        </is>
+      </c>
+      <c r="G51" t="inlineStr">
+        <is>
+          <t>0.0562</t>
+        </is>
+      </c>
+      <c r="H51" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="52">
+      <c r="A52" s="2" t="n">
+        <v>50</v>
+      </c>
+      <c r="B52" t="inlineStr">
+        <is>
+          <t>900027</t>
+        </is>
+      </c>
+      <c r="C52" t="inlineStr">
+        <is>
+          <t>中信证券信远一年持有期混合型集合资产管理计划A</t>
+        </is>
+      </c>
+      <c r="D52" t="inlineStr">
+        <is>
+          <t>0.89</t>
+        </is>
+      </c>
+      <c r="E52" t="inlineStr">
+        <is>
+          <t>87.99</t>
+        </is>
+      </c>
+      <c r="F52" t="inlineStr">
+        <is>
+          <t>5.36</t>
+        </is>
+      </c>
+      <c r="G52" t="inlineStr">
+        <is>
+          <t>0.0477</t>
+        </is>
+      </c>
+      <c r="H52" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="53">
+      <c r="A53" s="2" t="n">
+        <v>51</v>
+      </c>
+      <c r="B53" t="inlineStr">
+        <is>
+          <t>009258</t>
+        </is>
+      </c>
+      <c r="C53" t="inlineStr">
+        <is>
+          <t>西部利得景瑞灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D53" t="inlineStr">
+        <is>
+          <t>1.59</t>
+        </is>
+      </c>
+      <c r="E53" t="inlineStr">
+        <is>
+          <t>89.32</t>
+        </is>
+      </c>
+      <c r="F53" t="inlineStr">
+        <is>
+          <t>2.77</t>
+        </is>
+      </c>
+      <c r="G53" t="inlineStr">
+        <is>
+          <t>0.0440</t>
+        </is>
+      </c>
+      <c r="H53" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="54">
+      <c r="A54" s="2" t="n">
+        <v>52</v>
+      </c>
+      <c r="B54" t="inlineStr">
+        <is>
+          <t>167503</t>
+        </is>
+      </c>
+      <c r="C54" t="inlineStr">
+        <is>
+          <t>安信中证一带一路主题指数</t>
+        </is>
+      </c>
+      <c r="D54" t="inlineStr">
+        <is>
+          <t>1.65</t>
+        </is>
+      </c>
+      <c r="E54" t="inlineStr">
+        <is>
+          <t>94.56</t>
+        </is>
+      </c>
+      <c r="F54" t="inlineStr">
+        <is>
+          <t>2.66</t>
+        </is>
+      </c>
+      <c r="G54" t="inlineStr">
+        <is>
+          <t>0.0439</t>
+        </is>
+      </c>
+      <c r="H54" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="55">
+      <c r="A55" s="2" t="n">
+        <v>53</v>
+      </c>
+      <c r="B55" t="inlineStr">
+        <is>
+          <t>005544</t>
+        </is>
+      </c>
+      <c r="C55" t="inlineStr">
+        <is>
+          <t>银华瑞和灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D55" t="inlineStr">
+        <is>
+          <t>1.00</t>
+        </is>
+      </c>
+      <c r="E55" t="inlineStr">
+        <is>
+          <t>94.12</t>
+        </is>
+      </c>
+      <c r="F55" t="inlineStr">
+        <is>
+          <t>4.19</t>
+        </is>
+      </c>
+      <c r="G55" t="inlineStr">
+        <is>
+          <t>0.0419</t>
+        </is>
+      </c>
+      <c r="H55" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="56">
+      <c r="A56" s="2" t="n">
+        <v>54</v>
+      </c>
+      <c r="B56" t="inlineStr">
+        <is>
+          <t>002281</t>
+        </is>
+      </c>
+      <c r="C56" t="inlineStr">
+        <is>
+          <t>建信裕利灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D56" t="inlineStr">
+        <is>
+          <t>0.96</t>
+        </is>
+      </c>
+      <c r="E56" t="inlineStr">
+        <is>
+          <t>87.31</t>
+        </is>
+      </c>
+      <c r="F56" t="inlineStr">
+        <is>
+          <t>4.06</t>
+        </is>
+      </c>
+      <c r="G56" t="inlineStr">
+        <is>
+          <t>0.0390</t>
+        </is>
+      </c>
+      <c r="H56" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="57">
+      <c r="A57" s="2" t="n">
+        <v>55</v>
+      </c>
+      <c r="B57" t="inlineStr">
+        <is>
+          <t>512750</t>
+        </is>
+      </c>
+      <c r="C57" t="inlineStr">
+        <is>
+          <t>嘉实中证锐联基本面50ETF</t>
+        </is>
+      </c>
+      <c r="D57" t="inlineStr">
+        <is>
+          <t>1.37</t>
+        </is>
+      </c>
+      <c r="E57" t="inlineStr">
+        <is>
+          <t>99.48</t>
+        </is>
+      </c>
+      <c r="F57" t="inlineStr">
+        <is>
+          <t>2.82</t>
+        </is>
+      </c>
+      <c r="G57" t="inlineStr">
+        <is>
+          <t>0.0386</t>
+        </is>
+      </c>
+      <c r="H57" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="58">
+      <c r="A58" s="2" t="n">
+        <v>56</v>
+      </c>
+      <c r="B58" t="inlineStr">
+        <is>
+          <t>009753</t>
+        </is>
+      </c>
+      <c r="C58" t="inlineStr">
+        <is>
+          <t>中欧美益稳健两年持有期混合A</t>
+        </is>
+      </c>
+      <c r="D58" t="inlineStr">
+        <is>
+          <t>2.70</t>
+        </is>
+      </c>
+      <c r="E58" t="inlineStr">
+        <is>
+          <t>27.88</t>
+        </is>
+      </c>
+      <c r="F58" t="inlineStr">
+        <is>
+          <t>1.08</t>
+        </is>
+      </c>
+      <c r="G58" t="inlineStr">
+        <is>
+          <t>0.0292</t>
+        </is>
+      </c>
+      <c r="H58" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="59">
+      <c r="A59" s="2" t="n">
+        <v>57</v>
+      </c>
+      <c r="B59" t="inlineStr">
+        <is>
+          <t>010426</t>
+        </is>
+      </c>
+      <c r="C59" t="inlineStr">
+        <is>
+          <t>国投瑞银开放视角精选混合C</t>
+        </is>
+      </c>
+      <c r="D59" t="inlineStr">
+        <is>
+          <t>0.74</t>
+        </is>
+      </c>
+      <c r="E59" t="inlineStr">
+        <is>
+          <t>92.88</t>
+        </is>
+      </c>
+      <c r="F59" t="inlineStr">
+        <is>
+          <t>3.72</t>
+        </is>
+      </c>
+      <c r="G59" t="inlineStr">
+        <is>
+          <t>0.0275</t>
+        </is>
+      </c>
+      <c r="H59" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="60">
+      <c r="A60" s="2" t="n">
+        <v>58</v>
+      </c>
+      <c r="B60" t="inlineStr">
+        <is>
+          <t>515300</t>
+        </is>
+      </c>
+      <c r="C60" t="inlineStr">
+        <is>
+          <t>嘉实沪深300红利低波动ETF</t>
+        </is>
+      </c>
+      <c r="D60" t="inlineStr">
+        <is>
+          <t>0.80</t>
+        </is>
+      </c>
+      <c r="E60" t="inlineStr">
+        <is>
+          <t>99.24</t>
+        </is>
+      </c>
+      <c r="F60" t="inlineStr">
+        <is>
+          <t>3.42</t>
+        </is>
+      </c>
+      <c r="G60" t="inlineStr">
+        <is>
+          <t>0.0274</t>
+        </is>
+      </c>
+      <c r="H60" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="61">
+      <c r="A61" s="2" t="n">
+        <v>59</v>
+      </c>
+      <c r="B61" t="inlineStr">
+        <is>
+          <t>160725</t>
+        </is>
+      </c>
+      <c r="C61" t="inlineStr">
+        <is>
+          <t>嘉实中证锐联基本面50指数(LOF)C</t>
+        </is>
+      </c>
+      <c r="D61" t="inlineStr">
+        <is>
+          <t>1.01</t>
+        </is>
+      </c>
+      <c r="E61" t="inlineStr">
+        <is>
+          <t>94.89</t>
+        </is>
+      </c>
+      <c r="F61" t="inlineStr">
+        <is>
+          <t>2.68</t>
+        </is>
+      </c>
+      <c r="G61" t="inlineStr">
+        <is>
+          <t>0.0271</t>
+        </is>
+      </c>
+      <c r="H61" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="62">
+      <c r="A62" s="2" t="n">
+        <v>60</v>
+      </c>
+      <c r="B62" t="inlineStr">
+        <is>
+          <t>003026</t>
+        </is>
+      </c>
+      <c r="C62" t="inlineStr">
+        <is>
+          <t>安信新价值灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D62" t="inlineStr">
+        <is>
+          <t>2.65</t>
+        </is>
+      </c>
+      <c r="E62" t="inlineStr">
+        <is>
+          <t>28.43</t>
+        </is>
+      </c>
+      <c r="F62" t="inlineStr">
+        <is>
+          <t>0.96</t>
+        </is>
+      </c>
+      <c r="G62" t="inlineStr">
+        <is>
+          <t>0.0254</t>
+        </is>
+      </c>
+      <c r="H62" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="63">
+      <c r="A63" s="2" t="n">
+        <v>61</v>
+      </c>
+      <c r="B63" t="inlineStr">
+        <is>
+          <t>007505</t>
+        </is>
+      </c>
+      <c r="C63" t="inlineStr">
+        <is>
+          <t>华夏中证AH经济蓝筹股票指数A</t>
+        </is>
+      </c>
+      <c r="D63" t="inlineStr">
+        <is>
+          <t>1.84</t>
+        </is>
+      </c>
+      <c r="E63" t="inlineStr">
+        <is>
+          <t>94.20</t>
+        </is>
+      </c>
+      <c r="F63" t="inlineStr">
+        <is>
+          <t>1.35</t>
+        </is>
+      </c>
+      <c r="G63" t="inlineStr">
+        <is>
+          <t>0.0248</t>
+        </is>
+      </c>
+      <c r="H63" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="64">
+      <c r="A64" s="2" t="n">
+        <v>62</v>
+      </c>
+      <c r="B64" t="inlineStr">
+        <is>
+          <t>002773</t>
+        </is>
+      </c>
+      <c r="C64" t="inlineStr">
+        <is>
+          <t>光大保德信铭鑫灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D64" t="inlineStr">
+        <is>
+          <t>0.56</t>
+        </is>
+      </c>
+      <c r="E64" t="inlineStr">
+        <is>
+          <t>85.11</t>
+        </is>
+      </c>
+      <c r="F64" t="inlineStr">
+        <is>
+          <t>3.97</t>
+        </is>
+      </c>
+      <c r="G64" t="inlineStr">
+        <is>
+          <t>0.0222</t>
+        </is>
+      </c>
+      <c r="H64" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="65">
+      <c r="A65" s="2" t="n">
+        <v>63</v>
+      </c>
+      <c r="B65" t="inlineStr">
+        <is>
+          <t>010569</t>
+        </is>
+      </c>
+      <c r="C65" t="inlineStr">
+        <is>
+          <t>海富通惠睿精选混合C</t>
+        </is>
+      </c>
+      <c r="D65" t="inlineStr">
+        <is>
+          <t>2.91</t>
+        </is>
+      </c>
+      <c r="E65" t="inlineStr">
+        <is>
+          <t>25.13</t>
+        </is>
+      </c>
+      <c r="F65" t="inlineStr">
+        <is>
+          <t>0.65</t>
+        </is>
+      </c>
+      <c r="G65" t="inlineStr">
+        <is>
+          <t>0.0189</t>
+        </is>
+      </c>
+      <c r="H65" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="66">
+      <c r="A66" s="2" t="n">
+        <v>64</v>
+      </c>
+      <c r="B66" t="inlineStr">
+        <is>
+          <t>009438</t>
+        </is>
+      </c>
+      <c r="C66" t="inlineStr">
+        <is>
+          <t>信达澳银科技创新一年定期开放混合C</t>
+        </is>
+      </c>
+      <c r="D66" t="inlineStr">
+        <is>
+          <t>1.05</t>
+        </is>
+      </c>
+      <c r="E66" t="inlineStr">
+        <is>
+          <t>89.74</t>
+        </is>
+      </c>
+      <c r="F66" t="inlineStr">
+        <is>
+          <t>1.66</t>
+        </is>
+      </c>
+      <c r="G66" t="inlineStr">
+        <is>
+          <t>0.0174</t>
+        </is>
+      </c>
+      <c r="H66" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="67">
+      <c r="A67" s="2" t="n">
+        <v>65</v>
+      </c>
+      <c r="B67" t="inlineStr">
+        <is>
+          <t>005545</t>
+        </is>
+      </c>
+      <c r="C67" t="inlineStr">
+        <is>
+          <t>中银改革红利灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D67" t="inlineStr">
+        <is>
+          <t>0.53</t>
+        </is>
+      </c>
+      <c r="E67" t="inlineStr">
+        <is>
+          <t>74.30</t>
+        </is>
+      </c>
+      <c r="F67" t="inlineStr">
+        <is>
+          <t>2.82</t>
+        </is>
+      </c>
+      <c r="G67" t="inlineStr">
+        <is>
+          <t>0.0149</t>
+        </is>
+      </c>
+      <c r="H67" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="68">
+      <c r="A68" s="2" t="n">
+        <v>66</v>
+      </c>
+      <c r="B68" t="inlineStr">
+        <is>
+          <t>007506</t>
+        </is>
+      </c>
+      <c r="C68" t="inlineStr">
+        <is>
+          <t>华夏中证AH经济蓝筹股票指数C</t>
+        </is>
+      </c>
+      <c r="D68" t="inlineStr">
+        <is>
+          <t>1.01</t>
+        </is>
+      </c>
+      <c r="E68" t="inlineStr">
+        <is>
+          <t>94.20</t>
+        </is>
+      </c>
+      <c r="F68" t="inlineStr">
+        <is>
+          <t>1.35</t>
+        </is>
+      </c>
+      <c r="G68" t="inlineStr">
+        <is>
+          <t>0.0136</t>
+        </is>
+      </c>
+      <c r="H68" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="69">
+      <c r="A69" s="2" t="n">
+        <v>67</v>
+      </c>
+      <c r="B69" t="inlineStr">
+        <is>
+          <t>000591</t>
+        </is>
+      </c>
+      <c r="C69" t="inlineStr">
+        <is>
+          <t>中银健康生活混合</t>
+        </is>
+      </c>
+      <c r="D69" t="inlineStr">
+        <is>
+          <t>0.44</t>
+        </is>
+      </c>
+      <c r="E69" t="inlineStr">
+        <is>
+          <t>75.14</t>
+        </is>
+      </c>
+      <c r="F69" t="inlineStr">
+        <is>
+          <t>2.63</t>
+        </is>
+      </c>
+      <c r="G69" t="inlineStr">
+        <is>
+          <t>0.0116</t>
+        </is>
+      </c>
+      <c r="H69" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="70">
+      <c r="A70" s="2" t="n">
+        <v>68</v>
+      </c>
+      <c r="B70" t="inlineStr">
+        <is>
+          <t>001252</t>
+        </is>
+      </c>
+      <c r="C70" t="inlineStr">
+        <is>
+          <t>中海进取收益灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D70" t="inlineStr">
+        <is>
+          <t>0.30</t>
+        </is>
+      </c>
+      <c r="E70" t="inlineStr">
+        <is>
+          <t>77.88</t>
+        </is>
+      </c>
+      <c r="F70" t="inlineStr">
+        <is>
+          <t>3.86</t>
+        </is>
+      </c>
+      <c r="G70" t="inlineStr">
+        <is>
+          <t>0.0116</t>
+        </is>
+      </c>
+      <c r="H70" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="71">
+      <c r="A71" s="2" t="n">
+        <v>69</v>
+      </c>
+      <c r="B71" t="inlineStr">
+        <is>
+          <t>010399</t>
+        </is>
+      </c>
+      <c r="C71" t="inlineStr">
+        <is>
+          <t>中加科享混合C</t>
+        </is>
+      </c>
+      <c r="D71" t="inlineStr">
+        <is>
+          <t>1.12</t>
+        </is>
+      </c>
+      <c r="E71" t="inlineStr">
+        <is>
+          <t>23.24</t>
+        </is>
+      </c>
+      <c r="F71" t="inlineStr">
+        <is>
+          <t>0.94</t>
+        </is>
+      </c>
+      <c r="G71" t="inlineStr">
+        <is>
+          <t>0.0105</t>
+        </is>
+      </c>
+      <c r="H71" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="72">
+      <c r="A72" s="2" t="n">
+        <v>70</v>
+      </c>
+      <c r="B72" t="inlineStr">
+        <is>
+          <t>002774</t>
+        </is>
+      </c>
+      <c r="C72" t="inlineStr">
+        <is>
+          <t>光大保德信铭鑫灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D72" t="inlineStr">
+        <is>
+          <t>0.24</t>
+        </is>
+      </c>
+      <c r="E72" t="inlineStr">
+        <is>
+          <t>85.11</t>
+        </is>
+      </c>
+      <c r="F72" t="inlineStr">
+        <is>
+          <t>3.97</t>
+        </is>
+      </c>
+      <c r="G72" t="inlineStr">
+        <is>
+          <t>0.0095</t>
+        </is>
+      </c>
+      <c r="H72" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="73">
+      <c r="A73" s="2" t="n">
+        <v>71</v>
+      </c>
+      <c r="B73" t="inlineStr">
+        <is>
+          <t>003027</t>
+        </is>
+      </c>
+      <c r="C73" t="inlineStr">
+        <is>
+          <t>安信新价值灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D73" t="inlineStr">
+        <is>
+          <t>0.98</t>
+        </is>
+      </c>
+      <c r="E73" t="inlineStr">
+        <is>
+          <t>28.43</t>
+        </is>
+      </c>
+      <c r="F73" t="inlineStr">
+        <is>
+          <t>0.96</t>
+        </is>
+      </c>
+      <c r="G73" t="inlineStr">
+        <is>
+          <t>0.0094</t>
+        </is>
+      </c>
+      <c r="H73" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="74">
+      <c r="A74" s="2" t="n">
+        <v>72</v>
+      </c>
+      <c r="B74" t="inlineStr">
+        <is>
+          <t>163821</t>
+        </is>
+      </c>
+      <c r="C74" t="inlineStr">
+        <is>
+          <t>中银沪深300等权重指数(LOF)</t>
+        </is>
+      </c>
+      <c r="D74" t="inlineStr">
+        <is>
+          <t>0.52</t>
+        </is>
+      </c>
+      <c r="E74" t="inlineStr">
+        <is>
+          <t>93.26</t>
+        </is>
+      </c>
+      <c r="F74" t="inlineStr">
+        <is>
+          <t>0.66</t>
+        </is>
+      </c>
+      <c r="G74" t="inlineStr">
+        <is>
+          <t>0.0034</t>
+        </is>
+      </c>
+      <c r="H74" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="75">
+      <c r="A75" s="2" t="n">
+        <v>73</v>
+      </c>
+      <c r="B75" t="inlineStr">
+        <is>
+          <t>009754</t>
+        </is>
+      </c>
+      <c r="C75" t="inlineStr">
+        <is>
+          <t>中欧美益稳健两年持有期混合C</t>
+        </is>
+      </c>
+      <c r="D75" t="inlineStr">
+        <is>
+          <t>0.23</t>
+        </is>
+      </c>
+      <c r="E75" t="inlineStr">
+        <is>
+          <t>27.88</t>
+        </is>
+      </c>
+      <c r="F75" t="inlineStr">
+        <is>
+          <t>1.08</t>
+        </is>
+      </c>
+      <c r="G75" t="inlineStr">
+        <is>
+          <t>0.0025</t>
+        </is>
+      </c>
+      <c r="H75" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="76">
+      <c r="A76" s="2" t="n">
+        <v>74</v>
+      </c>
+      <c r="B76" t="inlineStr">
+        <is>
+          <t>001311</t>
+        </is>
+      </c>
+      <c r="C76" t="inlineStr">
+        <is>
+          <t>华安新回报灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D76" t="inlineStr">
+        <is>
+          <t>0.61</t>
+        </is>
+      </c>
+      <c r="E76" t="inlineStr">
+        <is>
+          <t>24.13</t>
+        </is>
+      </c>
+      <c r="F76" t="inlineStr">
+        <is>
+          <t>0.35</t>
+        </is>
+      </c>
+      <c r="G76" t="inlineStr">
+        <is>
+          <t>0.0021</t>
+        </is>
+      </c>
+      <c r="H76" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="77">
+      <c r="A77" s="2" t="n">
+        <v>75</v>
+      </c>
+      <c r="B77" t="inlineStr">
+        <is>
+          <t>008893</t>
+        </is>
+      </c>
+      <c r="C77" t="inlineStr">
+        <is>
+          <t>创金合信鑫利混合A</t>
+        </is>
+      </c>
+      <c r="D77" t="inlineStr">
+        <is>
+          <t>0.09</t>
+        </is>
+      </c>
+      <c r="E77" t="inlineStr">
+        <is>
+          <t>27.74</t>
+        </is>
+      </c>
+      <c r="F77" t="inlineStr">
+        <is>
+          <t>1.02</t>
+        </is>
+      </c>
+      <c r="G77" t="inlineStr">
+        <is>
+          <t>0.0009</t>
+        </is>
+      </c>
+      <c r="H77" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="78">
+      <c r="A78" s="2" t="n">
+        <v>76</v>
+      </c>
+      <c r="B78" t="inlineStr">
+        <is>
+          <t>900077</t>
+        </is>
+      </c>
+      <c r="C78" t="inlineStr">
+        <is>
+          <t>中信证券信远一年持有期混合型集合资产管理计划B</t>
+        </is>
+      </c>
+      <c r="D78" t="inlineStr">
+        <is>
+          <t>0.01</t>
+        </is>
+      </c>
+      <c r="E78" t="inlineStr">
+        <is>
+          <t>87.99</t>
+        </is>
+      </c>
+      <c r="F78" t="inlineStr">
+        <is>
+          <t>5.36</t>
+        </is>
+      </c>
+      <c r="G78" t="inlineStr">
+        <is>
+          <t>0.0005</t>
+        </is>
+      </c>
+      <c r="H78" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="79">
+      <c r="A79" s="2" t="n">
+        <v>77</v>
+      </c>
+      <c r="B79" t="inlineStr">
+        <is>
+          <t>900087</t>
+        </is>
+      </c>
+      <c r="C79" t="inlineStr">
+        <is>
+          <t>中信证券信远一年持有期混合型集合资产管理计划C</t>
+        </is>
+      </c>
+      <c r="D79" t="inlineStr">
+        <is>
+          <t>0.01</t>
+        </is>
+      </c>
+      <c r="E79" t="inlineStr">
+        <is>
+          <t>87.99</t>
+        </is>
+      </c>
+      <c r="F79" t="inlineStr">
+        <is>
+          <t>5.36</t>
+        </is>
+      </c>
+      <c r="G79" t="inlineStr">
+        <is>
+          <t>0.0005</t>
+        </is>
+      </c>
+      <c r="H79" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="80">
+      <c r="A80" s="2" t="n">
+        <v>78</v>
+      </c>
+      <c r="B80" t="inlineStr">
+        <is>
+          <t>008894</t>
+        </is>
+      </c>
+      <c r="C80" t="inlineStr">
+        <is>
+          <t>创金合信鑫利混合C</t>
+        </is>
+      </c>
+      <c r="D80" t="inlineStr">
+        <is>
+          <t>0.01</t>
+        </is>
+      </c>
+      <c r="E80" t="inlineStr">
+        <is>
+          <t>27.74</t>
+        </is>
+      </c>
+      <c r="F80" t="inlineStr">
+        <is>
+          <t>1.02</t>
+        </is>
+      </c>
+      <c r="G80" t="inlineStr">
+        <is>
+          <t>0.0001</t>
+        </is>
+      </c>
+      <c r="H80" t="n">
+        <v>9</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
 </file>
--- a/数据整理/stocks/A股/上证主板/601669-中国电建.xlsx
+++ b/数据整理/stocks/A股/上证主板/601669-中国电建.xlsx
@@ -10,6 +10,7 @@
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="2" state="visible" r:id="rId2"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="3" state="visible" r:id="rId3"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="4" state="visible" r:id="rId4"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="5" state="visible" r:id="rId5"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -4583,4 +4584,104 @@
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:D5"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>日期</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>持有数量</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>2021-Q3</t>
+        </is>
+      </c>
+      <c r="C2" t="n">
+        <v>79</v>
+      </c>
+      <c r="D2" t="n">
+        <v>41.61</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>2021-Q2</t>
+        </is>
+      </c>
+      <c r="C3" t="n">
+        <v>8</v>
+      </c>
+      <c r="D3" t="n">
+        <v>5.74</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>2021-Q1</t>
+        </is>
+      </c>
+      <c r="C4" t="n">
+        <v>7</v>
+      </c>
+      <c r="D4" t="n">
+        <v>6.52</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>2020-Q4</t>
+        </is>
+      </c>
+      <c r="C5" t="n">
+        <v>9</v>
+      </c>
+      <c r="D5" t="n">
+        <v>6.47</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
 </file>
--- a/数据整理/stocks/A股/上证主板/601669-中国电建.xlsx
+++ b/数据整理/stocks/A股/上证主板/601669-中国电建.xlsx
@@ -10,7 +10,8 @@
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="2" state="visible" r:id="rId2"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="3" state="visible" r:id="rId3"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="4" state="visible" r:id="rId4"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="5" state="visible" r:id="rId5"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q4" sheetId="5" state="visible" r:id="rId5"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="6" state="visible" r:id="rId6"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -4592,7 +4593,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D5"/>
+  <dimension ref="A1:H80"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -4603,17 +4604,37 @@
     <row r="1">
       <c r="B1" s="2" t="inlineStr">
         <is>
-          <t>日期</t>
+          <t>基金代码</t>
         </is>
       </c>
       <c r="C1" s="2" t="inlineStr">
         <is>
-          <t>持有数量</t>
+          <t>基金名称</t>
         </is>
       </c>
       <c r="D1" s="2" t="inlineStr">
         <is>
-          <t>持有市值</t>
+          <t>基金规模</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
         </is>
       </c>
     </row>
@@ -4623,14 +4644,36 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>2021-Q3</t>
-        </is>
-      </c>
-      <c r="C2" t="n">
-        <v>79</v>
-      </c>
-      <c r="D2" t="n">
-        <v>41.61</v>
+          <t>005730</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>国泰江源优势精选灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>70.46</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>92.78</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>4.59</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>3.2341</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>9</v>
       </c>
     </row>
     <row r="3">
@@ -4639,14 +4682,36 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>2021-Q2</t>
-        </is>
-      </c>
-      <c r="C3" t="n">
-        <v>8</v>
-      </c>
-      <c r="D3" t="n">
-        <v>5.74</v>
+          <t>010027</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>景顺长城核心中景一年持有期混合</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>72.43</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>87.04</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>3.13</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>2.2671</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>10</v>
       </c>
     </row>
     <row r="4">
@@ -4655,14 +4720,36 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>2021-Q1</t>
-        </is>
-      </c>
-      <c r="C4" t="n">
-        <v>7</v>
-      </c>
-      <c r="D4" t="n">
-        <v>6.52</v>
+          <t>515900</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>博时中证央企创新驱动ETF</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>54.19</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>98.78</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>4.14</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>2.2435</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>4</v>
       </c>
     </row>
     <row r="5">
@@ -4671,13 +4758,2995 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
+          <t>010108</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>景顺长城核心招景混合</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>67.95</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>91.65</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>3.21</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>2.1812</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>009474</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>国泰致远优势混合</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>41.93</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>92.85</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>4.82</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>2.0210</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>009636</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>华泰柏瑞景气优选混合</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>58.66</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>85.23</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>3.11</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>1.8243</t>
+        </is>
+      </c>
+      <c r="H7" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>165525</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>信诚中证基建工程指数（LOF）</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>12.95</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>94.27</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>9.69</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>1.2549</t>
+        </is>
+      </c>
+      <c r="H8" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>398001</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>中海优质成长混合</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>24.84</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>89.59</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>3.89</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>0.9663</t>
+        </is>
+      </c>
+      <c r="H9" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="2" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>515680</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>嘉实中证央企创新驱动ETF</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>20.88</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>99.23</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>4.19</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>0.8749</t>
+        </is>
+      </c>
+      <c r="H10" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="2" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>515600</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>广发中证央企创新驱动ETF</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>20.13</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>98.74</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>4.22</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>0.8495</t>
+        </is>
+      </c>
+      <c r="H11" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="2" t="n">
+        <v>10</v>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>007968</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>华泰柏瑞研究精选混合A</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>26.42</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>84.91</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>3.12</t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr">
+        <is>
+          <t>0.8243</t>
+        </is>
+      </c>
+      <c r="H12" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="2" t="n">
+        <v>11</v>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>000566</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>华泰柏瑞创新升级混合A</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>24.03</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>86.13</t>
+        </is>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>3.12</t>
+        </is>
+      </c>
+      <c r="G13" t="inlineStr">
+        <is>
+          <t>0.7497</t>
+        </is>
+      </c>
+      <c r="H13" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="2" t="n">
+        <v>12</v>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>516950</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>银华中证基建交易型开放式指数证券投资基金</t>
+        </is>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>10.16</t>
+        </is>
+      </c>
+      <c r="E14" t="inlineStr">
+        <is>
+          <t>97.99</t>
+        </is>
+      </c>
+      <c r="F14" t="inlineStr">
+        <is>
+          <t>7.23</t>
+        </is>
+      </c>
+      <c r="G14" t="inlineStr">
+        <is>
+          <t>0.7346</t>
+        </is>
+      </c>
+      <c r="H14" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="2" t="n">
+        <v>13</v>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>519195</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>万家品质生活灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D15" t="inlineStr">
+        <is>
+          <t>17.18</t>
+        </is>
+      </c>
+      <c r="E15" t="inlineStr">
+        <is>
+          <t>91.46</t>
+        </is>
+      </c>
+      <c r="F15" t="inlineStr">
+        <is>
+          <t>4.11</t>
+        </is>
+      </c>
+      <c r="G15" t="inlineStr">
+        <is>
+          <t>0.7061</t>
+        </is>
+      </c>
+      <c r="H15" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="2" t="n">
+        <v>14</v>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>202027</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>南方高端装备灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D16" t="inlineStr">
+        <is>
+          <t>21.56</t>
+        </is>
+      </c>
+      <c r="E16" t="inlineStr">
+        <is>
+          <t>89.68</t>
+        </is>
+      </c>
+      <c r="F16" t="inlineStr">
+        <is>
+          <t>2.99</t>
+        </is>
+      </c>
+      <c r="G16" t="inlineStr">
+        <is>
+          <t>0.6446</t>
+        </is>
+      </c>
+      <c r="H16" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="2" t="n">
+        <v>15</v>
+      </c>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>240010</t>
+        </is>
+      </c>
+      <c r="C17" t="inlineStr">
+        <is>
+          <t>华宝行业精选混合</t>
+        </is>
+      </c>
+      <c r="D17" t="inlineStr">
+        <is>
+          <t>20.46</t>
+        </is>
+      </c>
+      <c r="E17" t="inlineStr">
+        <is>
+          <t>89.04</t>
+        </is>
+      </c>
+      <c r="F17" t="inlineStr">
+        <is>
+          <t>2.45</t>
+        </is>
+      </c>
+      <c r="G17" t="inlineStr">
+        <is>
+          <t>0.5013</t>
+        </is>
+      </c>
+      <c r="H17" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="2" t="n">
+        <v>16</v>
+      </c>
+      <c r="B18" t="inlineStr">
+        <is>
+          <t>519690</t>
+        </is>
+      </c>
+      <c r="C18" t="inlineStr">
+        <is>
+          <t>交银稳健配置混合A</t>
+        </is>
+      </c>
+      <c r="D18" t="inlineStr">
+        <is>
+          <t>20.53</t>
+        </is>
+      </c>
+      <c r="E18" t="inlineStr">
+        <is>
+          <t>67.80</t>
+        </is>
+      </c>
+      <c r="F18" t="inlineStr">
+        <is>
+          <t>1.97</t>
+        </is>
+      </c>
+      <c r="G18" t="inlineStr">
+        <is>
+          <t>0.4044</t>
+        </is>
+      </c>
+      <c r="H18" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="2" t="n">
+        <v>17</v>
+      </c>
+      <c r="B19" t="inlineStr">
+        <is>
+          <t>008373</t>
+        </is>
+      </c>
+      <c r="C19" t="inlineStr">
+        <is>
+          <t>华泰柏瑞景气回报一年持有期混合A</t>
+        </is>
+      </c>
+      <c r="D19" t="inlineStr">
+        <is>
+          <t>12.72</t>
+        </is>
+      </c>
+      <c r="E19" t="inlineStr">
+        <is>
+          <t>86.85</t>
+        </is>
+      </c>
+      <c r="F19" t="inlineStr">
+        <is>
+          <t>3.14</t>
+        </is>
+      </c>
+      <c r="G19" t="inlineStr">
+        <is>
+          <t>0.3994</t>
+        </is>
+      </c>
+      <c r="H19" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" s="2" t="n">
+        <v>18</v>
+      </c>
+      <c r="B20" t="inlineStr">
+        <is>
+          <t>501080</t>
+        </is>
+      </c>
+      <c r="C20" t="inlineStr">
+        <is>
+          <t>中金科创主题 3 年封闭运作灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D20" t="inlineStr">
+        <is>
+          <t>18.23</t>
+        </is>
+      </c>
+      <c r="E20" t="inlineStr">
+        <is>
+          <t>77.29</t>
+        </is>
+      </c>
+      <c r="F20" t="inlineStr">
+        <is>
+          <t>2.06</t>
+        </is>
+      </c>
+      <c r="G20" t="inlineStr">
+        <is>
+          <t>0.3755</t>
+        </is>
+      </c>
+      <c r="H20" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" s="2" t="n">
+        <v>19</v>
+      </c>
+      <c r="B21" t="inlineStr">
+        <is>
+          <t>519193</t>
+        </is>
+      </c>
+      <c r="C21" t="inlineStr">
+        <is>
+          <t>万家消费成长股票</t>
+        </is>
+      </c>
+      <c r="D21" t="inlineStr">
+        <is>
+          <t>5.51</t>
+        </is>
+      </c>
+      <c r="E21" t="inlineStr">
+        <is>
+          <t>91.57</t>
+        </is>
+      </c>
+      <c r="F21" t="inlineStr">
+        <is>
+          <t>5.33</t>
+        </is>
+      </c>
+      <c r="G21" t="inlineStr">
+        <is>
+          <t>0.2937</t>
+        </is>
+      </c>
+      <c r="H21" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" s="2" t="n">
+        <v>20</v>
+      </c>
+      <c r="B22" t="inlineStr">
+        <is>
+          <t>516970</t>
+        </is>
+      </c>
+      <c r="C22" t="inlineStr">
+        <is>
+          <t>广发中证基建工程交易型开放式指数证券投资基金</t>
+        </is>
+      </c>
+      <c r="D22" t="inlineStr">
+        <is>
+          <t>2.69</t>
+        </is>
+      </c>
+      <c r="E22" t="inlineStr">
+        <is>
+          <t>99.64</t>
+        </is>
+      </c>
+      <c r="F22" t="inlineStr">
+        <is>
+          <t>10.27</t>
+        </is>
+      </c>
+      <c r="G22" t="inlineStr">
+        <is>
+          <t>0.2763</t>
+        </is>
+      </c>
+      <c r="H22" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" s="2" t="n">
+        <v>21</v>
+      </c>
+      <c r="B23" t="inlineStr">
+        <is>
+          <t>160716</t>
+        </is>
+      </c>
+      <c r="C23" t="inlineStr">
+        <is>
+          <t>嘉实中证锐联基本面50指数(LOF)A</t>
+        </is>
+      </c>
+      <c r="D23" t="inlineStr">
+        <is>
+          <t>10.93</t>
+        </is>
+      </c>
+      <c r="E23" t="inlineStr">
+        <is>
+          <t>94.42</t>
+        </is>
+      </c>
+      <c r="F23" t="inlineStr">
+        <is>
+          <t>2.49</t>
+        </is>
+      </c>
+      <c r="G23" t="inlineStr">
+        <is>
+          <t>0.2722</t>
+        </is>
+      </c>
+      <c r="H23" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" s="2" t="n">
+        <v>22</v>
+      </c>
+      <c r="B24" t="inlineStr">
+        <is>
+          <t>159974</t>
+        </is>
+      </c>
+      <c r="C24" t="inlineStr">
+        <is>
+          <t>富国中证央企创新驱动ETF</t>
+        </is>
+      </c>
+      <c r="D24" t="inlineStr">
+        <is>
+          <t>6.20</t>
+        </is>
+      </c>
+      <c r="E24" t="inlineStr">
+        <is>
+          <t>99.20</t>
+        </is>
+      </c>
+      <c r="F24" t="inlineStr">
+        <is>
+          <t>4.19</t>
+        </is>
+      </c>
+      <c r="G24" t="inlineStr">
+        <is>
+          <t>0.2598</t>
+        </is>
+      </c>
+      <c r="H24" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" s="2" t="n">
+        <v>23</v>
+      </c>
+      <c r="B25" t="inlineStr">
+        <is>
+          <t>001402</t>
+        </is>
+      </c>
+      <c r="C25" t="inlineStr">
+        <is>
+          <t>信诚新选回报灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D25" t="inlineStr">
+        <is>
+          <t>30.95</t>
+        </is>
+      </c>
+      <c r="E25" t="inlineStr">
+        <is>
+          <t>20.46</t>
+        </is>
+      </c>
+      <c r="F25" t="inlineStr">
+        <is>
+          <t>0.83</t>
+        </is>
+      </c>
+      <c r="G25" t="inlineStr">
+        <is>
+          <t>0.2569</t>
+        </is>
+      </c>
+      <c r="H25" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" s="2" t="n">
+        <v>24</v>
+      </c>
+      <c r="B26" t="inlineStr">
+        <is>
+          <t>009688</t>
+        </is>
+      </c>
+      <c r="C26" t="inlineStr">
+        <is>
+          <t>万家鑫动力月月购一年滚动持有混合</t>
+        </is>
+      </c>
+      <c r="D26" t="inlineStr">
+        <is>
+          <t>5.12</t>
+        </is>
+      </c>
+      <c r="E26" t="inlineStr">
+        <is>
+          <t>90.34</t>
+        </is>
+      </c>
+      <c r="F26" t="inlineStr">
+        <is>
+          <t>4.84</t>
+        </is>
+      </c>
+      <c r="G26" t="inlineStr">
+        <is>
+          <t>0.2478</t>
+        </is>
+      </c>
+      <c r="H26" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" s="2" t="n">
+        <v>25</v>
+      </c>
+      <c r="B27" t="inlineStr">
+        <is>
+          <t>005400</t>
+        </is>
+      </c>
+      <c r="C27" t="inlineStr">
+        <is>
+          <t>万家潜力价值灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D27" t="inlineStr">
+        <is>
+          <t>3.20</t>
+        </is>
+      </c>
+      <c r="E27" t="inlineStr">
+        <is>
+          <t>92.09</t>
+        </is>
+      </c>
+      <c r="F27" t="inlineStr">
+        <is>
+          <t>6.92</t>
+        </is>
+      </c>
+      <c r="G27" t="inlineStr">
+        <is>
+          <t>0.2214</t>
+        </is>
+      </c>
+      <c r="H27" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" s="2" t="n">
+        <v>26</v>
+      </c>
+      <c r="B28" t="inlineStr">
+        <is>
+          <t>000967</t>
+        </is>
+      </c>
+      <c r="C28" t="inlineStr">
+        <is>
+          <t>华泰柏瑞创新动力灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D28" t="inlineStr">
+        <is>
+          <t>6.71</t>
+        </is>
+      </c>
+      <c r="E28" t="inlineStr">
+        <is>
+          <t>85.24</t>
+        </is>
+      </c>
+      <c r="F28" t="inlineStr">
+        <is>
+          <t>3.12</t>
+        </is>
+      </c>
+      <c r="G28" t="inlineStr">
+        <is>
+          <t>0.2094</t>
+        </is>
+      </c>
+      <c r="H28" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" s="2" t="n">
+        <v>27</v>
+      </c>
+      <c r="B29" t="inlineStr">
+        <is>
+          <t>011325</t>
+        </is>
+      </c>
+      <c r="C29" t="inlineStr">
+        <is>
+          <t>国泰江源优势精选灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D29" t="inlineStr">
+        <is>
+          <t>4.09</t>
+        </is>
+      </c>
+      <c r="E29" t="inlineStr">
+        <is>
+          <t>92.78</t>
+        </is>
+      </c>
+      <c r="F29" t="inlineStr">
+        <is>
+          <t>4.59</t>
+        </is>
+      </c>
+      <c r="G29" t="inlineStr">
+        <is>
+          <t>0.1877</t>
+        </is>
+      </c>
+      <c r="H29" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" s="2" t="n">
+        <v>28</v>
+      </c>
+      <c r="B30" t="inlineStr">
+        <is>
+          <t>011349</t>
+        </is>
+      </c>
+      <c r="C30" t="inlineStr">
+        <is>
+          <t>淳厚现代服务业股票A</t>
+        </is>
+      </c>
+      <c r="D30" t="inlineStr">
+        <is>
+          <t>4.64</t>
+        </is>
+      </c>
+      <c r="E30" t="inlineStr">
+        <is>
+          <t>89.91</t>
+        </is>
+      </c>
+      <c r="F30" t="inlineStr">
+        <is>
+          <t>3.31</t>
+        </is>
+      </c>
+      <c r="G30" t="inlineStr">
+        <is>
+          <t>0.1536</t>
+        </is>
+      </c>
+      <c r="H30" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" s="2" t="n">
+        <v>29</v>
+      </c>
+      <c r="B31" t="inlineStr">
+        <is>
+          <t>004784</t>
+        </is>
+      </c>
+      <c r="C31" t="inlineStr">
+        <is>
+          <t>招商稳健优选股票</t>
+        </is>
+      </c>
+      <c r="D31" t="inlineStr">
+        <is>
+          <t>6.79</t>
+        </is>
+      </c>
+      <c r="E31" t="inlineStr">
+        <is>
+          <t>91.95</t>
+        </is>
+      </c>
+      <c r="F31" t="inlineStr">
+        <is>
+          <t>2.00</t>
+        </is>
+      </c>
+      <c r="G31" t="inlineStr">
+        <is>
+          <t>0.1358</t>
+        </is>
+      </c>
+      <c r="H31" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" s="2" t="n">
+        <v>30</v>
+      </c>
+      <c r="B32" t="inlineStr">
+        <is>
+          <t>000029</t>
+        </is>
+      </c>
+      <c r="C32" t="inlineStr">
+        <is>
+          <t>富国宏观策略灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D32" t="inlineStr">
+        <is>
+          <t>5.16</t>
+        </is>
+      </c>
+      <c r="E32" t="inlineStr">
+        <is>
+          <t>84.91</t>
+        </is>
+      </c>
+      <c r="F32" t="inlineStr">
+        <is>
+          <t>2.60</t>
+        </is>
+      </c>
+      <c r="G32" t="inlineStr">
+        <is>
+          <t>0.1342</t>
+        </is>
+      </c>
+      <c r="H32" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" s="2" t="n">
+        <v>31</v>
+      </c>
+      <c r="B33" t="inlineStr">
+        <is>
+          <t>161910</t>
+        </is>
+      </c>
+      <c r="C33" t="inlineStr">
+        <is>
+          <t>万家新机遇价值驱动灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D33" t="inlineStr">
+        <is>
+          <t>2.53</t>
+        </is>
+      </c>
+      <c r="E33" t="inlineStr">
+        <is>
+          <t>90.94</t>
+        </is>
+      </c>
+      <c r="F33" t="inlineStr">
+        <is>
+          <t>5.20</t>
+        </is>
+      </c>
+      <c r="G33" t="inlineStr">
+        <is>
+          <t>0.1316</t>
+        </is>
+      </c>
+      <c r="H33" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" s="2" t="n">
+        <v>32</v>
+      </c>
+      <c r="B34" t="inlineStr">
+        <is>
+          <t>005207</t>
+        </is>
+      </c>
+      <c r="C34" t="inlineStr">
+        <is>
+          <t>南方高端装备灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D34" t="inlineStr">
+        <is>
+          <t>4.29</t>
+        </is>
+      </c>
+      <c r="E34" t="inlineStr">
+        <is>
+          <t>89.68</t>
+        </is>
+      </c>
+      <c r="F34" t="inlineStr">
+        <is>
+          <t>2.99</t>
+        </is>
+      </c>
+      <c r="G34" t="inlineStr">
+        <is>
+          <t>0.1283</t>
+        </is>
+      </c>
+      <c r="H34" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" s="2" t="n">
+        <v>33</v>
+      </c>
+      <c r="B35" t="inlineStr">
+        <is>
+          <t>001088</t>
+        </is>
+      </c>
+      <c r="C35" t="inlineStr">
+        <is>
+          <t>华宝国策导向混合</t>
+        </is>
+      </c>
+      <c r="D35" t="inlineStr">
+        <is>
+          <t>3.53</t>
+        </is>
+      </c>
+      <c r="E35" t="inlineStr">
+        <is>
+          <t>88.47</t>
+        </is>
+      </c>
+      <c r="F35" t="inlineStr">
+        <is>
+          <t>2.52</t>
+        </is>
+      </c>
+      <c r="G35" t="inlineStr">
+        <is>
+          <t>0.0890</t>
+        </is>
+      </c>
+      <c r="H35" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" s="2" t="n">
+        <v>34</v>
+      </c>
+      <c r="B36" t="inlineStr">
+        <is>
+          <t>011071</t>
+        </is>
+      </c>
+      <c r="C36" t="inlineStr">
+        <is>
+          <t>鹏华安悦一年持有期混合A</t>
+        </is>
+      </c>
+      <c r="D36" t="inlineStr">
+        <is>
+          <t>14.48</t>
+        </is>
+      </c>
+      <c r="E36" t="inlineStr">
+        <is>
+          <t>20.65</t>
+        </is>
+      </c>
+      <c r="F36" t="inlineStr">
+        <is>
+          <t>0.50</t>
+        </is>
+      </c>
+      <c r="G36" t="inlineStr">
+        <is>
+          <t>0.0724</t>
+        </is>
+      </c>
+      <c r="H36" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" s="2" t="n">
+        <v>35</v>
+      </c>
+      <c r="B37" t="inlineStr">
+        <is>
+          <t>002046</t>
+        </is>
+      </c>
+      <c r="C37" t="inlineStr">
+        <is>
+          <t>信诚新锐回报灵活配置混合B</t>
+        </is>
+      </c>
+      <c r="D37" t="inlineStr">
+        <is>
+          <t>8.00</t>
+        </is>
+      </c>
+      <c r="E37" t="inlineStr">
+        <is>
+          <t>20.31</t>
+        </is>
+      </c>
+      <c r="F37" t="inlineStr">
+        <is>
+          <t>0.82</t>
+        </is>
+      </c>
+      <c r="G37" t="inlineStr">
+        <is>
+          <t>0.0656</t>
+        </is>
+      </c>
+      <c r="H37" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" s="2" t="n">
+        <v>36</v>
+      </c>
+      <c r="B38" t="inlineStr">
+        <is>
+          <t>001601</t>
+        </is>
+      </c>
+      <c r="C38" t="inlineStr">
+        <is>
+          <t>鑫元鑫新收益灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D38" t="inlineStr">
+        <is>
+          <t>2.01</t>
+        </is>
+      </c>
+      <c r="E38" t="inlineStr">
+        <is>
+          <t>85.37</t>
+        </is>
+      </c>
+      <c r="F38" t="inlineStr">
+        <is>
+          <t>3.14</t>
+        </is>
+      </c>
+      <c r="G38" t="inlineStr">
+        <is>
+          <t>0.0631</t>
+        </is>
+      </c>
+      <c r="H38" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" s="2" t="n">
+        <v>37</v>
+      </c>
+      <c r="B39" t="inlineStr">
+        <is>
+          <t>010568</t>
+        </is>
+      </c>
+      <c r="C39" t="inlineStr">
+        <is>
+          <t>海富通惠睿精选混合A</t>
+        </is>
+      </c>
+      <c r="D39" t="inlineStr">
+        <is>
+          <t>11.94</t>
+        </is>
+      </c>
+      <c r="E39" t="inlineStr">
+        <is>
+          <t>26.84</t>
+        </is>
+      </c>
+      <c r="F39" t="inlineStr">
+        <is>
+          <t>0.52</t>
+        </is>
+      </c>
+      <c r="G39" t="inlineStr">
+        <is>
+          <t>0.0621</t>
+        </is>
+      </c>
+      <c r="H39" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" s="2" t="n">
+        <v>38</v>
+      </c>
+      <c r="B40" t="inlineStr">
+        <is>
+          <t>010124</t>
+        </is>
+      </c>
+      <c r="C40" t="inlineStr">
+        <is>
+          <t>兴银景气优选混合A</t>
+        </is>
+      </c>
+      <c r="D40" t="inlineStr">
+        <is>
+          <t>6.24</t>
+        </is>
+      </c>
+      <c r="E40" t="inlineStr">
+        <is>
+          <t>94.45</t>
+        </is>
+      </c>
+      <c r="F40" t="inlineStr">
+        <is>
+          <t>0.99</t>
+        </is>
+      </c>
+      <c r="G40" t="inlineStr">
+        <is>
+          <t>0.0618</t>
+        </is>
+      </c>
+      <c r="H40" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41" s="2" t="n">
+        <v>39</v>
+      </c>
+      <c r="B41" t="inlineStr">
+        <is>
+          <t>003751</t>
+        </is>
+      </c>
+      <c r="C41" t="inlineStr">
+        <is>
+          <t>万家瑞隆混合</t>
+        </is>
+      </c>
+      <c r="D41" t="inlineStr">
+        <is>
+          <t>3.00</t>
+        </is>
+      </c>
+      <c r="E41" t="inlineStr">
+        <is>
+          <t>90.05</t>
+        </is>
+      </c>
+      <c r="F41" t="inlineStr">
+        <is>
+          <t>1.89</t>
+        </is>
+      </c>
+      <c r="G41" t="inlineStr">
+        <is>
+          <t>0.0567</t>
+        </is>
+      </c>
+      <c r="H41" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="42">
+      <c r="A42" s="2" t="n">
+        <v>40</v>
+      </c>
+      <c r="B42" t="inlineStr">
+        <is>
+          <t>008869</t>
+        </is>
+      </c>
+      <c r="C42" t="inlineStr">
+        <is>
+          <t>大成恒享混合A</t>
+        </is>
+      </c>
+      <c r="D42" t="inlineStr">
+        <is>
+          <t>5.61</t>
+        </is>
+      </c>
+      <c r="E42" t="inlineStr">
+        <is>
+          <t>21.92</t>
+        </is>
+      </c>
+      <c r="F42" t="inlineStr">
+        <is>
+          <t>0.98</t>
+        </is>
+      </c>
+      <c r="G42" t="inlineStr">
+        <is>
+          <t>0.0550</t>
+        </is>
+      </c>
+      <c r="H42" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="43">
+      <c r="A43" s="2" t="n">
+        <v>41</v>
+      </c>
+      <c r="B43" t="inlineStr">
+        <is>
+          <t>005933</t>
+        </is>
+      </c>
+      <c r="C43" t="inlineStr">
+        <is>
+          <t>新疆前海联合先进制造灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D43" t="inlineStr">
+        <is>
+          <t>1.48</t>
+        </is>
+      </c>
+      <c r="E43" t="inlineStr">
+        <is>
+          <t>91.97</t>
+        </is>
+      </c>
+      <c r="F43" t="inlineStr">
+        <is>
+          <t>3.58</t>
+        </is>
+      </c>
+      <c r="G43" t="inlineStr">
+        <is>
+          <t>0.0530</t>
+        </is>
+      </c>
+      <c r="H43" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="44">
+      <c r="A44" s="2" t="n">
+        <v>42</v>
+      </c>
+      <c r="B44" t="inlineStr">
+        <is>
+          <t>005401</t>
+        </is>
+      </c>
+      <c r="C44" t="inlineStr">
+        <is>
+          <t>万家潜力价值灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D44" t="inlineStr">
+        <is>
+          <t>0.72</t>
+        </is>
+      </c>
+      <c r="E44" t="inlineStr">
+        <is>
+          <t>92.09</t>
+        </is>
+      </c>
+      <c r="F44" t="inlineStr">
+        <is>
+          <t>6.92</t>
+        </is>
+      </c>
+      <c r="G44" t="inlineStr">
+        <is>
+          <t>0.0498</t>
+        </is>
+      </c>
+      <c r="H44" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="45">
+      <c r="A45" s="2" t="n">
+        <v>43</v>
+      </c>
+      <c r="B45" t="inlineStr">
+        <is>
+          <t>006085</t>
+        </is>
+      </c>
+      <c r="C45" t="inlineStr">
+        <is>
+          <t>万家新机遇价值驱动灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D45" t="inlineStr">
+        <is>
+          <t>0.92</t>
+        </is>
+      </c>
+      <c r="E45" t="inlineStr">
+        <is>
+          <t>90.94</t>
+        </is>
+      </c>
+      <c r="F45" t="inlineStr">
+        <is>
+          <t>5.20</t>
+        </is>
+      </c>
+      <c r="G45" t="inlineStr">
+        <is>
+          <t>0.0478</t>
+        </is>
+      </c>
+      <c r="H45" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="46">
+      <c r="A46" s="2" t="n">
+        <v>44</v>
+      </c>
+      <c r="B46" t="inlineStr">
+        <is>
+          <t>003235</t>
+        </is>
+      </c>
+      <c r="C46" t="inlineStr">
+        <is>
+          <t>信诚至利灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D46" t="inlineStr">
+        <is>
+          <t>5.59</t>
+        </is>
+      </c>
+      <c r="E46" t="inlineStr">
+        <is>
+          <t>21.03</t>
+        </is>
+      </c>
+      <c r="F46" t="inlineStr">
+        <is>
+          <t>0.84</t>
+        </is>
+      </c>
+      <c r="G46" t="inlineStr">
+        <is>
+          <t>0.0470</t>
+        </is>
+      </c>
+      <c r="H46" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="47">
+      <c r="A47" s="2" t="n">
+        <v>45</v>
+      </c>
+      <c r="B47" t="inlineStr">
+        <is>
+          <t>001678</t>
+        </is>
+      </c>
+      <c r="C47" t="inlineStr">
+        <is>
+          <t>英大国企改革主题股票</t>
+        </is>
+      </c>
+      <c r="D47" t="inlineStr">
+        <is>
+          <t>0.71</t>
+        </is>
+      </c>
+      <c r="E47" t="inlineStr">
+        <is>
+          <t>92.89</t>
+        </is>
+      </c>
+      <c r="F47" t="inlineStr">
+        <is>
+          <t>6.53</t>
+        </is>
+      </c>
+      <c r="G47" t="inlineStr">
+        <is>
+          <t>0.0464</t>
+        </is>
+      </c>
+      <c r="H47" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="48">
+      <c r="A48" s="2" t="n">
+        <v>46</v>
+      </c>
+      <c r="B48" t="inlineStr">
+        <is>
+          <t>003234</t>
+        </is>
+      </c>
+      <c r="C48" t="inlineStr">
+        <is>
+          <t>信诚至利灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D48" t="inlineStr">
+        <is>
+          <t>5.00</t>
+        </is>
+      </c>
+      <c r="E48" t="inlineStr">
+        <is>
+          <t>21.03</t>
+        </is>
+      </c>
+      <c r="F48" t="inlineStr">
+        <is>
+          <t>0.84</t>
+        </is>
+      </c>
+      <c r="G48" t="inlineStr">
+        <is>
+          <t>0.0420</t>
+        </is>
+      </c>
+      <c r="H48" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="49">
+      <c r="A49" s="2" t="n">
+        <v>47</v>
+      </c>
+      <c r="B49" t="inlineStr">
+        <is>
+          <t>002030</t>
+        </is>
+      </c>
+      <c r="C49" t="inlineStr">
+        <is>
+          <t>信诚新选回报灵活配置混合B</t>
+        </is>
+      </c>
+      <c r="D49" t="inlineStr">
+        <is>
+          <t>5.04</t>
+        </is>
+      </c>
+      <c r="E49" t="inlineStr">
+        <is>
+          <t>20.46</t>
+        </is>
+      </c>
+      <c r="F49" t="inlineStr">
+        <is>
+          <t>0.83</t>
+        </is>
+      </c>
+      <c r="G49" t="inlineStr">
+        <is>
+          <t>0.0418</t>
+        </is>
+      </c>
+      <c r="H49" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="50">
+      <c r="A50" s="2" t="n">
+        <v>48</v>
+      </c>
+      <c r="B50" t="inlineStr">
+        <is>
+          <t>001067</t>
+        </is>
+      </c>
+      <c r="C50" t="inlineStr">
+        <is>
+          <t>鹏华弘盛灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D50" t="inlineStr">
+        <is>
+          <t>7.77</t>
+        </is>
+      </c>
+      <c r="E50" t="inlineStr">
+        <is>
+          <t>20.91</t>
+        </is>
+      </c>
+      <c r="F50" t="inlineStr">
+        <is>
+          <t>0.52</t>
+        </is>
+      </c>
+      <c r="G50" t="inlineStr">
+        <is>
+          <t>0.0404</t>
+        </is>
+      </c>
+      <c r="H50" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="51">
+      <c r="A51" s="2" t="n">
+        <v>49</v>
+      </c>
+      <c r="B51" t="inlineStr">
+        <is>
+          <t>005544</t>
+        </is>
+      </c>
+      <c r="C51" t="inlineStr">
+        <is>
+          <t>银华瑞和灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D51" t="inlineStr">
+        <is>
+          <t>0.96</t>
+        </is>
+      </c>
+      <c r="E51" t="inlineStr">
+        <is>
+          <t>91.65</t>
+        </is>
+      </c>
+      <c r="F51" t="inlineStr">
+        <is>
+          <t>4.16</t>
+        </is>
+      </c>
+      <c r="G51" t="inlineStr">
+        <is>
+          <t>0.0399</t>
+        </is>
+      </c>
+      <c r="H51" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="52">
+      <c r="A52" s="2" t="n">
+        <v>50</v>
+      </c>
+      <c r="B52" t="inlineStr">
+        <is>
+          <t>000042</t>
+        </is>
+      </c>
+      <c r="C52" t="inlineStr">
+        <is>
+          <t>中证财通中国可持续发展100 (ECPI ESG) 指数增强A</t>
+        </is>
+      </c>
+      <c r="D52" t="inlineStr">
+        <is>
+          <t>2.12</t>
+        </is>
+      </c>
+      <c r="E52" t="inlineStr">
+        <is>
+          <t>94.01</t>
+        </is>
+      </c>
+      <c r="F52" t="inlineStr">
+        <is>
+          <t>1.84</t>
+        </is>
+      </c>
+      <c r="G52" t="inlineStr">
+        <is>
+          <t>0.0390</t>
+        </is>
+      </c>
+      <c r="H52" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="53">
+      <c r="A53" s="2" t="n">
+        <v>51</v>
+      </c>
+      <c r="B53" t="inlineStr">
+        <is>
+          <t>001209</t>
+        </is>
+      </c>
+      <c r="C53" t="inlineStr">
+        <is>
+          <t>前海开源一带一路主题精选灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D53" t="inlineStr">
+        <is>
+          <t>1.27</t>
+        </is>
+      </c>
+      <c r="E53" t="inlineStr">
+        <is>
+          <t>90.19</t>
+        </is>
+      </c>
+      <c r="F53" t="inlineStr">
+        <is>
+          <t>2.80</t>
+        </is>
+      </c>
+      <c r="G53" t="inlineStr">
+        <is>
+          <t>0.0356</t>
+        </is>
+      </c>
+      <c r="H53" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="54">
+      <c r="A54" s="2" t="n">
+        <v>52</v>
+      </c>
+      <c r="B54" t="inlineStr">
+        <is>
+          <t>512750</t>
+        </is>
+      </c>
+      <c r="C54" t="inlineStr">
+        <is>
+          <t>嘉实中证锐联基本面50ETF</t>
+        </is>
+      </c>
+      <c r="D54" t="inlineStr">
+        <is>
+          <t>1.22</t>
+        </is>
+      </c>
+      <c r="E54" t="inlineStr">
+        <is>
+          <t>99.05</t>
+        </is>
+      </c>
+      <c r="F54" t="inlineStr">
+        <is>
+          <t>2.61</t>
+        </is>
+      </c>
+      <c r="G54" t="inlineStr">
+        <is>
+          <t>0.0318</t>
+        </is>
+      </c>
+      <c r="H54" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="55">
+      <c r="A55" s="2" t="n">
+        <v>53</v>
+      </c>
+      <c r="B55" t="inlineStr">
+        <is>
+          <t>005357</t>
+        </is>
+      </c>
+      <c r="C55" t="inlineStr">
+        <is>
+          <t>富国国企改革灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D55" t="inlineStr">
+        <is>
+          <t>1.38</t>
+        </is>
+      </c>
+      <c r="E55" t="inlineStr">
+        <is>
+          <t>84.95</t>
+        </is>
+      </c>
+      <c r="F55" t="inlineStr">
+        <is>
+          <t>2.20</t>
+        </is>
+      </c>
+      <c r="G55" t="inlineStr">
+        <is>
+          <t>0.0304</t>
+        </is>
+      </c>
+      <c r="H55" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="56">
+      <c r="A56" s="2" t="n">
+        <v>54</v>
+      </c>
+      <c r="B56" t="inlineStr">
+        <is>
+          <t>004158</t>
+        </is>
+      </c>
+      <c r="C56" t="inlineStr">
+        <is>
+          <t>信诚至诚灵活配置混合B</t>
+        </is>
+      </c>
+      <c r="D56" t="inlineStr">
+        <is>
+          <t>3.25</t>
+        </is>
+      </c>
+      <c r="E56" t="inlineStr">
+        <is>
+          <t>21.24</t>
+        </is>
+      </c>
+      <c r="F56" t="inlineStr">
+        <is>
+          <t>0.84</t>
+        </is>
+      </c>
+      <c r="G56" t="inlineStr">
+        <is>
+          <t>0.0273</t>
+        </is>
+      </c>
+      <c r="H56" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="57">
+      <c r="A57" s="2" t="n">
+        <v>55</v>
+      </c>
+      <c r="B57" t="inlineStr">
+        <is>
+          <t>160725</t>
+        </is>
+      </c>
+      <c r="C57" t="inlineStr">
+        <is>
+          <t>嘉实中证锐联基本面50指数(LOF)C</t>
+        </is>
+      </c>
+      <c r="D57" t="inlineStr">
+        <is>
+          <t>1.08</t>
+        </is>
+      </c>
+      <c r="E57" t="inlineStr">
+        <is>
+          <t>94.42</t>
+        </is>
+      </c>
+      <c r="F57" t="inlineStr">
+        <is>
+          <t>2.49</t>
+        </is>
+      </c>
+      <c r="G57" t="inlineStr">
+        <is>
+          <t>0.0269</t>
+        </is>
+      </c>
+      <c r="H57" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="58">
+      <c r="A58" s="2" t="n">
+        <v>56</v>
+      </c>
+      <c r="B58" t="inlineStr">
+        <is>
+          <t>011350</t>
+        </is>
+      </c>
+      <c r="C58" t="inlineStr">
+        <is>
+          <t>淳厚现代服务业股票C</t>
+        </is>
+      </c>
+      <c r="D58" t="inlineStr">
+        <is>
+          <t>0.81</t>
+        </is>
+      </c>
+      <c r="E58" t="inlineStr">
+        <is>
+          <t>89.91</t>
+        </is>
+      </c>
+      <c r="F58" t="inlineStr">
+        <is>
+          <t>3.31</t>
+        </is>
+      </c>
+      <c r="G58" t="inlineStr">
+        <is>
+          <t>0.0268</t>
+        </is>
+      </c>
+      <c r="H58" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="59">
+      <c r="A59" s="2" t="n">
+        <v>57</v>
+      </c>
+      <c r="B59" t="inlineStr">
+        <is>
+          <t>010762</t>
+        </is>
+      </c>
+      <c r="C59" t="inlineStr">
+        <is>
+          <t>博时恒康一年持有期混合A</t>
+        </is>
+      </c>
+      <c r="D59" t="inlineStr">
+        <is>
+          <t>2.23</t>
+        </is>
+      </c>
+      <c r="E59" t="inlineStr">
+        <is>
+          <t>20.02</t>
+        </is>
+      </c>
+      <c r="F59" t="inlineStr">
+        <is>
+          <t>1.09</t>
+        </is>
+      </c>
+      <c r="G59" t="inlineStr">
+        <is>
+          <t>0.0243</t>
+        </is>
+      </c>
+      <c r="H59" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="60">
+      <c r="A60" s="2" t="n">
+        <v>58</v>
+      </c>
+      <c r="B60" t="inlineStr">
+        <is>
+          <t>009999</t>
+        </is>
+      </c>
+      <c r="C60" t="inlineStr">
+        <is>
+          <t>东方中国红利混合</t>
+        </is>
+      </c>
+      <c r="D60" t="inlineStr">
+        <is>
+          <t>0.82</t>
+        </is>
+      </c>
+      <c r="E60" t="inlineStr">
+        <is>
+          <t>84.02</t>
+        </is>
+      </c>
+      <c r="F60" t="inlineStr">
+        <is>
+          <t>2.94</t>
+        </is>
+      </c>
+      <c r="G60" t="inlineStr">
+        <is>
+          <t>0.0241</t>
+        </is>
+      </c>
+      <c r="H60" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="61">
+      <c r="A61" s="2" t="n">
+        <v>59</v>
+      </c>
+      <c r="B61" t="inlineStr">
+        <is>
+          <t>010569</t>
+        </is>
+      </c>
+      <c r="C61" t="inlineStr">
+        <is>
+          <t>海富通惠睿精选混合C</t>
+        </is>
+      </c>
+      <c r="D61" t="inlineStr">
+        <is>
+          <t>3.57</t>
+        </is>
+      </c>
+      <c r="E61" t="inlineStr">
+        <is>
+          <t>26.84</t>
+        </is>
+      </c>
+      <c r="F61" t="inlineStr">
+        <is>
+          <t>0.52</t>
+        </is>
+      </c>
+      <c r="G61" t="inlineStr">
+        <is>
+          <t>0.0186</t>
+        </is>
+      </c>
+      <c r="H61" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="62">
+      <c r="A62" s="2" t="n">
+        <v>60</v>
+      </c>
+      <c r="B62" t="inlineStr">
+        <is>
+          <t>001252</t>
+        </is>
+      </c>
+      <c r="C62" t="inlineStr">
+        <is>
+          <t>中海进取收益灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D62" t="inlineStr">
+        <is>
+          <t>0.31</t>
+        </is>
+      </c>
+      <c r="E62" t="inlineStr">
+        <is>
+          <t>93.43</t>
+        </is>
+      </c>
+      <c r="F62" t="inlineStr">
+        <is>
+          <t>5.95</t>
+        </is>
+      </c>
+      <c r="G62" t="inlineStr">
+        <is>
+          <t>0.0184</t>
+        </is>
+      </c>
+      <c r="H62" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="63">
+      <c r="A63" s="2" t="n">
+        <v>61</v>
+      </c>
+      <c r="B63" t="inlineStr">
+        <is>
+          <t>004157</t>
+        </is>
+      </c>
+      <c r="C63" t="inlineStr">
+        <is>
+          <t>信诚至诚灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D63" t="inlineStr">
+        <is>
+          <t>2.00</t>
+        </is>
+      </c>
+      <c r="E63" t="inlineStr">
+        <is>
+          <t>21.24</t>
+        </is>
+      </c>
+      <c r="F63" t="inlineStr">
+        <is>
+          <t>0.84</t>
+        </is>
+      </c>
+      <c r="G63" t="inlineStr">
+        <is>
+          <t>0.0168</t>
+        </is>
+      </c>
+      <c r="H63" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="64">
+      <c r="A64" s="2" t="n">
+        <v>62</v>
+      </c>
+      <c r="B64" t="inlineStr">
+        <is>
+          <t>001415</t>
+        </is>
+      </c>
+      <c r="C64" t="inlineStr">
+        <is>
+          <t>信诚新锐回报灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D64" t="inlineStr">
+        <is>
+          <t>2.01</t>
+        </is>
+      </c>
+      <c r="E64" t="inlineStr">
+        <is>
+          <t>20.31</t>
+        </is>
+      </c>
+      <c r="F64" t="inlineStr">
+        <is>
+          <t>0.82</t>
+        </is>
+      </c>
+      <c r="G64" t="inlineStr">
+        <is>
+          <t>0.0165</t>
+        </is>
+      </c>
+      <c r="H64" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="65">
+      <c r="A65" s="2" t="n">
+        <v>63</v>
+      </c>
+      <c r="B65" t="inlineStr">
+        <is>
+          <t>005437</t>
+        </is>
+      </c>
+      <c r="C65" t="inlineStr">
+        <is>
+          <t>易方达易百智能量化策略灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D65" t="inlineStr">
+        <is>
+          <t>1.72</t>
+        </is>
+      </c>
+      <c r="E65" t="inlineStr">
+        <is>
+          <t>93.44</t>
+        </is>
+      </c>
+      <c r="F65" t="inlineStr">
+        <is>
+          <t>0.85</t>
+        </is>
+      </c>
+      <c r="G65" t="inlineStr">
+        <is>
+          <t>0.0146</t>
+        </is>
+      </c>
+      <c r="H65" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="66">
+      <c r="A66" s="2" t="n">
+        <v>64</v>
+      </c>
+      <c r="B66" t="inlineStr">
+        <is>
+          <t>010028</t>
+        </is>
+      </c>
+      <c r="C66" t="inlineStr">
+        <is>
+          <t>华泰柏瑞创新升级混合C</t>
+        </is>
+      </c>
+      <c r="D66" t="inlineStr">
+        <is>
+          <t>0.36</t>
+        </is>
+      </c>
+      <c r="E66" t="inlineStr">
+        <is>
+          <t>86.13</t>
+        </is>
+      </c>
+      <c r="F66" t="inlineStr">
+        <is>
+          <t>3.12</t>
+        </is>
+      </c>
+      <c r="G66" t="inlineStr">
+        <is>
+          <t>0.0112</t>
+        </is>
+      </c>
+      <c r="H66" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="67">
+      <c r="A67" s="2" t="n">
+        <v>65</v>
+      </c>
+      <c r="B67" t="inlineStr">
+        <is>
+          <t>004135</t>
+        </is>
+      </c>
+      <c r="C67" t="inlineStr">
+        <is>
+          <t>申万菱信量化成长混合</t>
+        </is>
+      </c>
+      <c r="D67" t="inlineStr">
+        <is>
+          <t>0.54</t>
+        </is>
+      </c>
+      <c r="E67" t="inlineStr">
+        <is>
+          <t>92.47</t>
+        </is>
+      </c>
+      <c r="F67" t="inlineStr">
+        <is>
+          <t>2.06</t>
+        </is>
+      </c>
+      <c r="G67" t="inlineStr">
+        <is>
+          <t>0.0111</t>
+        </is>
+      </c>
+      <c r="H67" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="68">
+      <c r="A68" s="2" t="n">
+        <v>66</v>
+      </c>
+      <c r="B68" t="inlineStr">
+        <is>
+          <t>010291</t>
+        </is>
+      </c>
+      <c r="C68" t="inlineStr">
+        <is>
+          <t>华泰柏瑞研究精选混合C</t>
+        </is>
+      </c>
+      <c r="D68" t="inlineStr">
+        <is>
+          <t>0.22</t>
+        </is>
+      </c>
+      <c r="E68" t="inlineStr">
+        <is>
+          <t>84.91</t>
+        </is>
+      </c>
+      <c r="F68" t="inlineStr">
+        <is>
+          <t>3.12</t>
+        </is>
+      </c>
+      <c r="G68" t="inlineStr">
+        <is>
+          <t>0.0069</t>
+        </is>
+      </c>
+      <c r="H68" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="69">
+      <c r="A69" s="2" t="n">
+        <v>67</v>
+      </c>
+      <c r="B69" t="inlineStr">
+        <is>
+          <t>005438</t>
+        </is>
+      </c>
+      <c r="C69" t="inlineStr">
+        <is>
+          <t>易方达易百智能量化策略灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D69" t="inlineStr">
+        <is>
+          <t>0.72</t>
+        </is>
+      </c>
+      <c r="E69" t="inlineStr">
+        <is>
+          <t>93.44</t>
+        </is>
+      </c>
+      <c r="F69" t="inlineStr">
+        <is>
+          <t>0.85</t>
+        </is>
+      </c>
+      <c r="G69" t="inlineStr">
+        <is>
+          <t>0.0061</t>
+        </is>
+      </c>
+      <c r="H69" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="70">
+      <c r="A70" s="2" t="n">
+        <v>68</v>
+      </c>
+      <c r="B70" t="inlineStr">
+        <is>
+          <t>010125</t>
+        </is>
+      </c>
+      <c r="C70" t="inlineStr">
+        <is>
+          <t>兴银景气优选混合C</t>
+        </is>
+      </c>
+      <c r="D70" t="inlineStr">
+        <is>
+          <t>0.54</t>
+        </is>
+      </c>
+      <c r="E70" t="inlineStr">
+        <is>
+          <t>94.45</t>
+        </is>
+      </c>
+      <c r="F70" t="inlineStr">
+        <is>
+          <t>0.99</t>
+        </is>
+      </c>
+      <c r="G70" t="inlineStr">
+        <is>
+          <t>0.0053</t>
+        </is>
+      </c>
+      <c r="H70" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="71">
+      <c r="A71" s="2" t="n">
+        <v>69</v>
+      </c>
+      <c r="B71" t="inlineStr">
+        <is>
+          <t>010763</t>
+        </is>
+      </c>
+      <c r="C71" t="inlineStr">
+        <is>
+          <t>博时恒康一年持有期混合C</t>
+        </is>
+      </c>
+      <c r="D71" t="inlineStr">
+        <is>
+          <t>0.41</t>
+        </is>
+      </c>
+      <c r="E71" t="inlineStr">
+        <is>
+          <t>20.02</t>
+        </is>
+      </c>
+      <c r="F71" t="inlineStr">
+        <is>
+          <t>1.09</t>
+        </is>
+      </c>
+      <c r="G71" t="inlineStr">
+        <is>
+          <t>0.0045</t>
+        </is>
+      </c>
+      <c r="H71" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="72">
+      <c r="A72" s="2" t="n">
+        <v>70</v>
+      </c>
+      <c r="B72" t="inlineStr">
+        <is>
+          <t>001380</t>
+        </is>
+      </c>
+      <c r="C72" t="inlineStr">
+        <is>
+          <t>鹏华弘盛灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D72" t="inlineStr">
+        <is>
+          <t>0.79</t>
+        </is>
+      </c>
+      <c r="E72" t="inlineStr">
+        <is>
+          <t>20.91</t>
+        </is>
+      </c>
+      <c r="F72" t="inlineStr">
+        <is>
+          <t>0.52</t>
+        </is>
+      </c>
+      <c r="G72" t="inlineStr">
+        <is>
+          <t>0.0041</t>
+        </is>
+      </c>
+      <c r="H72" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="73">
+      <c r="A73" s="2" t="n">
+        <v>71</v>
+      </c>
+      <c r="B73" t="inlineStr">
+        <is>
+          <t>005934</t>
+        </is>
+      </c>
+      <c r="C73" t="inlineStr">
+        <is>
+          <t>新疆前海联合先进制造灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D73" t="inlineStr">
+        <is>
+          <t>0.11</t>
+        </is>
+      </c>
+      <c r="E73" t="inlineStr">
+        <is>
+          <t>91.97</t>
+        </is>
+      </c>
+      <c r="F73" t="inlineStr">
+        <is>
+          <t>3.58</t>
+        </is>
+      </c>
+      <c r="G73" t="inlineStr">
+        <is>
+          <t>0.0039</t>
+        </is>
+      </c>
+      <c r="H73" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="74">
+      <c r="A74" s="2" t="n">
+        <v>72</v>
+      </c>
+      <c r="B74" t="inlineStr">
+        <is>
+          <t>002080</t>
+        </is>
+      </c>
+      <c r="C74" t="inlineStr">
+        <is>
+          <t>前海开源一带一路主题精选灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D74" t="inlineStr">
+        <is>
+          <t>0.14</t>
+        </is>
+      </c>
+      <c r="E74" t="inlineStr">
+        <is>
+          <t>90.19</t>
+        </is>
+      </c>
+      <c r="F74" t="inlineStr">
+        <is>
+          <t>2.80</t>
+        </is>
+      </c>
+      <c r="G74" t="inlineStr">
+        <is>
+          <t>0.0039</t>
+        </is>
+      </c>
+      <c r="H74" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="75">
+      <c r="A75" s="2" t="n">
+        <v>73</v>
+      </c>
+      <c r="B75" t="inlineStr">
+        <is>
+          <t>008374</t>
+        </is>
+      </c>
+      <c r="C75" t="inlineStr">
+        <is>
+          <t>华泰柏瑞景气回报一年持有期混合C</t>
+        </is>
+      </c>
+      <c r="D75" t="inlineStr">
+        <is>
+          <t>0.08</t>
+        </is>
+      </c>
+      <c r="E75" t="inlineStr">
+        <is>
+          <t>86.85</t>
+        </is>
+      </c>
+      <c r="F75" t="inlineStr">
+        <is>
+          <t>3.14</t>
+        </is>
+      </c>
+      <c r="G75" t="inlineStr">
+        <is>
+          <t>0.0025</t>
+        </is>
+      </c>
+      <c r="H75" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="76">
+      <c r="A76" s="2" t="n">
+        <v>74</v>
+      </c>
+      <c r="B76" t="inlineStr">
+        <is>
+          <t>008870</t>
+        </is>
+      </c>
+      <c r="C76" t="inlineStr">
+        <is>
+          <t>大成恒享混合C</t>
+        </is>
+      </c>
+      <c r="D76" t="inlineStr">
+        <is>
+          <t>0.19</t>
+        </is>
+      </c>
+      <c r="E76" t="inlineStr">
+        <is>
+          <t>21.92</t>
+        </is>
+      </c>
+      <c r="F76" t="inlineStr">
+        <is>
+          <t>0.98</t>
+        </is>
+      </c>
+      <c r="G76" t="inlineStr">
+        <is>
+          <t>0.0019</t>
+        </is>
+      </c>
+      <c r="H76" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="77">
+      <c r="A77" s="2" t="n">
+        <v>75</v>
+      </c>
+      <c r="B77" t="inlineStr">
+        <is>
+          <t>011072</t>
+        </is>
+      </c>
+      <c r="C77" t="inlineStr">
+        <is>
+          <t>鹏华安悦一年持有期混合C</t>
+        </is>
+      </c>
+      <c r="D77" t="inlineStr">
+        <is>
+          <t>0.12</t>
+        </is>
+      </c>
+      <c r="E77" t="inlineStr">
+        <is>
+          <t>20.65</t>
+        </is>
+      </c>
+      <c r="F77" t="inlineStr">
+        <is>
+          <t>0.50</t>
+        </is>
+      </c>
+      <c r="G77" t="inlineStr">
+        <is>
+          <t>0.0006</t>
+        </is>
+      </c>
+      <c r="H77" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="78">
+      <c r="A78" s="2" t="n">
+        <v>76</v>
+      </c>
+      <c r="B78" t="inlineStr">
+        <is>
+          <t>001602</t>
+        </is>
+      </c>
+      <c r="C78" t="inlineStr">
+        <is>
+          <t>鑫元鑫新收益灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D78" t="inlineStr">
+        <is>
+          <t>0.00</t>
+        </is>
+      </c>
+      <c r="E78" t="inlineStr">
+        <is>
+          <t>85.37</t>
+        </is>
+      </c>
+      <c r="F78" t="inlineStr">
+        <is>
+          <t>3.14</t>
+        </is>
+      </c>
+      <c r="G78" t="n">
+        <v>0</v>
+      </c>
+      <c r="H78" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="79">
+      <c r="A79" s="2" t="n">
+        <v>77</v>
+      </c>
+      <c r="B79" t="inlineStr">
+        <is>
+          <t>960017</t>
+        </is>
+      </c>
+      <c r="C79" t="inlineStr">
+        <is>
+          <t>交银稳健配置混合H</t>
+        </is>
+      </c>
+      <c r="D79" t="inlineStr">
+        <is>
+          <t>0.00</t>
+        </is>
+      </c>
+      <c r="E79" t="inlineStr">
+        <is>
+          <t>67.80</t>
+        </is>
+      </c>
+      <c r="F79" t="inlineStr">
+        <is>
+          <t>1.97</t>
+        </is>
+      </c>
+      <c r="G79" t="n">
+        <v>0</v>
+      </c>
+      <c r="H79" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="80">
+      <c r="A80" s="2" t="n">
+        <v>78</v>
+      </c>
+      <c r="B80" t="inlineStr">
+        <is>
+          <t>003184</t>
+        </is>
+      </c>
+      <c r="C80" t="inlineStr">
+        <is>
+          <t>中证财通中国可持续发展100 (ECPI ESG) 指数增强C</t>
+        </is>
+      </c>
+      <c r="D80" t="inlineStr">
+        <is>
+          <t>0.00</t>
+        </is>
+      </c>
+      <c r="E80" t="inlineStr">
+        <is>
+          <t>94.01</t>
+        </is>
+      </c>
+      <c r="F80" t="inlineStr">
+        <is>
+          <t>1.84</t>
+        </is>
+      </c>
+      <c r="G80" t="n">
+        <v>0</v>
+      </c>
+      <c r="H80" t="n">
+        <v>3</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:D6"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>日期</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>持有数量(只)</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>2021-Q4</t>
+        </is>
+      </c>
+      <c r="C2" t="n">
+        <v>79</v>
+      </c>
+      <c r="D2" t="n">
+        <v>27.31</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>2021-Q3</t>
+        </is>
+      </c>
+      <c r="C3" t="n">
+        <v>79</v>
+      </c>
+      <c r="D3" t="n">
+        <v>41.61</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>2021-Q2</t>
+        </is>
+      </c>
+      <c r="C4" t="n">
+        <v>8</v>
+      </c>
+      <c r="D4" t="n">
+        <v>5.74</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>2021-Q1</t>
+        </is>
+      </c>
+      <c r="C5" t="n">
+        <v>7</v>
+      </c>
+      <c r="D5" t="n">
+        <v>6.52</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
           <t>2020-Q4</t>
         </is>
       </c>
-      <c r="C5" t="n">
+      <c r="C6" t="n">
         <v>9</v>
       </c>
-      <c r="D5" t="n">
+      <c r="D6" t="n">
         <v>6.47</v>
       </c>
     </row>

--- a/数据整理/stocks/A股/上证主板/601669-中国电建.xlsx
+++ b/数据整理/stocks/A股/上证主板/601669-中国电建.xlsx
@@ -11,7 +11,8 @@
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="3" state="visible" r:id="rId3"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="4" state="visible" r:id="rId4"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q4" sheetId="5" state="visible" r:id="rId5"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="6" state="visible" r:id="rId6"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q1" sheetId="6" state="visible" r:id="rId6"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="7" state="visible" r:id="rId7"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -7645,7 +7646,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D6"/>
+  <dimension ref="A1:H72"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -7656,17 +7657,37 @@
     <row r="1">
       <c r="B1" s="2" t="inlineStr">
         <is>
-          <t>日期</t>
+          <t>基金代码</t>
         </is>
       </c>
       <c r="C1" s="2" t="inlineStr">
         <is>
-          <t>持有数量(只)</t>
+          <t>基金名称</t>
         </is>
       </c>
       <c r="D1" s="2" t="inlineStr">
         <is>
+          <t>基金规模</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
           <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
         </is>
       </c>
     </row>
@@ -7676,14 +7697,36 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>2021-Q4</t>
-        </is>
-      </c>
-      <c r="C2" t="n">
-        <v>79</v>
-      </c>
-      <c r="D2" t="n">
-        <v>27.31</v>
+          <t>516970</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>广发中证基建工程交易型开放式指数证券投资基金</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>59.01</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>99.38</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>9.61</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>5.6709</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="3">
@@ -7692,14 +7735,36 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>2021-Q3</t>
-        </is>
-      </c>
-      <c r="C3" t="n">
-        <v>79</v>
-      </c>
-      <c r="D3" t="n">
-        <v>41.61</v>
+          <t>515900</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>博时中证央企创新驱动ETF</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>47.96</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>99.42</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>4.26</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>2.0431</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="4">
@@ -7708,14 +7773,36 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>2021-Q2</t>
-        </is>
-      </c>
-      <c r="C4" t="n">
-        <v>8</v>
-      </c>
-      <c r="D4" t="n">
-        <v>5.74</v>
+          <t>010027</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>景顺长城核心中景一年持有期混合</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>53.17</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>90.70</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>3.43</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>1.8237</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>9</v>
       </c>
     </row>
     <row r="5">
@@ -7724,14 +7811,36 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>2021-Q1</t>
-        </is>
-      </c>
-      <c r="C5" t="n">
-        <v>7</v>
-      </c>
-      <c r="D5" t="n">
-        <v>6.52</v>
+          <t>010108</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>景顺长城核心招景混合</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>54.59</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>89.90</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>3.07</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>1.6759</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>9</v>
       </c>
     </row>
     <row r="6">
@@ -7740,13 +7849,2671 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
+          <t>165525</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>信诚中证基建工程指数（LOF）</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>17.06</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>94.00</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>9.09</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>1.5508</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>515680</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>嘉实中证央企创新驱动ETF</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>17.86</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>99.22</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>4.24</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>0.7573</t>
+        </is>
+      </c>
+      <c r="H7" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>516950</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>银华中证基建交易型开放式指数证券投资基金</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>10.41</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>97.55</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>7.14</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>0.7433</t>
+        </is>
+      </c>
+      <c r="H8" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>515600</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>广发中证央企创新驱动ETF</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>17.26</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>99.02</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>4.29</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>0.7405</t>
+        </is>
+      </c>
+      <c r="H9" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="2" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>240010</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>华宝行业精选混合</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>14.35</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>86.51</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>4.64</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>0.6658</t>
+        </is>
+      </c>
+      <c r="H10" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="2" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>240009</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>华宝先进成长混合</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>13.15</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>86.63</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>5.06</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>0.6654</t>
+        </is>
+      </c>
+      <c r="H11" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="2" t="n">
+        <v>10</v>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>519193</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>万家消费成长股票</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>5.20</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>90.60</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>5.04</t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr">
+        <is>
+          <t>0.2621</t>
+        </is>
+      </c>
+      <c r="H12" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="2" t="n">
+        <v>11</v>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>002780</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>新疆前海联合泓鑫灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>8.50</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>75.30</t>
+        </is>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>3.03</t>
+        </is>
+      </c>
+      <c r="G13" t="inlineStr">
+        <is>
+          <t>0.2576</t>
+        </is>
+      </c>
+      <c r="H13" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="2" t="n">
+        <v>12</v>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>002430</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>中银丰利灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>8.76</t>
+        </is>
+      </c>
+      <c r="E14" t="inlineStr">
+        <is>
+          <t>28.78</t>
+        </is>
+      </c>
+      <c r="F14" t="inlineStr">
+        <is>
+          <t>2.78</t>
+        </is>
+      </c>
+      <c r="G14" t="inlineStr">
+        <is>
+          <t>0.2435</t>
+        </is>
+      </c>
+      <c r="H14" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="2" t="n">
+        <v>13</v>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>159974</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>富国中证央企创新驱动ETF</t>
+        </is>
+      </c>
+      <c r="D15" t="inlineStr">
+        <is>
+          <t>5.37</t>
+        </is>
+      </c>
+      <c r="E15" t="inlineStr">
+        <is>
+          <t>99.51</t>
+        </is>
+      </c>
+      <c r="F15" t="inlineStr">
+        <is>
+          <t>4.23</t>
+        </is>
+      </c>
+      <c r="G15" t="inlineStr">
+        <is>
+          <t>0.2272</t>
+        </is>
+      </c>
+      <c r="H15" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="2" t="n">
+        <v>14</v>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>005671</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>新疆前海联合研究优选灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D16" t="inlineStr">
+        <is>
+          <t>5.62</t>
+        </is>
+      </c>
+      <c r="E16" t="inlineStr">
+        <is>
+          <t>77.46</t>
+        </is>
+      </c>
+      <c r="F16" t="inlineStr">
+        <is>
+          <t>3.92</t>
+        </is>
+      </c>
+      <c r="G16" t="inlineStr">
+        <is>
+          <t>0.2203</t>
+        </is>
+      </c>
+      <c r="H16" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="2" t="n">
+        <v>15</v>
+      </c>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>009688</t>
+        </is>
+      </c>
+      <c r="C17" t="inlineStr">
+        <is>
+          <t>万家鑫动力月月购一年滚动持有混合</t>
+        </is>
+      </c>
+      <c r="D17" t="inlineStr">
+        <is>
+          <t>4.59</t>
+        </is>
+      </c>
+      <c r="E17" t="inlineStr">
+        <is>
+          <t>89.03</t>
+        </is>
+      </c>
+      <c r="F17" t="inlineStr">
+        <is>
+          <t>4.62</t>
+        </is>
+      </c>
+      <c r="G17" t="inlineStr">
+        <is>
+          <t>0.2121</t>
+        </is>
+      </c>
+      <c r="H17" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="2" t="n">
+        <v>16</v>
+      </c>
+      <c r="B18" t="inlineStr">
+        <is>
+          <t>005400</t>
+        </is>
+      </c>
+      <c r="C18" t="inlineStr">
+        <is>
+          <t>万家潜力价值灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D18" t="inlineStr">
+        <is>
+          <t>2.55</t>
+        </is>
+      </c>
+      <c r="E18" t="inlineStr">
+        <is>
+          <t>93.34</t>
+        </is>
+      </c>
+      <c r="F18" t="inlineStr">
+        <is>
+          <t>6.92</t>
+        </is>
+      </c>
+      <c r="G18" t="inlineStr">
+        <is>
+          <t>0.1765</t>
+        </is>
+      </c>
+      <c r="H18" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="2" t="n">
+        <v>17</v>
+      </c>
+      <c r="B19" t="inlineStr">
+        <is>
+          <t>003850</t>
+        </is>
+      </c>
+      <c r="C19" t="inlineStr">
+        <is>
+          <t>中银锦利灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D19" t="inlineStr">
+        <is>
+          <t>6.37</t>
+        </is>
+      </c>
+      <c r="E19" t="inlineStr">
+        <is>
+          <t>28.68</t>
+        </is>
+      </c>
+      <c r="F19" t="inlineStr">
+        <is>
+          <t>2.73</t>
+        </is>
+      </c>
+      <c r="G19" t="inlineStr">
+        <is>
+          <t>0.1739</t>
+        </is>
+      </c>
+      <c r="H19" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" s="2" t="n">
+        <v>18</v>
+      </c>
+      <c r="B20" t="inlineStr">
+        <is>
+          <t>000029</t>
+        </is>
+      </c>
+      <c r="C20" t="inlineStr">
+        <is>
+          <t>富国宏观策略灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D20" t="inlineStr">
+        <is>
+          <t>5.97</t>
+        </is>
+      </c>
+      <c r="E20" t="inlineStr">
+        <is>
+          <t>90.27</t>
+        </is>
+      </c>
+      <c r="F20" t="inlineStr">
+        <is>
+          <t>2.75</t>
+        </is>
+      </c>
+      <c r="G20" t="inlineStr">
+        <is>
+          <t>0.1642</t>
+        </is>
+      </c>
+      <c r="H20" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" s="2" t="n">
+        <v>19</v>
+      </c>
+      <c r="B21" t="inlineStr">
+        <is>
+          <t>481006</t>
+        </is>
+      </c>
+      <c r="C21" t="inlineStr">
+        <is>
+          <t>工银红利混合</t>
+        </is>
+      </c>
+      <c r="D21" t="inlineStr">
+        <is>
+          <t>4.80</t>
+        </is>
+      </c>
+      <c r="E21" t="inlineStr">
+        <is>
+          <t>94.45</t>
+        </is>
+      </c>
+      <c r="F21" t="inlineStr">
+        <is>
+          <t>3.42</t>
+        </is>
+      </c>
+      <c r="G21" t="inlineStr">
+        <is>
+          <t>0.1642</t>
+        </is>
+      </c>
+      <c r="H21" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" s="2" t="n">
+        <v>20</v>
+      </c>
+      <c r="B22" t="inlineStr">
+        <is>
+          <t>002616</t>
+        </is>
+      </c>
+      <c r="C22" t="inlineStr">
+        <is>
+          <t>中银益利灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D22" t="inlineStr">
+        <is>
+          <t>5.90</t>
+        </is>
+      </c>
+      <c r="E22" t="inlineStr">
+        <is>
+          <t>29.85</t>
+        </is>
+      </c>
+      <c r="F22" t="inlineStr">
+        <is>
+          <t>2.72</t>
+        </is>
+      </c>
+      <c r="G22" t="inlineStr">
+        <is>
+          <t>0.1605</t>
+        </is>
+      </c>
+      <c r="H22" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" s="2" t="n">
+        <v>21</v>
+      </c>
+      <c r="B23" t="inlineStr">
+        <is>
+          <t>011346</t>
+        </is>
+      </c>
+      <c r="C23" t="inlineStr">
+        <is>
+          <t>淳厚鑫淳一年持有期混合型证券投资基金</t>
+        </is>
+      </c>
+      <c r="D23" t="inlineStr">
+        <is>
+          <t>5.75</t>
+        </is>
+      </c>
+      <c r="E23" t="inlineStr">
+        <is>
+          <t>67.80</t>
+        </is>
+      </c>
+      <c r="F23" t="inlineStr">
+        <is>
+          <t>2.65</t>
+        </is>
+      </c>
+      <c r="G23" t="inlineStr">
+        <is>
+          <t>0.1524</t>
+        </is>
+      </c>
+      <c r="H23" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" s="2" t="n">
+        <v>22</v>
+      </c>
+      <c r="B24" t="inlineStr">
+        <is>
+          <t>007811</t>
+        </is>
+      </c>
+      <c r="C24" t="inlineStr">
+        <is>
+          <t>淳厚信泽灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D24" t="inlineStr">
+        <is>
+          <t>4.32</t>
+        </is>
+      </c>
+      <c r="E24" t="inlineStr">
+        <is>
+          <t>74.11</t>
+        </is>
+      </c>
+      <c r="F24" t="inlineStr">
+        <is>
+          <t>2.95</t>
+        </is>
+      </c>
+      <c r="G24" t="inlineStr">
+        <is>
+          <t>0.1274</t>
+        </is>
+      </c>
+      <c r="H24" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" s="2" t="n">
+        <v>23</v>
+      </c>
+      <c r="B25" t="inlineStr">
+        <is>
+          <t>011349</t>
+        </is>
+      </c>
+      <c r="C25" t="inlineStr">
+        <is>
+          <t>淳厚现代服务业股票A</t>
+        </is>
+      </c>
+      <c r="D25" t="inlineStr">
+        <is>
+          <t>3.58</t>
+        </is>
+      </c>
+      <c r="E25" t="inlineStr">
+        <is>
+          <t>81.51</t>
+        </is>
+      </c>
+      <c r="F25" t="inlineStr">
+        <is>
+          <t>3.36</t>
+        </is>
+      </c>
+      <c r="G25" t="inlineStr">
+        <is>
+          <t>0.1203</t>
+        </is>
+      </c>
+      <c r="H25" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" s="2" t="n">
+        <v>24</v>
+      </c>
+      <c r="B26" t="inlineStr">
+        <is>
+          <t>002504</t>
+        </is>
+      </c>
+      <c r="C26" t="inlineStr">
+        <is>
+          <t>鹏华金鼎灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D26" t="inlineStr">
+        <is>
+          <t>2.49</t>
+        </is>
+      </c>
+      <c r="E26" t="inlineStr">
+        <is>
+          <t>77.53</t>
+        </is>
+      </c>
+      <c r="F26" t="inlineStr">
+        <is>
+          <t>4.78</t>
+        </is>
+      </c>
+      <c r="G26" t="inlineStr">
+        <is>
+          <t>0.1190</t>
+        </is>
+      </c>
+      <c r="H26" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" s="2" t="n">
+        <v>25</v>
+      </c>
+      <c r="B27" t="inlineStr">
+        <is>
+          <t>161910</t>
+        </is>
+      </c>
+      <c r="C27" t="inlineStr">
+        <is>
+          <t>万家新机遇价值驱动灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D27" t="inlineStr">
+        <is>
+          <t>1.90</t>
+        </is>
+      </c>
+      <c r="E27" t="inlineStr">
+        <is>
+          <t>94.49</t>
+        </is>
+      </c>
+      <c r="F27" t="inlineStr">
+        <is>
+          <t>5.95</t>
+        </is>
+      </c>
+      <c r="G27" t="inlineStr">
+        <is>
+          <t>0.1130</t>
+        </is>
+      </c>
+      <c r="H27" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" s="2" t="n">
+        <v>26</v>
+      </c>
+      <c r="B28" t="inlineStr">
+        <is>
+          <t>010551</t>
+        </is>
+      </c>
+      <c r="C28" t="inlineStr">
+        <is>
+          <t>淳厚欣颐一年持有期混合</t>
+        </is>
+      </c>
+      <c r="D28" t="inlineStr">
+        <is>
+          <t>3.41</t>
+        </is>
+      </c>
+      <c r="E28" t="inlineStr">
+        <is>
+          <t>81.14</t>
+        </is>
+      </c>
+      <c r="F28" t="inlineStr">
+        <is>
+          <t>3.25</t>
+        </is>
+      </c>
+      <c r="G28" t="inlineStr">
+        <is>
+          <t>0.1108</t>
+        </is>
+      </c>
+      <c r="H28" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" s="2" t="n">
+        <v>27</v>
+      </c>
+      <c r="B29" t="inlineStr">
+        <is>
+          <t>080001</t>
+        </is>
+      </c>
+      <c r="C29" t="inlineStr">
+        <is>
+          <t>长盛成长价值混合</t>
+        </is>
+      </c>
+      <c r="D29" t="inlineStr">
+        <is>
+          <t>2.53</t>
+        </is>
+      </c>
+      <c r="E29" t="inlineStr">
+        <is>
+          <t>60.74</t>
+        </is>
+      </c>
+      <c r="F29" t="inlineStr">
+        <is>
+          <t>3.87</t>
+        </is>
+      </c>
+      <c r="G29" t="inlineStr">
+        <is>
+          <t>0.0979</t>
+        </is>
+      </c>
+      <c r="H29" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" s="2" t="n">
+        <v>28</v>
+      </c>
+      <c r="B30" t="inlineStr">
+        <is>
+          <t>012454</t>
+        </is>
+      </c>
+      <c r="C30" t="inlineStr">
+        <is>
+          <t>淳厚鑫悦混合A</t>
+        </is>
+      </c>
+      <c r="D30" t="inlineStr">
+        <is>
+          <t>3.31</t>
+        </is>
+      </c>
+      <c r="E30" t="inlineStr">
+        <is>
+          <t>76.84</t>
+        </is>
+      </c>
+      <c r="F30" t="inlineStr">
+        <is>
+          <t>2.78</t>
+        </is>
+      </c>
+      <c r="G30" t="inlineStr">
+        <is>
+          <t>0.0920</t>
+        </is>
+      </c>
+      <c r="H30" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" s="2" t="n">
+        <v>29</v>
+      </c>
+      <c r="B31" t="inlineStr">
+        <is>
+          <t>005005</t>
+        </is>
+      </c>
+      <c r="C31" t="inlineStr">
+        <is>
+          <t>中金金泽量化精选混合A</t>
+        </is>
+      </c>
+      <c r="D31" t="inlineStr">
+        <is>
+          <t>1.69</t>
+        </is>
+      </c>
+      <c r="E31" t="inlineStr">
+        <is>
+          <t>75.38</t>
+        </is>
+      </c>
+      <c r="F31" t="inlineStr">
+        <is>
+          <t>5.43</t>
+        </is>
+      </c>
+      <c r="G31" t="inlineStr">
+        <is>
+          <t>0.0918</t>
+        </is>
+      </c>
+      <c r="H31" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" s="2" t="n">
+        <v>30</v>
+      </c>
+      <c r="B32" t="inlineStr">
+        <is>
+          <t>540002</t>
+        </is>
+      </c>
+      <c r="C32" t="inlineStr">
+        <is>
+          <t>汇丰晋信龙腾混合</t>
+        </is>
+      </c>
+      <c r="D32" t="inlineStr">
+        <is>
+          <t>3.29</t>
+        </is>
+      </c>
+      <c r="E32" t="inlineStr">
+        <is>
+          <t>66.68</t>
+        </is>
+      </c>
+      <c r="F32" t="inlineStr">
+        <is>
+          <t>2.68</t>
+        </is>
+      </c>
+      <c r="G32" t="inlineStr">
+        <is>
+          <t>0.0882</t>
+        </is>
+      </c>
+      <c r="H32" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" s="2" t="n">
+        <v>31</v>
+      </c>
+      <c r="B33" t="inlineStr">
+        <is>
+          <t>001370</t>
+        </is>
+      </c>
+      <c r="C33" t="inlineStr">
+        <is>
+          <t>中银新趋势灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D33" t="inlineStr">
+        <is>
+          <t>2.63</t>
+        </is>
+      </c>
+      <c r="E33" t="inlineStr">
+        <is>
+          <t>34.29</t>
+        </is>
+      </c>
+      <c r="F33" t="inlineStr">
+        <is>
+          <t>2.87</t>
+        </is>
+      </c>
+      <c r="G33" t="inlineStr">
+        <is>
+          <t>0.0755</t>
+        </is>
+      </c>
+      <c r="H33" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" s="2" t="n">
+        <v>32</v>
+      </c>
+      <c r="B34" t="inlineStr">
+        <is>
+          <t>001209</t>
+        </is>
+      </c>
+      <c r="C34" t="inlineStr">
+        <is>
+          <t>前海开源一带一路主题精选灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D34" t="inlineStr">
+        <is>
+          <t>0.92</t>
+        </is>
+      </c>
+      <c r="E34" t="inlineStr">
+        <is>
+          <t>82.84</t>
+        </is>
+      </c>
+      <c r="F34" t="inlineStr">
+        <is>
+          <t>6.93</t>
+        </is>
+      </c>
+      <c r="G34" t="inlineStr">
+        <is>
+          <t>0.0638</t>
+        </is>
+      </c>
+      <c r="H34" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" s="2" t="n">
+        <v>33</v>
+      </c>
+      <c r="B35" t="inlineStr">
+        <is>
+          <t>002431</t>
+        </is>
+      </c>
+      <c r="C35" t="inlineStr">
+        <is>
+          <t>中银丰利灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D35" t="inlineStr">
+        <is>
+          <t>2.24</t>
+        </is>
+      </c>
+      <c r="E35" t="inlineStr">
+        <is>
+          <t>28.78</t>
+        </is>
+      </c>
+      <c r="F35" t="inlineStr">
+        <is>
+          <t>2.78</t>
+        </is>
+      </c>
+      <c r="G35" t="inlineStr">
+        <is>
+          <t>0.0623</t>
+        </is>
+      </c>
+      <c r="H35" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" s="2" t="n">
+        <v>34</v>
+      </c>
+      <c r="B36" t="inlineStr">
+        <is>
+          <t>010828</t>
+        </is>
+      </c>
+      <c r="C36" t="inlineStr">
+        <is>
+          <t>国寿安保稳悦混合A</t>
+        </is>
+      </c>
+      <c r="D36" t="inlineStr">
+        <is>
+          <t>4.14</t>
+        </is>
+      </c>
+      <c r="E36" t="inlineStr">
+        <is>
+          <t>20.99</t>
+        </is>
+      </c>
+      <c r="F36" t="inlineStr">
+        <is>
+          <t>1.25</t>
+        </is>
+      </c>
+      <c r="G36" t="inlineStr">
+        <is>
+          <t>0.0518</t>
+        </is>
+      </c>
+      <c r="H36" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" s="2" t="n">
+        <v>35</v>
+      </c>
+      <c r="B37" t="inlineStr">
+        <is>
+          <t>007590</t>
+        </is>
+      </c>
+      <c r="C37" t="inlineStr">
+        <is>
+          <t>华宝绿色领先股票</t>
+        </is>
+      </c>
+      <c r="D37" t="inlineStr">
+        <is>
+          <t>1.09</t>
+        </is>
+      </c>
+      <c r="E37" t="inlineStr">
+        <is>
+          <t>84.90</t>
+        </is>
+      </c>
+      <c r="F37" t="inlineStr">
+        <is>
+          <t>4.70</t>
+        </is>
+      </c>
+      <c r="G37" t="inlineStr">
+        <is>
+          <t>0.0512</t>
+        </is>
+      </c>
+      <c r="H37" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" s="2" t="n">
+        <v>36</v>
+      </c>
+      <c r="B38" t="inlineStr">
+        <is>
+          <t>970032</t>
+        </is>
+      </c>
+      <c r="C38" t="inlineStr">
+        <is>
+          <t>东海证券海睿进取灵活配置混合型集合资产管理计划A</t>
+        </is>
+      </c>
+      <c r="D38" t="inlineStr">
+        <is>
+          <t>1.57</t>
+        </is>
+      </c>
+      <c r="E38" t="inlineStr">
+        <is>
+          <t>78.62</t>
+        </is>
+      </c>
+      <c r="F38" t="inlineStr">
+        <is>
+          <t>2.76</t>
+        </is>
+      </c>
+      <c r="G38" t="inlineStr">
+        <is>
+          <t>0.0433</t>
+        </is>
+      </c>
+      <c r="H38" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" s="2" t="n">
+        <v>37</v>
+      </c>
+      <c r="B39" t="inlineStr">
+        <is>
+          <t>007043</t>
+        </is>
+      </c>
+      <c r="C39" t="inlineStr">
+        <is>
+          <t>新疆前海联合泓鑫灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D39" t="inlineStr">
+        <is>
+          <t>1.37</t>
+        </is>
+      </c>
+      <c r="E39" t="inlineStr">
+        <is>
+          <t>75.30</t>
+        </is>
+      </c>
+      <c r="F39" t="inlineStr">
+        <is>
+          <t>3.03</t>
+        </is>
+      </c>
+      <c r="G39" t="inlineStr">
+        <is>
+          <t>0.0415</t>
+        </is>
+      </c>
+      <c r="H39" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" s="2" t="n">
+        <v>38</v>
+      </c>
+      <c r="B40" t="inlineStr">
+        <is>
+          <t>002300</t>
+        </is>
+      </c>
+      <c r="C40" t="inlineStr">
+        <is>
+          <t>长盛医疗行业量化配置股票</t>
+        </is>
+      </c>
+      <c r="D40" t="inlineStr">
+        <is>
+          <t>0.50</t>
+        </is>
+      </c>
+      <c r="E40" t="inlineStr">
+        <is>
+          <t>93.34</t>
+        </is>
+      </c>
+      <c r="F40" t="inlineStr">
+        <is>
+          <t>6.92</t>
+        </is>
+      </c>
+      <c r="G40" t="inlineStr">
+        <is>
+          <t>0.0346</t>
+        </is>
+      </c>
+      <c r="H40" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41" s="2" t="n">
+        <v>39</v>
+      </c>
+      <c r="B41" t="inlineStr">
+        <is>
+          <t>003851</t>
+        </is>
+      </c>
+      <c r="C41" t="inlineStr">
+        <is>
+          <t>中银锦利灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D41" t="inlineStr">
+        <is>
+          <t>1.25</t>
+        </is>
+      </c>
+      <c r="E41" t="inlineStr">
+        <is>
+          <t>28.68</t>
+        </is>
+      </c>
+      <c r="F41" t="inlineStr">
+        <is>
+          <t>2.73</t>
+        </is>
+      </c>
+      <c r="G41" t="inlineStr">
+        <is>
+          <t>0.0341</t>
+        </is>
+      </c>
+      <c r="H41" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="42">
+      <c r="A42" s="2" t="n">
+        <v>40</v>
+      </c>
+      <c r="B42" t="inlineStr">
+        <is>
+          <t>007812</t>
+        </is>
+      </c>
+      <c r="C42" t="inlineStr">
+        <is>
+          <t>淳厚信泽灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D42" t="inlineStr">
+        <is>
+          <t>1.15</t>
+        </is>
+      </c>
+      <c r="E42" t="inlineStr">
+        <is>
+          <t>74.11</t>
+        </is>
+      </c>
+      <c r="F42" t="inlineStr">
+        <is>
+          <t>2.95</t>
+        </is>
+      </c>
+      <c r="G42" t="inlineStr">
+        <is>
+          <t>0.0339</t>
+        </is>
+      </c>
+      <c r="H42" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="43">
+      <c r="A43" s="2" t="n">
+        <v>41</v>
+      </c>
+      <c r="B43" t="inlineStr">
+        <is>
+          <t>010923</t>
+        </is>
+      </c>
+      <c r="C43" t="inlineStr">
+        <is>
+          <t>永赢鑫欣混合</t>
+        </is>
+      </c>
+      <c r="D43" t="inlineStr">
+        <is>
+          <t>2.30</t>
+        </is>
+      </c>
+      <c r="E43" t="inlineStr">
+        <is>
+          <t>30.35</t>
+        </is>
+      </c>
+      <c r="F43" t="inlineStr">
+        <is>
+          <t>1.47</t>
+        </is>
+      </c>
+      <c r="G43" t="inlineStr">
+        <is>
+          <t>0.0338</t>
+        </is>
+      </c>
+      <c r="H43" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="44">
+      <c r="A44" s="2" t="n">
+        <v>42</v>
+      </c>
+      <c r="B44" t="inlineStr">
+        <is>
+          <t>011027</t>
+        </is>
+      </c>
+      <c r="C44" t="inlineStr">
+        <is>
+          <t>国寿安保稳弘混合A</t>
+        </is>
+      </c>
+      <c r="D44" t="inlineStr">
+        <is>
+          <t>1.00</t>
+        </is>
+      </c>
+      <c r="E44" t="inlineStr">
+        <is>
+          <t>36.25</t>
+        </is>
+      </c>
+      <c r="F44" t="inlineStr">
+        <is>
+          <t>3.27</t>
+        </is>
+      </c>
+      <c r="G44" t="inlineStr">
+        <is>
+          <t>0.0327</t>
+        </is>
+      </c>
+      <c r="H44" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="45">
+      <c r="A45" s="2" t="n">
+        <v>43</v>
+      </c>
+      <c r="B45" t="inlineStr">
+        <is>
+          <t>970033</t>
+        </is>
+      </c>
+      <c r="C45" t="inlineStr">
+        <is>
+          <t>东海证券海睿进取灵活配置混合型集合资产管理计划B</t>
+        </is>
+      </c>
+      <c r="D45" t="inlineStr">
+        <is>
+          <t>1.18</t>
+        </is>
+      </c>
+      <c r="E45" t="inlineStr">
+        <is>
+          <t>78.62</t>
+        </is>
+      </c>
+      <c r="F45" t="inlineStr">
+        <is>
+          <t>2.76</t>
+        </is>
+      </c>
+      <c r="G45" t="inlineStr">
+        <is>
+          <t>0.0326</t>
+        </is>
+      </c>
+      <c r="H45" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="46">
+      <c r="A46" s="2" t="n">
+        <v>44</v>
+      </c>
+      <c r="B46" t="inlineStr">
+        <is>
+          <t>006085</t>
+        </is>
+      </c>
+      <c r="C46" t="inlineStr">
+        <is>
+          <t>万家新机遇价值驱动灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D46" t="inlineStr">
+        <is>
+          <t>0.50</t>
+        </is>
+      </c>
+      <c r="E46" t="inlineStr">
+        <is>
+          <t>94.49</t>
+        </is>
+      </c>
+      <c r="F46" t="inlineStr">
+        <is>
+          <t>5.95</t>
+        </is>
+      </c>
+      <c r="G46" t="inlineStr">
+        <is>
+          <t>0.0298</t>
+        </is>
+      </c>
+      <c r="H46" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="47">
+      <c r="A47" s="2" t="n">
+        <v>45</v>
+      </c>
+      <c r="B47" t="inlineStr">
+        <is>
+          <t>005357</t>
+        </is>
+      </c>
+      <c r="C47" t="inlineStr">
+        <is>
+          <t>富国国企改革灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D47" t="inlineStr">
+        <is>
+          <t>1.13</t>
+        </is>
+      </c>
+      <c r="E47" t="inlineStr">
+        <is>
+          <t>87.21</t>
+        </is>
+      </c>
+      <c r="F47" t="inlineStr">
+        <is>
+          <t>2.60</t>
+        </is>
+      </c>
+      <c r="G47" t="inlineStr">
+        <is>
+          <t>0.0294</t>
+        </is>
+      </c>
+      <c r="H47" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="48">
+      <c r="A48" s="2" t="n">
+        <v>46</v>
+      </c>
+      <c r="B48" t="inlineStr">
+        <is>
+          <t>970048</t>
+        </is>
+      </c>
+      <c r="C48" t="inlineStr">
+        <is>
+          <t>东海证券海睿致远灵活配置混合型集合资产管理计划</t>
+        </is>
+      </c>
+      <c r="D48" t="inlineStr">
+        <is>
+          <t>0.54</t>
+        </is>
+      </c>
+      <c r="E48" t="inlineStr">
+        <is>
+          <t>79.71</t>
+        </is>
+      </c>
+      <c r="F48" t="inlineStr">
+        <is>
+          <t>4.48</t>
+        </is>
+      </c>
+      <c r="G48" t="inlineStr">
+        <is>
+          <t>0.0242</t>
+        </is>
+      </c>
+      <c r="H48" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="49">
+      <c r="A49" s="2" t="n">
+        <v>47</v>
+      </c>
+      <c r="B49" t="inlineStr">
+        <is>
+          <t>006478</t>
+        </is>
+      </c>
+      <c r="C49" t="inlineStr">
+        <is>
+          <t>长盛多因子策略优选股票</t>
+        </is>
+      </c>
+      <c r="D49" t="inlineStr">
+        <is>
+          <t>0.51</t>
+        </is>
+      </c>
+      <c r="E49" t="inlineStr">
+        <is>
+          <t>84.41</t>
+        </is>
+      </c>
+      <c r="F49" t="inlineStr">
+        <is>
+          <t>4.69</t>
+        </is>
+      </c>
+      <c r="G49" t="inlineStr">
+        <is>
+          <t>0.0239</t>
+        </is>
+      </c>
+      <c r="H49" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="50">
+      <c r="A50" s="2" t="n">
+        <v>48</v>
+      </c>
+      <c r="B50" t="inlineStr">
+        <is>
+          <t>011028</t>
+        </is>
+      </c>
+      <c r="C50" t="inlineStr">
+        <is>
+          <t>国寿安保稳弘混合C</t>
+        </is>
+      </c>
+      <c r="D50" t="inlineStr">
+        <is>
+          <t>0.68</t>
+        </is>
+      </c>
+      <c r="E50" t="inlineStr">
+        <is>
+          <t>36.25</t>
+        </is>
+      </c>
+      <c r="F50" t="inlineStr">
+        <is>
+          <t>3.27</t>
+        </is>
+      </c>
+      <c r="G50" t="inlineStr">
+        <is>
+          <t>0.0222</t>
+        </is>
+      </c>
+      <c r="H50" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="51">
+      <c r="A51" s="2" t="n">
+        <v>49</v>
+      </c>
+      <c r="B51" t="inlineStr">
+        <is>
+          <t>012455</t>
+        </is>
+      </c>
+      <c r="C51" t="inlineStr">
+        <is>
+          <t>淳厚鑫悦混合C</t>
+        </is>
+      </c>
+      <c r="D51" t="inlineStr">
+        <is>
+          <t>0.79</t>
+        </is>
+      </c>
+      <c r="E51" t="inlineStr">
+        <is>
+          <t>76.84</t>
+        </is>
+      </c>
+      <c r="F51" t="inlineStr">
+        <is>
+          <t>2.78</t>
+        </is>
+      </c>
+      <c r="G51" t="inlineStr">
+        <is>
+          <t>0.0220</t>
+        </is>
+      </c>
+      <c r="H51" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="52">
+      <c r="A52" s="2" t="n">
+        <v>50</v>
+      </c>
+      <c r="B52" t="inlineStr">
+        <is>
+          <t>011350</t>
+        </is>
+      </c>
+      <c r="C52" t="inlineStr">
+        <is>
+          <t>淳厚现代服务业股票C</t>
+        </is>
+      </c>
+      <c r="D52" t="inlineStr">
+        <is>
+          <t>0.63</t>
+        </is>
+      </c>
+      <c r="E52" t="inlineStr">
+        <is>
+          <t>81.51</t>
+        </is>
+      </c>
+      <c r="F52" t="inlineStr">
+        <is>
+          <t>3.36</t>
+        </is>
+      </c>
+      <c r="G52" t="inlineStr">
+        <is>
+          <t>0.0212</t>
+        </is>
+      </c>
+      <c r="H52" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="53">
+      <c r="A53" s="2" t="n">
+        <v>51</v>
+      </c>
+      <c r="B53" t="inlineStr">
+        <is>
+          <t>009753</t>
+        </is>
+      </c>
+      <c r="C53" t="inlineStr">
+        <is>
+          <t>中欧美益稳健两年持有期混合A</t>
+        </is>
+      </c>
+      <c r="D53" t="inlineStr">
+        <is>
+          <t>2.63</t>
+        </is>
+      </c>
+      <c r="E53" t="inlineStr">
+        <is>
+          <t>23.02</t>
+        </is>
+      </c>
+      <c r="F53" t="inlineStr">
+        <is>
+          <t>0.80</t>
+        </is>
+      </c>
+      <c r="G53" t="inlineStr">
+        <is>
+          <t>0.0210</t>
+        </is>
+      </c>
+      <c r="H53" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="54">
+      <c r="A54" s="2" t="n">
+        <v>52</v>
+      </c>
+      <c r="B54" t="inlineStr">
+        <is>
+          <t>398031</t>
+        </is>
+      </c>
+      <c r="C54" t="inlineStr">
+        <is>
+          <t>中海蓝筹混合</t>
+        </is>
+      </c>
+      <c r="D54" t="inlineStr">
+        <is>
+          <t>0.52</t>
+        </is>
+      </c>
+      <c r="E54" t="inlineStr">
+        <is>
+          <t>76.31</t>
+        </is>
+      </c>
+      <c r="F54" t="inlineStr">
+        <is>
+          <t>3.50</t>
+        </is>
+      </c>
+      <c r="G54" t="inlineStr">
+        <is>
+          <t>0.0182</t>
+        </is>
+      </c>
+      <c r="H54" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="55">
+      <c r="A55" s="2" t="n">
+        <v>53</v>
+      </c>
+      <c r="B55" t="inlineStr">
+        <is>
+          <t>000757</t>
+        </is>
+      </c>
+      <c r="C55" t="inlineStr">
+        <is>
+          <t>华富智慧城市灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D55" t="inlineStr">
+        <is>
+          <t>0.45</t>
+        </is>
+      </c>
+      <c r="E55" t="inlineStr">
+        <is>
+          <t>93.26</t>
+        </is>
+      </c>
+      <c r="F55" t="inlineStr">
+        <is>
+          <t>4.01</t>
+        </is>
+      </c>
+      <c r="G55" t="inlineStr">
+        <is>
+          <t>0.0180</t>
+        </is>
+      </c>
+      <c r="H55" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="56">
+      <c r="A56" s="2" t="n">
+        <v>54</v>
+      </c>
+      <c r="B56" t="inlineStr">
+        <is>
+          <t>005953</t>
+        </is>
+      </c>
+      <c r="C56" t="inlineStr">
+        <is>
+          <t>人保转型新动力灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D56" t="inlineStr">
+        <is>
+          <t>0.91</t>
+        </is>
+      </c>
+      <c r="E56" t="inlineStr">
+        <is>
+          <t>84.38</t>
+        </is>
+      </c>
+      <c r="F56" t="inlineStr">
+        <is>
+          <t>1.83</t>
+        </is>
+      </c>
+      <c r="G56" t="inlineStr">
+        <is>
+          <t>0.0167</t>
+        </is>
+      </c>
+      <c r="H56" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="57">
+      <c r="A57" s="2" t="n">
+        <v>55</v>
+      </c>
+      <c r="B57" t="inlineStr">
+        <is>
+          <t>013204</t>
+        </is>
+      </c>
+      <c r="C57" t="inlineStr">
+        <is>
+          <t>恒生前海恒源天利债A</t>
+        </is>
+      </c>
+      <c r="D57" t="inlineStr">
+        <is>
+          <t>1.29</t>
+        </is>
+      </c>
+      <c r="E57" t="inlineStr">
+        <is>
+          <t>21.66</t>
+        </is>
+      </c>
+      <c r="F57" t="inlineStr">
+        <is>
+          <t>1.26</t>
+        </is>
+      </c>
+      <c r="G57" t="inlineStr">
+        <is>
+          <t>0.0163</t>
+        </is>
+      </c>
+      <c r="H57" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="58">
+      <c r="A58" s="2" t="n">
+        <v>56</v>
+      </c>
+      <c r="B58" t="inlineStr">
+        <is>
+          <t>009999</t>
+        </is>
+      </c>
+      <c r="C58" t="inlineStr">
+        <is>
+          <t>东方中国红利混合</t>
+        </is>
+      </c>
+      <c r="D58" t="inlineStr">
+        <is>
+          <t>0.69</t>
+        </is>
+      </c>
+      <c r="E58" t="inlineStr">
+        <is>
+          <t>72.52</t>
+        </is>
+      </c>
+      <c r="F58" t="inlineStr">
+        <is>
+          <t>2.33</t>
+        </is>
+      </c>
+      <c r="G58" t="inlineStr">
+        <is>
+          <t>0.0161</t>
+        </is>
+      </c>
+      <c r="H58" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="59">
+      <c r="A59" s="2" t="n">
+        <v>57</v>
+      </c>
+      <c r="B59" t="inlineStr">
+        <is>
+          <t>002617</t>
+        </is>
+      </c>
+      <c r="C59" t="inlineStr">
+        <is>
+          <t>中银益利灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D59" t="inlineStr">
+        <is>
+          <t>0.58</t>
+        </is>
+      </c>
+      <c r="E59" t="inlineStr">
+        <is>
+          <t>29.85</t>
+        </is>
+      </c>
+      <c r="F59" t="inlineStr">
+        <is>
+          <t>2.72</t>
+        </is>
+      </c>
+      <c r="G59" t="inlineStr">
+        <is>
+          <t>0.0158</t>
+        </is>
+      </c>
+      <c r="H59" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="60">
+      <c r="A60" s="2" t="n">
+        <v>58</v>
+      </c>
+      <c r="B60" t="inlineStr">
+        <is>
+          <t>002505</t>
+        </is>
+      </c>
+      <c r="C60" t="inlineStr">
+        <is>
+          <t>鹏华金鼎灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D60" t="inlineStr">
+        <is>
+          <t>0.26</t>
+        </is>
+      </c>
+      <c r="E60" t="inlineStr">
+        <is>
+          <t>77.53</t>
+        </is>
+      </c>
+      <c r="F60" t="inlineStr">
+        <is>
+          <t>4.78</t>
+        </is>
+      </c>
+      <c r="G60" t="inlineStr">
+        <is>
+          <t>0.0124</t>
+        </is>
+      </c>
+      <c r="H60" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="61">
+      <c r="A61" s="2" t="n">
+        <v>59</v>
+      </c>
+      <c r="B61" t="inlineStr">
+        <is>
+          <t>010829</t>
+        </is>
+      </c>
+      <c r="C61" t="inlineStr">
+        <is>
+          <t>国寿安保稳悦混合C</t>
+        </is>
+      </c>
+      <c r="D61" t="inlineStr">
+        <is>
+          <t>0.99</t>
+        </is>
+      </c>
+      <c r="E61" t="inlineStr">
+        <is>
+          <t>20.99</t>
+        </is>
+      </c>
+      <c r="F61" t="inlineStr">
+        <is>
+          <t>1.25</t>
+        </is>
+      </c>
+      <c r="G61" t="inlineStr">
+        <is>
+          <t>0.0124</t>
+        </is>
+      </c>
+      <c r="H61" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="62">
+      <c r="A62" s="2" t="n">
+        <v>60</v>
+      </c>
+      <c r="B62" t="inlineStr">
+        <is>
+          <t>005672</t>
+        </is>
+      </c>
+      <c r="C62" t="inlineStr">
+        <is>
+          <t>新疆前海联合研究优选灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D62" t="inlineStr">
+        <is>
+          <t>0.21</t>
+        </is>
+      </c>
+      <c r="E62" t="inlineStr">
+        <is>
+          <t>77.46</t>
+        </is>
+      </c>
+      <c r="F62" t="inlineStr">
+        <is>
+          <t>3.92</t>
+        </is>
+      </c>
+      <c r="G62" t="inlineStr">
+        <is>
+          <t>0.0082</t>
+        </is>
+      </c>
+      <c r="H62" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="63">
+      <c r="A63" s="2" t="n">
+        <v>61</v>
+      </c>
+      <c r="B63" t="inlineStr">
+        <is>
+          <t>002080</t>
+        </is>
+      </c>
+      <c r="C63" t="inlineStr">
+        <is>
+          <t>前海开源一带一路主题精选灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D63" t="inlineStr">
+        <is>
+          <t>0.10</t>
+        </is>
+      </c>
+      <c r="E63" t="inlineStr">
+        <is>
+          <t>82.84</t>
+        </is>
+      </c>
+      <c r="F63" t="inlineStr">
+        <is>
+          <t>6.93</t>
+        </is>
+      </c>
+      <c r="G63" t="inlineStr">
+        <is>
+          <t>0.0069</t>
+        </is>
+      </c>
+      <c r="H63" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="64">
+      <c r="A64" s="2" t="n">
+        <v>62</v>
+      </c>
+      <c r="B64" t="inlineStr">
+        <is>
+          <t>970050</t>
+        </is>
+      </c>
+      <c r="C64" t="inlineStr">
+        <is>
+          <t>东海海睿锐意3个月定开灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D64" t="inlineStr">
+        <is>
+          <t>0.17</t>
+        </is>
+      </c>
+      <c r="E64" t="inlineStr">
+        <is>
+          <t>78.42</t>
+        </is>
+      </c>
+      <c r="F64" t="inlineStr">
+        <is>
+          <t>3.75</t>
+        </is>
+      </c>
+      <c r="G64" t="inlineStr">
+        <is>
+          <t>0.0064</t>
+        </is>
+      </c>
+      <c r="H64" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="65">
+      <c r="A65" s="2" t="n">
+        <v>63</v>
+      </c>
+      <c r="B65" t="inlineStr">
+        <is>
+          <t>410006</t>
+        </is>
+      </c>
+      <c r="C65" t="inlineStr">
+        <is>
+          <t>华富策略精选混合</t>
+        </is>
+      </c>
+      <c r="D65" t="inlineStr">
+        <is>
+          <t>0.11</t>
+        </is>
+      </c>
+      <c r="E65" t="inlineStr">
+        <is>
+          <t>77.80</t>
+        </is>
+      </c>
+      <c r="F65" t="inlineStr">
+        <is>
+          <t>3.96</t>
+        </is>
+      </c>
+      <c r="G65" t="inlineStr">
+        <is>
+          <t>0.0044</t>
+        </is>
+      </c>
+      <c r="H65" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="66">
+      <c r="A66" s="2" t="n">
+        <v>64</v>
+      </c>
+      <c r="B66" t="inlineStr">
+        <is>
+          <t>002908</t>
+        </is>
+      </c>
+      <c r="C66" t="inlineStr">
+        <is>
+          <t>富国睿利定期开放混合</t>
+        </is>
+      </c>
+      <c r="D66" t="inlineStr">
+        <is>
+          <t>0.36</t>
+        </is>
+      </c>
+      <c r="E66" t="inlineStr">
+        <is>
+          <t>28.52</t>
+        </is>
+      </c>
+      <c r="F66" t="inlineStr">
+        <is>
+          <t>0.88</t>
+        </is>
+      </c>
+      <c r="G66" t="inlineStr">
+        <is>
+          <t>0.0032</t>
+        </is>
+      </c>
+      <c r="H66" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="67">
+      <c r="A67" s="2" t="n">
+        <v>65</v>
+      </c>
+      <c r="B67" t="inlineStr">
+        <is>
+          <t>970083</t>
+        </is>
+      </c>
+      <c r="C67" t="inlineStr">
+        <is>
+          <t>东海证券海盈6个月持有期混合</t>
+        </is>
+      </c>
+      <c r="D67" t="inlineStr">
+        <is>
+          <t>0.14</t>
+        </is>
+      </c>
+      <c r="E67" t="inlineStr">
+        <is>
+          <t>20.43</t>
+        </is>
+      </c>
+      <c r="F67" t="inlineStr">
+        <is>
+          <t>1.80</t>
+        </is>
+      </c>
+      <c r="G67" t="inlineStr">
+        <is>
+          <t>0.0025</t>
+        </is>
+      </c>
+      <c r="H67" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="68">
+      <c r="A68" s="2" t="n">
+        <v>66</v>
+      </c>
+      <c r="B68" t="inlineStr">
+        <is>
+          <t>005954</t>
+        </is>
+      </c>
+      <c r="C68" t="inlineStr">
+        <is>
+          <t>人保转型新动力灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D68" t="inlineStr">
+        <is>
+          <t>0.11</t>
+        </is>
+      </c>
+      <c r="E68" t="inlineStr">
+        <is>
+          <t>84.38</t>
+        </is>
+      </c>
+      <c r="F68" t="inlineStr">
+        <is>
+          <t>1.83</t>
+        </is>
+      </c>
+      <c r="G68" t="inlineStr">
+        <is>
+          <t>0.0020</t>
+        </is>
+      </c>
+      <c r="H68" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="69">
+      <c r="A69" s="2" t="n">
+        <v>67</v>
+      </c>
+      <c r="B69" t="inlineStr">
+        <is>
+          <t>009754</t>
+        </is>
+      </c>
+      <c r="C69" t="inlineStr">
+        <is>
+          <t>中欧美益稳健两年持有期混合C</t>
+        </is>
+      </c>
+      <c r="D69" t="inlineStr">
+        <is>
+          <t>0.23</t>
+        </is>
+      </c>
+      <c r="E69" t="inlineStr">
+        <is>
+          <t>23.02</t>
+        </is>
+      </c>
+      <c r="F69" t="inlineStr">
+        <is>
+          <t>0.80</t>
+        </is>
+      </c>
+      <c r="G69" t="inlineStr">
+        <is>
+          <t>0.0018</t>
+        </is>
+      </c>
+      <c r="H69" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="70">
+      <c r="A70" s="2" t="n">
+        <v>68</v>
+      </c>
+      <c r="B70" t="inlineStr">
+        <is>
+          <t>005006</t>
+        </is>
+      </c>
+      <c r="C70" t="inlineStr">
+        <is>
+          <t>中金金泽量化精选混合C</t>
+        </is>
+      </c>
+      <c r="D70" t="inlineStr">
+        <is>
+          <t>0.01</t>
+        </is>
+      </c>
+      <c r="E70" t="inlineStr">
+        <is>
+          <t>75.38</t>
+        </is>
+      </c>
+      <c r="F70" t="inlineStr">
+        <is>
+          <t>5.43</t>
+        </is>
+      </c>
+      <c r="G70" t="inlineStr">
+        <is>
+          <t>0.0005</t>
+        </is>
+      </c>
+      <c r="H70" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="71">
+      <c r="A71" s="2" t="n">
+        <v>69</v>
+      </c>
+      <c r="B71" t="inlineStr">
+        <is>
+          <t>015407</t>
+        </is>
+      </c>
+      <c r="C71" t="inlineStr">
+        <is>
+          <t>国寿安保稳弘混合E</t>
+        </is>
+      </c>
+      <c r="D71" t="inlineStr">
+        <is>
+          <t>0.00</t>
+        </is>
+      </c>
+      <c r="E71" t="inlineStr">
+        <is>
+          <t>36.25</t>
+        </is>
+      </c>
+      <c r="F71" t="inlineStr">
+        <is>
+          <t>3.27</t>
+        </is>
+      </c>
+      <c r="G71" t="n">
+        <v>0</v>
+      </c>
+      <c r="H71" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="72">
+      <c r="A72" s="2" t="n">
+        <v>70</v>
+      </c>
+      <c r="B72" t="inlineStr">
+        <is>
+          <t>013205</t>
+        </is>
+      </c>
+      <c r="C72" t="inlineStr">
+        <is>
+          <t>恒生前海恒源天利债C</t>
+        </is>
+      </c>
+      <c r="D72" t="inlineStr">
+        <is>
+          <t>0.00</t>
+        </is>
+      </c>
+      <c r="E72" t="inlineStr">
+        <is>
+          <t>21.66</t>
+        </is>
+      </c>
+      <c r="F72" t="inlineStr">
+        <is>
+          <t>1.26</t>
+        </is>
+      </c>
+      <c r="G72" t="n">
+        <v>0</v>
+      </c>
+      <c r="H72" t="n">
+        <v>5</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:D7"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>日期</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>持有数量(只)</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>2022-Q1</t>
+        </is>
+      </c>
+      <c r="C2" t="n">
+        <v>71</v>
+      </c>
+      <c r="D2" t="n">
+        <v>20.66</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>2021-Q4</t>
+        </is>
+      </c>
+      <c r="C3" t="n">
+        <v>79</v>
+      </c>
+      <c r="D3" t="n">
+        <v>27.31</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>2021-Q3</t>
+        </is>
+      </c>
+      <c r="C4" t="n">
+        <v>79</v>
+      </c>
+      <c r="D4" t="n">
+        <v>41.61</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>2021-Q2</t>
+        </is>
+      </c>
+      <c r="C5" t="n">
+        <v>8</v>
+      </c>
+      <c r="D5" t="n">
+        <v>5.74</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>2021-Q1</t>
+        </is>
+      </c>
+      <c r="C6" t="n">
+        <v>7</v>
+      </c>
+      <c r="D6" t="n">
+        <v>6.52</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
           <t>2020-Q4</t>
         </is>
       </c>
-      <c r="C6" t="n">
+      <c r="C7" t="n">
         <v>9</v>
       </c>
-      <c r="D6" t="n">
+      <c r="D7" t="n">
         <v>6.47</v>
       </c>
     </row>

--- a/数据整理/stocks/A股/上证主板/601669-中国电建.xlsx
+++ b/数据整理/stocks/A股/上证主板/601669-中国电建.xlsx
@@ -12,7 +12,8 @@
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="4" state="visible" r:id="rId4"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q4" sheetId="5" state="visible" r:id="rId5"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q1" sheetId="6" state="visible" r:id="rId6"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="7" state="visible" r:id="rId7"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q2" sheetId="7" state="visible" r:id="rId7"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="8" state="visible" r:id="rId8"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -10396,7 +10397,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D7"/>
+  <dimension ref="A1:H99"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -10407,17 +10408,37 @@
     <row r="1">
       <c r="B1" s="2" t="inlineStr">
         <is>
-          <t>日期</t>
+          <t>基金代码</t>
         </is>
       </c>
       <c r="C1" s="2" t="inlineStr">
         <is>
-          <t>持有数量(只)</t>
+          <t>基金名称</t>
         </is>
       </c>
       <c r="D1" s="2" t="inlineStr">
         <is>
+          <t>基金规模</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
           <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
         </is>
       </c>
     </row>
@@ -10427,14 +10448,36 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>2022-Q1</t>
-        </is>
-      </c>
-      <c r="C2" t="n">
-        <v>71</v>
-      </c>
-      <c r="D2" t="n">
-        <v>20.66</v>
+          <t>516970</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>广发中证基建工程交易型开放式指数证券投资基金</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>110.20</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>99.48</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>9.81</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>10.8106</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="3">
@@ -10443,14 +10486,36 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>2021-Q4</t>
-        </is>
-      </c>
-      <c r="C3" t="n">
-        <v>79</v>
-      </c>
-      <c r="D3" t="n">
-        <v>27.31</v>
+          <t>165525</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>信诚中证基建工程指数（LOF）</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>13.49</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>91.53</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>9.03</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>1.2181</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="4">
@@ -10459,14 +10524,36 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>2021-Q3</t>
-        </is>
-      </c>
-      <c r="C4" t="n">
-        <v>79</v>
-      </c>
-      <c r="D4" t="n">
-        <v>41.61</v>
+          <t>515900</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>博时中证央企创新驱动ETF</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>41.26</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>98.04</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>2.91</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>1.2007</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>8</v>
       </c>
     </row>
     <row r="5">
@@ -10475,14 +10562,36 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>2021-Q2</t>
-        </is>
-      </c>
-      <c r="C5" t="n">
-        <v>8</v>
-      </c>
-      <c r="D5" t="n">
-        <v>5.74</v>
+          <t>516950</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>银华中证基建交易型开放式指数证券投资基金</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>14.99</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>98.39</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>7.02</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>1.0523</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>4</v>
       </c>
     </row>
     <row r="6">
@@ -10491,14 +10600,36 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>2021-Q1</t>
-        </is>
-      </c>
-      <c r="C6" t="n">
-        <v>7</v>
-      </c>
-      <c r="D6" t="n">
-        <v>6.52</v>
+          <t>012541</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>金鹰产业升级混合型证券投资基金A</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>20.58</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>94.31</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>3.72</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>0.7656</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
+        <v>9</v>
       </c>
     </row>
     <row r="7">
@@ -10507,13 +10638,3671 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
+          <t>240010</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>华宝行业精选混合</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>15.57</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>89.18</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>4.35</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>0.6773</t>
+        </is>
+      </c>
+      <c r="H7" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>240009</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>华宝先进成长混合</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>13.34</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>89.57</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>4.81</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>0.6417</t>
+        </is>
+      </c>
+      <c r="H8" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>398001</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>中海优质成长混合</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>12.17</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>92.49</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>4.69</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>0.5708</t>
+        </is>
+      </c>
+      <c r="H9" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="2" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>540006</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>汇丰晋信大盘股票A</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>17.19</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>91.31</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>3.21</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>0.5518</t>
+        </is>
+      </c>
+      <c r="H10" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="2" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>515600</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>广发中证央企创新驱动ETF</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>17.27</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>98.46</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>2.92</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>0.5043</t>
+        </is>
+      </c>
+      <c r="H11" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="2" t="n">
+        <v>10</v>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>515680</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>嘉实中证央企创新驱动ETF</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>16.23</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>98.31</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>2.90</t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr">
+        <is>
+          <t>0.4707</t>
+        </is>
+      </c>
+      <c r="H12" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="2" t="n">
+        <v>11</v>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>013082</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>信诚中证基建工程指数（LOF）C</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>4.96</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>91.53</t>
+        </is>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>9.03</t>
+        </is>
+      </c>
+      <c r="G13" t="inlineStr">
+        <is>
+          <t>0.4479</t>
+        </is>
+      </c>
+      <c r="H13" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="2" t="n">
+        <v>12</v>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>000190</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>中银新回报灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>34.07</t>
+        </is>
+      </c>
+      <c r="E14" t="inlineStr">
+        <is>
+          <t>21.82</t>
+        </is>
+      </c>
+      <c r="F14" t="inlineStr">
+        <is>
+          <t>1.03</t>
+        </is>
+      </c>
+      <c r="G14" t="inlineStr">
+        <is>
+          <t>0.3509</t>
+        </is>
+      </c>
+      <c r="H14" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="2" t="n">
+        <v>13</v>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>012014</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>工银瑞信聚润6个月持有期混合型证券投资基金A</t>
+        </is>
+      </c>
+      <c r="D15" t="inlineStr">
+        <is>
+          <t>49.34</t>
+        </is>
+      </c>
+      <c r="E15" t="inlineStr">
+        <is>
+          <t>22.66</t>
+        </is>
+      </c>
+      <c r="F15" t="inlineStr">
+        <is>
+          <t>0.65</t>
+        </is>
+      </c>
+      <c r="G15" t="inlineStr">
+        <is>
+          <t>0.3207</t>
+        </is>
+      </c>
+      <c r="H15" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="2" t="n">
+        <v>14</v>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>519193</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>万家消费成长股票</t>
+        </is>
+      </c>
+      <c r="D16" t="inlineStr">
+        <is>
+          <t>5.42</t>
+        </is>
+      </c>
+      <c r="E16" t="inlineStr">
+        <is>
+          <t>89.15</t>
+        </is>
+      </c>
+      <c r="F16" t="inlineStr">
+        <is>
+          <t>5.23</t>
+        </is>
+      </c>
+      <c r="G16" t="inlineStr">
+        <is>
+          <t>0.2835</t>
+        </is>
+      </c>
+      <c r="H16" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="2" t="n">
+        <v>15</v>
+      </c>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>007012</t>
+        </is>
+      </c>
+      <c r="C17" t="inlineStr">
+        <is>
+          <t>湘财长顺混合A</t>
+        </is>
+      </c>
+      <c r="D17" t="inlineStr">
+        <is>
+          <t>4.74</t>
+        </is>
+      </c>
+      <c r="E17" t="inlineStr">
+        <is>
+          <t>92.98</t>
+        </is>
+      </c>
+      <c r="F17" t="inlineStr">
+        <is>
+          <t>5.72</t>
+        </is>
+      </c>
+      <c r="G17" t="inlineStr">
+        <is>
+          <t>0.2711</t>
+        </is>
+      </c>
+      <c r="H17" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="2" t="n">
+        <v>16</v>
+      </c>
+      <c r="B18" t="inlineStr">
+        <is>
+          <t>001719</t>
+        </is>
+      </c>
+      <c r="C18" t="inlineStr">
+        <is>
+          <t>工银瑞信国家战略主题股票</t>
+        </is>
+      </c>
+      <c r="D18" t="inlineStr">
+        <is>
+          <t>5.39</t>
+        </is>
+      </c>
+      <c r="E18" t="inlineStr">
+        <is>
+          <t>93.93</t>
+        </is>
+      </c>
+      <c r="F18" t="inlineStr">
+        <is>
+          <t>4.86</t>
+        </is>
+      </c>
+      <c r="G18" t="inlineStr">
+        <is>
+          <t>0.2620</t>
+        </is>
+      </c>
+      <c r="H18" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="2" t="n">
+        <v>17</v>
+      </c>
+      <c r="B19" t="inlineStr">
+        <is>
+          <t>673060</t>
+        </is>
+      </c>
+      <c r="C19" t="inlineStr">
+        <is>
+          <t>西部利得景瑞灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D19" t="inlineStr">
+        <is>
+          <t>7.05</t>
+        </is>
+      </c>
+      <c r="E19" t="inlineStr">
+        <is>
+          <t>93.15</t>
+        </is>
+      </c>
+      <c r="F19" t="inlineStr">
+        <is>
+          <t>3.54</t>
+        </is>
+      </c>
+      <c r="G19" t="inlineStr">
+        <is>
+          <t>0.2496</t>
+        </is>
+      </c>
+      <c r="H19" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" s="2" t="n">
+        <v>18</v>
+      </c>
+      <c r="B20" t="inlineStr">
+        <is>
+          <t>012850</t>
+        </is>
+      </c>
+      <c r="C20" t="inlineStr">
+        <is>
+          <t>中融低碳经济3个月持有期混合型证券投资基金A</t>
+        </is>
+      </c>
+      <c r="D20" t="inlineStr">
+        <is>
+          <t>8.43</t>
+        </is>
+      </c>
+      <c r="E20" t="inlineStr">
+        <is>
+          <t>76.15</t>
+        </is>
+      </c>
+      <c r="F20" t="inlineStr">
+        <is>
+          <t>2.78</t>
+        </is>
+      </c>
+      <c r="G20" t="inlineStr">
+        <is>
+          <t>0.2344</t>
+        </is>
+      </c>
+      <c r="H20" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" s="2" t="n">
+        <v>19</v>
+      </c>
+      <c r="B21" t="inlineStr">
+        <is>
+          <t>002430</t>
+        </is>
+      </c>
+      <c r="C21" t="inlineStr">
+        <is>
+          <t>中银丰利灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D21" t="inlineStr">
+        <is>
+          <t>7.56</t>
+        </is>
+      </c>
+      <c r="E21" t="inlineStr">
+        <is>
+          <t>29.80</t>
+        </is>
+      </c>
+      <c r="F21" t="inlineStr">
+        <is>
+          <t>3.03</t>
+        </is>
+      </c>
+      <c r="G21" t="inlineStr">
+        <is>
+          <t>0.2291</t>
+        </is>
+      </c>
+      <c r="H21" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" s="2" t="n">
+        <v>20</v>
+      </c>
+      <c r="B22" t="inlineStr">
+        <is>
+          <t>481006</t>
+        </is>
+      </c>
+      <c r="C22" t="inlineStr">
+        <is>
+          <t>工银红利混合</t>
+        </is>
+      </c>
+      <c r="D22" t="inlineStr">
+        <is>
+          <t>5.19</t>
+        </is>
+      </c>
+      <c r="E22" t="inlineStr">
+        <is>
+          <t>94.75</t>
+        </is>
+      </c>
+      <c r="F22" t="inlineStr">
+        <is>
+          <t>3.81</t>
+        </is>
+      </c>
+      <c r="G22" t="inlineStr">
+        <is>
+          <t>0.1977</t>
+        </is>
+      </c>
+      <c r="H22" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" s="2" t="n">
+        <v>21</v>
+      </c>
+      <c r="B23" t="inlineStr">
+        <is>
+          <t>005400</t>
+        </is>
+      </c>
+      <c r="C23" t="inlineStr">
+        <is>
+          <t>万家潜力价值灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D23" t="inlineStr">
+        <is>
+          <t>2.62</t>
+        </is>
+      </c>
+      <c r="E23" t="inlineStr">
+        <is>
+          <t>91.45</t>
+        </is>
+      </c>
+      <c r="F23" t="inlineStr">
+        <is>
+          <t>7.28</t>
+        </is>
+      </c>
+      <c r="G23" t="inlineStr">
+        <is>
+          <t>0.1907</t>
+        </is>
+      </c>
+      <c r="H23" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" s="2" t="n">
+        <v>22</v>
+      </c>
+      <c r="B24" t="inlineStr">
+        <is>
+          <t>000029</t>
+        </is>
+      </c>
+      <c r="C24" t="inlineStr">
+        <is>
+          <t>富国宏观策略灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D24" t="inlineStr">
+        <is>
+          <t>6.17</t>
+        </is>
+      </c>
+      <c r="E24" t="inlineStr">
+        <is>
+          <t>84.79</t>
+        </is>
+      </c>
+      <c r="F24" t="inlineStr">
+        <is>
+          <t>2.78</t>
+        </is>
+      </c>
+      <c r="G24" t="inlineStr">
+        <is>
+          <t>0.1715</t>
+        </is>
+      </c>
+      <c r="H24" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" s="2" t="n">
+        <v>23</v>
+      </c>
+      <c r="B25" t="inlineStr">
+        <is>
+          <t>009688</t>
+        </is>
+      </c>
+      <c r="C25" t="inlineStr">
+        <is>
+          <t>万家鑫动力月月购一年滚动持有混合</t>
+        </is>
+      </c>
+      <c r="D25" t="inlineStr">
+        <is>
+          <t>2.84</t>
+        </is>
+      </c>
+      <c r="E25" t="inlineStr">
+        <is>
+          <t>89.25</t>
+        </is>
+      </c>
+      <c r="F25" t="inlineStr">
+        <is>
+          <t>5.72</t>
+        </is>
+      </c>
+      <c r="G25" t="inlineStr">
+        <is>
+          <t>0.1624</t>
+        </is>
+      </c>
+      <c r="H25" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" s="2" t="n">
+        <v>24</v>
+      </c>
+      <c r="B26" t="inlineStr">
+        <is>
+          <t>007811</t>
+        </is>
+      </c>
+      <c r="C26" t="inlineStr">
+        <is>
+          <t>淳厚信泽灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D26" t="inlineStr">
+        <is>
+          <t>5.45</t>
+        </is>
+      </c>
+      <c r="E26" t="inlineStr">
+        <is>
+          <t>79.98</t>
+        </is>
+      </c>
+      <c r="F26" t="inlineStr">
+        <is>
+          <t>2.96</t>
+        </is>
+      </c>
+      <c r="G26" t="inlineStr">
+        <is>
+          <t>0.1613</t>
+        </is>
+      </c>
+      <c r="H26" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" s="2" t="n">
+        <v>25</v>
+      </c>
+      <c r="B27" t="inlineStr">
+        <is>
+          <t>159974</t>
+        </is>
+      </c>
+      <c r="C27" t="inlineStr">
+        <is>
+          <t>富国中证央企创新驱动ETF</t>
+        </is>
+      </c>
+      <c r="D27" t="inlineStr">
+        <is>
+          <t>5.44</t>
+        </is>
+      </c>
+      <c r="E27" t="inlineStr">
+        <is>
+          <t>98.81</t>
+        </is>
+      </c>
+      <c r="F27" t="inlineStr">
+        <is>
+          <t>2.92</t>
+        </is>
+      </c>
+      <c r="G27" t="inlineStr">
+        <is>
+          <t>0.1588</t>
+        </is>
+      </c>
+      <c r="H27" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" s="2" t="n">
+        <v>26</v>
+      </c>
+      <c r="B28" t="inlineStr">
+        <is>
+          <t>000763</t>
+        </is>
+      </c>
+      <c r="C28" t="inlineStr">
+        <is>
+          <t>工银新财富灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D28" t="inlineStr">
+        <is>
+          <t>3.11</t>
+        </is>
+      </c>
+      <c r="E28" t="inlineStr">
+        <is>
+          <t>94.00</t>
+        </is>
+      </c>
+      <c r="F28" t="inlineStr">
+        <is>
+          <t>4.53</t>
+        </is>
+      </c>
+      <c r="G28" t="inlineStr">
+        <is>
+          <t>0.1409</t>
+        </is>
+      </c>
+      <c r="H28" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" s="2" t="n">
+        <v>27</v>
+      </c>
+      <c r="B29" t="inlineStr">
+        <is>
+          <t>003850</t>
+        </is>
+      </c>
+      <c r="C29" t="inlineStr">
+        <is>
+          <t>中银锦利灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D29" t="inlineStr">
+        <is>
+          <t>4.57</t>
+        </is>
+      </c>
+      <c r="E29" t="inlineStr">
+        <is>
+          <t>28.91</t>
+        </is>
+      </c>
+      <c r="F29" t="inlineStr">
+        <is>
+          <t>2.93</t>
+        </is>
+      </c>
+      <c r="G29" t="inlineStr">
+        <is>
+          <t>0.1339</t>
+        </is>
+      </c>
+      <c r="H29" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" s="2" t="n">
+        <v>28</v>
+      </c>
+      <c r="B30" t="inlineStr">
+        <is>
+          <t>002616</t>
+        </is>
+      </c>
+      <c r="C30" t="inlineStr">
+        <is>
+          <t>中银益利灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D30" t="inlineStr">
+        <is>
+          <t>4.43</t>
+        </is>
+      </c>
+      <c r="E30" t="inlineStr">
+        <is>
+          <t>29.36</t>
+        </is>
+      </c>
+      <c r="F30" t="inlineStr">
+        <is>
+          <t>2.97</t>
+        </is>
+      </c>
+      <c r="G30" t="inlineStr">
+        <is>
+          <t>0.1316</t>
+        </is>
+      </c>
+      <c r="H30" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" s="2" t="n">
+        <v>29</v>
+      </c>
+      <c r="B31" t="inlineStr">
+        <is>
+          <t>012015</t>
+        </is>
+      </c>
+      <c r="C31" t="inlineStr">
+        <is>
+          <t>工银瑞信聚润6个月持有期混合型证券投资基金C</t>
+        </is>
+      </c>
+      <c r="D31" t="inlineStr">
+        <is>
+          <t>19.92</t>
+        </is>
+      </c>
+      <c r="E31" t="inlineStr">
+        <is>
+          <t>22.66</t>
+        </is>
+      </c>
+      <c r="F31" t="inlineStr">
+        <is>
+          <t>0.65</t>
+        </is>
+      </c>
+      <c r="G31" t="inlineStr">
+        <is>
+          <t>0.1295</t>
+        </is>
+      </c>
+      <c r="H31" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" s="2" t="n">
+        <v>30</v>
+      </c>
+      <c r="B32" t="inlineStr">
+        <is>
+          <t>008128</t>
+        </is>
+      </c>
+      <c r="C32" t="inlineStr">
+        <is>
+          <t>湘财长源股票A</t>
+        </is>
+      </c>
+      <c r="D32" t="inlineStr">
+        <is>
+          <t>2.01</t>
+        </is>
+      </c>
+      <c r="E32" t="inlineStr">
+        <is>
+          <t>94.47</t>
+        </is>
+      </c>
+      <c r="F32" t="inlineStr">
+        <is>
+          <t>6.01</t>
+        </is>
+      </c>
+      <c r="G32" t="inlineStr">
+        <is>
+          <t>0.1208</t>
+        </is>
+      </c>
+      <c r="H32" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" s="2" t="n">
+        <v>31</v>
+      </c>
+      <c r="B33" t="inlineStr">
+        <is>
+          <t>011349</t>
+        </is>
+      </c>
+      <c r="C33" t="inlineStr">
+        <is>
+          <t>淳厚现代服务业股票A</t>
+        </is>
+      </c>
+      <c r="D33" t="inlineStr">
+        <is>
+          <t>3.65</t>
+        </is>
+      </c>
+      <c r="E33" t="inlineStr">
+        <is>
+          <t>88.96</t>
+        </is>
+      </c>
+      <c r="F33" t="inlineStr">
+        <is>
+          <t>3.13</t>
+        </is>
+      </c>
+      <c r="G33" t="inlineStr">
+        <is>
+          <t>0.1142</t>
+        </is>
+      </c>
+      <c r="H33" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" s="2" t="n">
+        <v>32</v>
+      </c>
+      <c r="B34" t="inlineStr">
+        <is>
+          <t>007013</t>
+        </is>
+      </c>
+      <c r="C34" t="inlineStr">
+        <is>
+          <t>湘财长顺混合C</t>
+        </is>
+      </c>
+      <c r="D34" t="inlineStr">
+        <is>
+          <t>1.95</t>
+        </is>
+      </c>
+      <c r="E34" t="inlineStr">
+        <is>
+          <t>92.98</t>
+        </is>
+      </c>
+      <c r="F34" t="inlineStr">
+        <is>
+          <t>5.72</t>
+        </is>
+      </c>
+      <c r="G34" t="inlineStr">
+        <is>
+          <t>0.1115</t>
+        </is>
+      </c>
+      <c r="H34" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" s="2" t="n">
+        <v>33</v>
+      </c>
+      <c r="B35" t="inlineStr">
+        <is>
+          <t>000572</t>
+        </is>
+      </c>
+      <c r="C35" t="inlineStr">
+        <is>
+          <t>中银多策略灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D35" t="inlineStr">
+        <is>
+          <t>11.11</t>
+        </is>
+      </c>
+      <c r="E35" t="inlineStr">
+        <is>
+          <t>20.92</t>
+        </is>
+      </c>
+      <c r="F35" t="inlineStr">
+        <is>
+          <t>0.96</t>
+        </is>
+      </c>
+      <c r="G35" t="inlineStr">
+        <is>
+          <t>0.1067</t>
+        </is>
+      </c>
+      <c r="H35" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" s="2" t="n">
+        <v>34</v>
+      </c>
+      <c r="B36" t="inlineStr">
+        <is>
+          <t>010551</t>
+        </is>
+      </c>
+      <c r="C36" t="inlineStr">
+        <is>
+          <t>淳厚欣颐一年持有期混合</t>
+        </is>
+      </c>
+      <c r="D36" t="inlineStr">
+        <is>
+          <t>3.33</t>
+        </is>
+      </c>
+      <c r="E36" t="inlineStr">
+        <is>
+          <t>88.56</t>
+        </is>
+      </c>
+      <c r="F36" t="inlineStr">
+        <is>
+          <t>3.07</t>
+        </is>
+      </c>
+      <c r="G36" t="inlineStr">
+        <is>
+          <t>0.1022</t>
+        </is>
+      </c>
+      <c r="H36" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" s="2" t="n">
+        <v>35</v>
+      </c>
+      <c r="B37" t="inlineStr">
+        <is>
+          <t>161910</t>
+        </is>
+      </c>
+      <c r="C37" t="inlineStr">
+        <is>
+          <t>万家新机遇价值驱动灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D37" t="inlineStr">
+        <is>
+          <t>1.40</t>
+        </is>
+      </c>
+      <c r="E37" t="inlineStr">
+        <is>
+          <t>91.42</t>
+        </is>
+      </c>
+      <c r="F37" t="inlineStr">
+        <is>
+          <t>6.55</t>
+        </is>
+      </c>
+      <c r="G37" t="inlineStr">
+        <is>
+          <t>0.0917</t>
+        </is>
+      </c>
+      <c r="H37" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" s="2" t="n">
+        <v>36</v>
+      </c>
+      <c r="B38" t="inlineStr">
+        <is>
+          <t>001370</t>
+        </is>
+      </c>
+      <c r="C38" t="inlineStr">
+        <is>
+          <t>中银新趋势灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D38" t="inlineStr">
+        <is>
+          <t>2.61</t>
+        </is>
+      </c>
+      <c r="E38" t="inlineStr">
+        <is>
+          <t>37.38</t>
+        </is>
+      </c>
+      <c r="F38" t="inlineStr">
+        <is>
+          <t>3.13</t>
+        </is>
+      </c>
+      <c r="G38" t="inlineStr">
+        <is>
+          <t>0.0817</t>
+        </is>
+      </c>
+      <c r="H38" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" s="2" t="n">
+        <v>37</v>
+      </c>
+      <c r="B39" t="inlineStr">
+        <is>
+          <t>206013</t>
+        </is>
+      </c>
+      <c r="C39" t="inlineStr">
+        <is>
+          <t>鹏华宏观灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D39" t="inlineStr">
+        <is>
+          <t>2.62</t>
+        </is>
+      </c>
+      <c r="E39" t="inlineStr">
+        <is>
+          <t>36.85</t>
+        </is>
+      </c>
+      <c r="F39" t="inlineStr">
+        <is>
+          <t>2.92</t>
+        </is>
+      </c>
+      <c r="G39" t="inlineStr">
+        <is>
+          <t>0.0765</t>
+        </is>
+      </c>
+      <c r="H39" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" s="2" t="n">
+        <v>38</v>
+      </c>
+      <c r="B40" t="inlineStr">
+        <is>
+          <t>080001</t>
+        </is>
+      </c>
+      <c r="C40" t="inlineStr">
+        <is>
+          <t>长盛成长价值混合</t>
+        </is>
+      </c>
+      <c r="D40" t="inlineStr">
+        <is>
+          <t>2.63</t>
+        </is>
+      </c>
+      <c r="E40" t="inlineStr">
+        <is>
+          <t>62.45</t>
+        </is>
+      </c>
+      <c r="F40" t="inlineStr">
+        <is>
+          <t>2.85</t>
+        </is>
+      </c>
+      <c r="G40" t="inlineStr">
+        <is>
+          <t>0.0750</t>
+        </is>
+      </c>
+      <c r="H40" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41" s="2" t="n">
+        <v>39</v>
+      </c>
+      <c r="B41" t="inlineStr">
+        <is>
+          <t>000585</t>
+        </is>
+      </c>
+      <c r="C41" t="inlineStr">
+        <is>
+          <t>嘉实对冲套利定期开放混合</t>
+        </is>
+      </c>
+      <c r="D41" t="inlineStr">
+        <is>
+          <t>6.53</t>
+        </is>
+      </c>
+      <c r="E41" t="inlineStr">
+        <is>
+          <t>55.66</t>
+        </is>
+      </c>
+      <c r="F41" t="inlineStr">
+        <is>
+          <t>1.10</t>
+        </is>
+      </c>
+      <c r="G41" t="inlineStr">
+        <is>
+          <t>0.0718</t>
+        </is>
+      </c>
+      <c r="H41" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="42">
+      <c r="A42" s="2" t="n">
+        <v>40</v>
+      </c>
+      <c r="B42" t="inlineStr">
+        <is>
+          <t>000667</t>
+        </is>
+      </c>
+      <c r="C42" t="inlineStr">
+        <is>
+          <t>工银绝对收益策略混合A</t>
+        </is>
+      </c>
+      <c r="D42" t="inlineStr">
+        <is>
+          <t>5.06</t>
+        </is>
+      </c>
+      <c r="E42" t="inlineStr">
+        <is>
+          <t>69.81</t>
+        </is>
+      </c>
+      <c r="F42" t="inlineStr">
+        <is>
+          <t>1.31</t>
+        </is>
+      </c>
+      <c r="G42" t="inlineStr">
+        <is>
+          <t>0.0663</t>
+        </is>
+      </c>
+      <c r="H42" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="43">
+      <c r="A43" s="2" t="n">
+        <v>41</v>
+      </c>
+      <c r="B43" t="inlineStr">
+        <is>
+          <t>970032</t>
+        </is>
+      </c>
+      <c r="C43" t="inlineStr">
+        <is>
+          <t>东海证券海睿进取灵活配置混合型集合资产管理计划A</t>
+        </is>
+      </c>
+      <c r="D43" t="inlineStr">
+        <is>
+          <t>1.49</t>
+        </is>
+      </c>
+      <c r="E43" t="inlineStr">
+        <is>
+          <t>84.33</t>
+        </is>
+      </c>
+      <c r="F43" t="inlineStr">
+        <is>
+          <t>4.34</t>
+        </is>
+      </c>
+      <c r="G43" t="inlineStr">
+        <is>
+          <t>0.0647</t>
+        </is>
+      </c>
+      <c r="H43" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="44">
+      <c r="A44" s="2" t="n">
+        <v>42</v>
+      </c>
+      <c r="B44" t="inlineStr">
+        <is>
+          <t>002504</t>
+        </is>
+      </c>
+      <c r="C44" t="inlineStr">
+        <is>
+          <t>鹏华金鼎灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D44" t="inlineStr">
+        <is>
+          <t>1.13</t>
+        </is>
+      </c>
+      <c r="E44" t="inlineStr">
+        <is>
+          <t>90.14</t>
+        </is>
+      </c>
+      <c r="F44" t="inlineStr">
+        <is>
+          <t>5.52</t>
+        </is>
+      </c>
+      <c r="G44" t="inlineStr">
+        <is>
+          <t>0.0624</t>
+        </is>
+      </c>
+      <c r="H44" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="45">
+      <c r="A45" s="2" t="n">
+        <v>43</v>
+      </c>
+      <c r="B45" t="inlineStr">
+        <is>
+          <t>005944</t>
+        </is>
+      </c>
+      <c r="C45" t="inlineStr">
+        <is>
+          <t>工银瑞信聚福混合C</t>
+        </is>
+      </c>
+      <c r="D45" t="inlineStr">
+        <is>
+          <t>4.45</t>
+        </is>
+      </c>
+      <c r="E45" t="inlineStr">
+        <is>
+          <t>29.50</t>
+        </is>
+      </c>
+      <c r="F45" t="inlineStr">
+        <is>
+          <t>1.40</t>
+        </is>
+      </c>
+      <c r="G45" t="inlineStr">
+        <is>
+          <t>0.0623</t>
+        </is>
+      </c>
+      <c r="H45" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="46">
+      <c r="A46" s="2" t="n">
+        <v>44</v>
+      </c>
+      <c r="B46" t="inlineStr">
+        <is>
+          <t>009258</t>
+        </is>
+      </c>
+      <c r="C46" t="inlineStr">
+        <is>
+          <t>西部利得景瑞灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D46" t="inlineStr">
+        <is>
+          <t>1.72</t>
+        </is>
+      </c>
+      <c r="E46" t="inlineStr">
+        <is>
+          <t>93.15</t>
+        </is>
+      </c>
+      <c r="F46" t="inlineStr">
+        <is>
+          <t>3.54</t>
+        </is>
+      </c>
+      <c r="G46" t="inlineStr">
+        <is>
+          <t>0.0609</t>
+        </is>
+      </c>
+      <c r="H46" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="47">
+      <c r="A47" s="2" t="n">
+        <v>45</v>
+      </c>
+      <c r="B47" t="inlineStr">
+        <is>
+          <t>007590</t>
+        </is>
+      </c>
+      <c r="C47" t="inlineStr">
+        <is>
+          <t>华宝绿色领先股票</t>
+        </is>
+      </c>
+      <c r="D47" t="inlineStr">
+        <is>
+          <t>1.11</t>
+        </is>
+      </c>
+      <c r="E47" t="inlineStr">
+        <is>
+          <t>91.70</t>
+        </is>
+      </c>
+      <c r="F47" t="inlineStr">
+        <is>
+          <t>5.28</t>
+        </is>
+      </c>
+      <c r="G47" t="inlineStr">
+        <is>
+          <t>0.0586</t>
+        </is>
+      </c>
+      <c r="H47" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="48">
+      <c r="A48" s="2" t="n">
+        <v>46</v>
+      </c>
+      <c r="B48" t="inlineStr">
+        <is>
+          <t>008129</t>
+        </is>
+      </c>
+      <c r="C48" t="inlineStr">
+        <is>
+          <t>湘财长源股票C</t>
+        </is>
+      </c>
+      <c r="D48" t="inlineStr">
+        <is>
+          <t>0.87</t>
+        </is>
+      </c>
+      <c r="E48" t="inlineStr">
+        <is>
+          <t>94.47</t>
+        </is>
+      </c>
+      <c r="F48" t="inlineStr">
+        <is>
+          <t>6.01</t>
+        </is>
+      </c>
+      <c r="G48" t="inlineStr">
+        <is>
+          <t>0.0523</t>
+        </is>
+      </c>
+      <c r="H48" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="49">
+      <c r="A49" s="2" t="n">
+        <v>47</v>
+      </c>
+      <c r="B49" t="inlineStr">
+        <is>
+          <t>970033</t>
+        </is>
+      </c>
+      <c r="C49" t="inlineStr">
+        <is>
+          <t>东海证券海睿进取灵活配置混合型集合资产管理计划B</t>
+        </is>
+      </c>
+      <c r="D49" t="inlineStr">
+        <is>
+          <t>1.10</t>
+        </is>
+      </c>
+      <c r="E49" t="inlineStr">
+        <is>
+          <t>84.33</t>
+        </is>
+      </c>
+      <c r="F49" t="inlineStr">
+        <is>
+          <t>4.34</t>
+        </is>
+      </c>
+      <c r="G49" t="inlineStr">
+        <is>
+          <t>0.0477</t>
+        </is>
+      </c>
+      <c r="H49" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="50">
+      <c r="A50" s="2" t="n">
+        <v>48</v>
+      </c>
+      <c r="B50" t="inlineStr">
+        <is>
+          <t>002431</t>
+        </is>
+      </c>
+      <c r="C50" t="inlineStr">
+        <is>
+          <t>中银丰利灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D50" t="inlineStr">
+        <is>
+          <t>1.56</t>
+        </is>
+      </c>
+      <c r="E50" t="inlineStr">
+        <is>
+          <t>29.80</t>
+        </is>
+      </c>
+      <c r="F50" t="inlineStr">
+        <is>
+          <t>3.03</t>
+        </is>
+      </c>
+      <c r="G50" t="inlineStr">
+        <is>
+          <t>0.0473</t>
+        </is>
+      </c>
+      <c r="H50" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="51">
+      <c r="A51" s="2" t="n">
+        <v>49</v>
+      </c>
+      <c r="B51" t="inlineStr">
+        <is>
+          <t>960000</t>
+        </is>
+      </c>
+      <c r="C51" t="inlineStr">
+        <is>
+          <t>汇丰晋信大盘股票H</t>
+        </is>
+      </c>
+      <c r="D51" t="inlineStr">
+        <is>
+          <t>1.45</t>
+        </is>
+      </c>
+      <c r="E51" t="inlineStr">
+        <is>
+          <t>91.31</t>
+        </is>
+      </c>
+      <c r="F51" t="inlineStr">
+        <is>
+          <t>3.21</t>
+        </is>
+      </c>
+      <c r="G51" t="inlineStr">
+        <is>
+          <t>0.0465</t>
+        </is>
+      </c>
+      <c r="H51" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="52">
+      <c r="A52" s="2" t="n">
+        <v>50</v>
+      </c>
+      <c r="B52" t="inlineStr">
+        <is>
+          <t>009500</t>
+        </is>
+      </c>
+      <c r="C52" t="inlineStr">
+        <is>
+          <t>国寿安保高股息混合A</t>
+        </is>
+      </c>
+      <c r="D52" t="inlineStr">
+        <is>
+          <t>1.02</t>
+        </is>
+      </c>
+      <c r="E52" t="inlineStr">
+        <is>
+          <t>79.91</t>
+        </is>
+      </c>
+      <c r="F52" t="inlineStr">
+        <is>
+          <t>4.12</t>
+        </is>
+      </c>
+      <c r="G52" t="inlineStr">
+        <is>
+          <t>0.0420</t>
+        </is>
+      </c>
+      <c r="H52" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="53">
+      <c r="A53" s="2" t="n">
+        <v>51</v>
+      </c>
+      <c r="B53" t="inlineStr">
+        <is>
+          <t>012851</t>
+        </is>
+      </c>
+      <c r="C53" t="inlineStr">
+        <is>
+          <t>中融低碳经济3个月持有期混合型证券投资基金C</t>
+        </is>
+      </c>
+      <c r="D53" t="inlineStr">
+        <is>
+          <t>1.46</t>
+        </is>
+      </c>
+      <c r="E53" t="inlineStr">
+        <is>
+          <t>76.15</t>
+        </is>
+      </c>
+      <c r="F53" t="inlineStr">
+        <is>
+          <t>2.78</t>
+        </is>
+      </c>
+      <c r="G53" t="inlineStr">
+        <is>
+          <t>0.0406</t>
+        </is>
+      </c>
+      <c r="H53" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="54">
+      <c r="A54" s="2" t="n">
+        <v>52</v>
+      </c>
+      <c r="B54" t="inlineStr">
+        <is>
+          <t>005401</t>
+        </is>
+      </c>
+      <c r="C54" t="inlineStr">
+        <is>
+          <t>万家潜力价值灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D54" t="inlineStr">
+        <is>
+          <t>0.50</t>
+        </is>
+      </c>
+      <c r="E54" t="inlineStr">
+        <is>
+          <t>91.45</t>
+        </is>
+      </c>
+      <c r="F54" t="inlineStr">
+        <is>
+          <t>7.28</t>
+        </is>
+      </c>
+      <c r="G54" t="inlineStr">
+        <is>
+          <t>0.0364</t>
+        </is>
+      </c>
+      <c r="H54" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="55">
+      <c r="A55" s="2" t="n">
+        <v>53</v>
+      </c>
+      <c r="B55" t="inlineStr">
+        <is>
+          <t>004671</t>
+        </is>
+      </c>
+      <c r="C55" t="inlineStr">
+        <is>
+          <t>中融核心成长灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D55" t="inlineStr">
+        <is>
+          <t>1.07</t>
+        </is>
+      </c>
+      <c r="E55" t="inlineStr">
+        <is>
+          <t>90.79</t>
+        </is>
+      </c>
+      <c r="F55" t="inlineStr">
+        <is>
+          <t>3.04</t>
+        </is>
+      </c>
+      <c r="G55" t="inlineStr">
+        <is>
+          <t>0.0325</t>
+        </is>
+      </c>
+      <c r="H55" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="56">
+      <c r="A56" s="2" t="n">
+        <v>54</v>
+      </c>
+      <c r="B56" t="inlineStr">
+        <is>
+          <t>970048</t>
+        </is>
+      </c>
+      <c r="C56" t="inlineStr">
+        <is>
+          <t>东海证券海睿致远灵活配置混合型集合资产管理计划</t>
+        </is>
+      </c>
+      <c r="D56" t="inlineStr">
+        <is>
+          <t>0.54</t>
+        </is>
+      </c>
+      <c r="E56" t="inlineStr">
+        <is>
+          <t>79.88</t>
+        </is>
+      </c>
+      <c r="F56" t="inlineStr">
+        <is>
+          <t>5.88</t>
+        </is>
+      </c>
+      <c r="G56" t="inlineStr">
+        <is>
+          <t>0.0318</t>
+        </is>
+      </c>
+      <c r="H56" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="57">
+      <c r="A57" s="2" t="n">
+        <v>55</v>
+      </c>
+      <c r="B57" t="inlineStr">
+        <is>
+          <t>005357</t>
+        </is>
+      </c>
+      <c r="C57" t="inlineStr">
+        <is>
+          <t>富国国企改革灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D57" t="inlineStr">
+        <is>
+          <t>1.18</t>
+        </is>
+      </c>
+      <c r="E57" t="inlineStr">
+        <is>
+          <t>84.62</t>
+        </is>
+      </c>
+      <c r="F57" t="inlineStr">
+        <is>
+          <t>2.68</t>
+        </is>
+      </c>
+      <c r="G57" t="inlineStr">
+        <is>
+          <t>0.0316</t>
+        </is>
+      </c>
+      <c r="H57" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="58">
+      <c r="A58" s="2" t="n">
+        <v>56</v>
+      </c>
+      <c r="B58" t="inlineStr">
+        <is>
+          <t>012542</t>
+        </is>
+      </c>
+      <c r="C58" t="inlineStr">
+        <is>
+          <t>金鹰产业升级混合型证券投资基金C</t>
+        </is>
+      </c>
+      <c r="D58" t="inlineStr">
+        <is>
+          <t>0.78</t>
+        </is>
+      </c>
+      <c r="E58" t="inlineStr">
+        <is>
+          <t>94.31</t>
+        </is>
+      </c>
+      <c r="F58" t="inlineStr">
+        <is>
+          <t>3.72</t>
+        </is>
+      </c>
+      <c r="G58" t="inlineStr">
+        <is>
+          <t>0.0290</t>
+        </is>
+      </c>
+      <c r="H58" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="59">
+      <c r="A59" s="2" t="n">
+        <v>57</v>
+      </c>
+      <c r="B59" t="inlineStr">
+        <is>
+          <t>014938</t>
+        </is>
+      </c>
+      <c r="C59" t="inlineStr">
+        <is>
+          <t>同泰产业升级混合A</t>
+        </is>
+      </c>
+      <c r="D59" t="inlineStr">
+        <is>
+          <t>1.09</t>
+        </is>
+      </c>
+      <c r="E59" t="inlineStr">
+        <is>
+          <t>56.49</t>
+        </is>
+      </c>
+      <c r="F59" t="inlineStr">
+        <is>
+          <t>2.54</t>
+        </is>
+      </c>
+      <c r="G59" t="inlineStr">
+        <is>
+          <t>0.0277</t>
+        </is>
+      </c>
+      <c r="H59" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="60">
+      <c r="A60" s="2" t="n">
+        <v>58</v>
+      </c>
+      <c r="B60" t="inlineStr">
+        <is>
+          <t>007812</t>
+        </is>
+      </c>
+      <c r="C60" t="inlineStr">
+        <is>
+          <t>淳厚信泽灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D60" t="inlineStr">
+        <is>
+          <t>0.92</t>
+        </is>
+      </c>
+      <c r="E60" t="inlineStr">
+        <is>
+          <t>79.98</t>
+        </is>
+      </c>
+      <c r="F60" t="inlineStr">
+        <is>
+          <t>2.96</t>
+        </is>
+      </c>
+      <c r="G60" t="inlineStr">
+        <is>
+          <t>0.0272</t>
+        </is>
+      </c>
+      <c r="H60" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="61">
+      <c r="A61" s="2" t="n">
+        <v>59</v>
+      </c>
+      <c r="B61" t="inlineStr">
+        <is>
+          <t>011482</t>
+        </is>
+      </c>
+      <c r="C61" t="inlineStr">
+        <is>
+          <t>中银顺宁回报6个月持有期混合A</t>
+        </is>
+      </c>
+      <c r="D61" t="inlineStr">
+        <is>
+          <t>1.00</t>
+        </is>
+      </c>
+      <c r="E61" t="inlineStr">
+        <is>
+          <t>27.26</t>
+        </is>
+      </c>
+      <c r="F61" t="inlineStr">
+        <is>
+          <t>2.69</t>
+        </is>
+      </c>
+      <c r="G61" t="inlineStr">
+        <is>
+          <t>0.0269</t>
+        </is>
+      </c>
+      <c r="H61" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="62">
+      <c r="A62" s="2" t="n">
+        <v>60</v>
+      </c>
+      <c r="B62" t="inlineStr">
+        <is>
+          <t>006085</t>
+        </is>
+      </c>
+      <c r="C62" t="inlineStr">
+        <is>
+          <t>万家新机遇价值驱动灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D62" t="inlineStr">
+        <is>
+          <t>0.40</t>
+        </is>
+      </c>
+      <c r="E62" t="inlineStr">
+        <is>
+          <t>91.42</t>
+        </is>
+      </c>
+      <c r="F62" t="inlineStr">
+        <is>
+          <t>6.55</t>
+        </is>
+      </c>
+      <c r="G62" t="inlineStr">
+        <is>
+          <t>0.0262</t>
+        </is>
+      </c>
+      <c r="H62" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="63">
+      <c r="A63" s="2" t="n">
+        <v>61</v>
+      </c>
+      <c r="B63" t="inlineStr">
+        <is>
+          <t>005083</t>
+        </is>
+      </c>
+      <c r="C63" t="inlineStr">
+        <is>
+          <t>诺德量化蓝筹增强混合C</t>
+        </is>
+      </c>
+      <c r="D63" t="inlineStr">
+        <is>
+          <t>1.00</t>
+        </is>
+      </c>
+      <c r="E63" t="inlineStr">
+        <is>
+          <t>91.02</t>
+        </is>
+      </c>
+      <c r="F63" t="inlineStr">
+        <is>
+          <t>2.50</t>
+        </is>
+      </c>
+      <c r="G63" t="inlineStr">
+        <is>
+          <t>0.0250</t>
+        </is>
+      </c>
+      <c r="H63" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="64">
+      <c r="A64" s="2" t="n">
+        <v>62</v>
+      </c>
+      <c r="B64" t="inlineStr">
+        <is>
+          <t>011350</t>
+        </is>
+      </c>
+      <c r="C64" t="inlineStr">
+        <is>
+          <t>淳厚现代服务业股票C</t>
+        </is>
+      </c>
+      <c r="D64" t="inlineStr">
+        <is>
+          <t>0.65</t>
+        </is>
+      </c>
+      <c r="E64" t="inlineStr">
+        <is>
+          <t>88.96</t>
+        </is>
+      </c>
+      <c r="F64" t="inlineStr">
+        <is>
+          <t>3.13</t>
+        </is>
+      </c>
+      <c r="G64" t="inlineStr">
+        <is>
+          <t>0.0203</t>
+        </is>
+      </c>
+      <c r="H64" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="65">
+      <c r="A65" s="2" t="n">
+        <v>63</v>
+      </c>
+      <c r="B65" t="inlineStr">
+        <is>
+          <t>010008</t>
+        </is>
+      </c>
+      <c r="C65" t="inlineStr">
+        <is>
+          <t>中融成长优选混合A</t>
+        </is>
+      </c>
+      <c r="D65" t="inlineStr">
+        <is>
+          <t>0.65</t>
+        </is>
+      </c>
+      <c r="E65" t="inlineStr">
+        <is>
+          <t>90.96</t>
+        </is>
+      </c>
+      <c r="F65" t="inlineStr">
+        <is>
+          <t>3.08</t>
+        </is>
+      </c>
+      <c r="G65" t="inlineStr">
+        <is>
+          <t>0.0200</t>
+        </is>
+      </c>
+      <c r="H65" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="66">
+      <c r="A66" s="2" t="n">
+        <v>64</v>
+      </c>
+      <c r="B66" t="inlineStr">
+        <is>
+          <t>000757</t>
+        </is>
+      </c>
+      <c r="C66" t="inlineStr">
+        <is>
+          <t>华富智慧城市灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D66" t="inlineStr">
+        <is>
+          <t>0.53</t>
+        </is>
+      </c>
+      <c r="E66" t="inlineStr">
+        <is>
+          <t>87.04</t>
+        </is>
+      </c>
+      <c r="F66" t="inlineStr">
+        <is>
+          <t>3.66</t>
+        </is>
+      </c>
+      <c r="G66" t="inlineStr">
+        <is>
+          <t>0.0194</t>
+        </is>
+      </c>
+      <c r="H66" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="67">
+      <c r="A67" s="2" t="n">
+        <v>65</v>
+      </c>
+      <c r="B67" t="inlineStr">
+        <is>
+          <t>009999</t>
+        </is>
+      </c>
+      <c r="C67" t="inlineStr">
+        <is>
+          <t>东方中国红利混合</t>
+        </is>
+      </c>
+      <c r="D67" t="inlineStr">
+        <is>
+          <t>0.59</t>
+        </is>
+      </c>
+      <c r="E67" t="inlineStr">
+        <is>
+          <t>79.64</t>
+        </is>
+      </c>
+      <c r="F67" t="inlineStr">
+        <is>
+          <t>2.91</t>
+        </is>
+      </c>
+      <c r="G67" t="inlineStr">
+        <is>
+          <t>0.0172</t>
+        </is>
+      </c>
+      <c r="H67" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="68">
+      <c r="A68" s="2" t="n">
+        <v>66</v>
+      </c>
+      <c r="B68" t="inlineStr">
+        <is>
+          <t>014112</t>
+        </is>
+      </c>
+      <c r="C68" t="inlineStr">
+        <is>
+          <t>嘉实对冲套利定期开放混合C</t>
+        </is>
+      </c>
+      <c r="D68" t="inlineStr">
+        <is>
+          <t>1.39</t>
+        </is>
+      </c>
+      <c r="E68" t="inlineStr">
+        <is>
+          <t>55.66</t>
+        </is>
+      </c>
+      <c r="F68" t="inlineStr">
+        <is>
+          <t>1.10</t>
+        </is>
+      </c>
+      <c r="G68" t="inlineStr">
+        <is>
+          <t>0.0153</t>
+        </is>
+      </c>
+      <c r="H68" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="69">
+      <c r="A69" s="2" t="n">
+        <v>67</v>
+      </c>
+      <c r="B69" t="inlineStr">
+        <is>
+          <t>007133</t>
+        </is>
+      </c>
+      <c r="C69" t="inlineStr">
+        <is>
+          <t>嘉实长青竞争优势股票A</t>
+        </is>
+      </c>
+      <c r="D69" t="inlineStr">
+        <is>
+          <t>0.23</t>
+        </is>
+      </c>
+      <c r="E69" t="inlineStr">
+        <is>
+          <t>83.74</t>
+        </is>
+      </c>
+      <c r="F69" t="inlineStr">
+        <is>
+          <t>6.28</t>
+        </is>
+      </c>
+      <c r="G69" t="inlineStr">
+        <is>
+          <t>0.0144</t>
+        </is>
+      </c>
+      <c r="H69" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="70">
+      <c r="A70" s="2" t="n">
+        <v>68</v>
+      </c>
+      <c r="B70" t="inlineStr">
+        <is>
+          <t>002505</t>
+        </is>
+      </c>
+      <c r="C70" t="inlineStr">
+        <is>
+          <t>鹏华金鼎灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D70" t="inlineStr">
+        <is>
+          <t>0.24</t>
+        </is>
+      </c>
+      <c r="E70" t="inlineStr">
+        <is>
+          <t>90.14</t>
+        </is>
+      </c>
+      <c r="F70" t="inlineStr">
+        <is>
+          <t>5.52</t>
+        </is>
+      </c>
+      <c r="G70" t="inlineStr">
+        <is>
+          <t>0.0132</t>
+        </is>
+      </c>
+      <c r="H70" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="71">
+      <c r="A71" s="2" t="n">
+        <v>69</v>
+      </c>
+      <c r="B71" t="inlineStr">
+        <is>
+          <t>350007</t>
+        </is>
+      </c>
+      <c r="C71" t="inlineStr">
+        <is>
+          <t>天治趋势精选混合</t>
+        </is>
+      </c>
+      <c r="D71" t="inlineStr">
+        <is>
+          <t>0.51</t>
+        </is>
+      </c>
+      <c r="E71" t="inlineStr">
+        <is>
+          <t>31.51</t>
+        </is>
+      </c>
+      <c r="F71" t="inlineStr">
+        <is>
+          <t>2.32</t>
+        </is>
+      </c>
+      <c r="G71" t="inlineStr">
+        <is>
+          <t>0.0118</t>
+        </is>
+      </c>
+      <c r="H71" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="72">
+      <c r="A72" s="2" t="n">
+        <v>70</v>
+      </c>
+      <c r="B72" t="inlineStr">
+        <is>
+          <t>011054</t>
+        </is>
+      </c>
+      <c r="C72" t="inlineStr">
+        <is>
+          <t>申万菱信安鑫智选混合型证券投资基金A</t>
+        </is>
+      </c>
+      <c r="D72" t="inlineStr">
+        <is>
+          <t>1.02</t>
+        </is>
+      </c>
+      <c r="E72" t="inlineStr">
+        <is>
+          <t>23.99</t>
+        </is>
+      </c>
+      <c r="F72" t="inlineStr">
+        <is>
+          <t>1.16</t>
+        </is>
+      </c>
+      <c r="G72" t="inlineStr">
+        <is>
+          <t>0.0118</t>
+        </is>
+      </c>
+      <c r="H72" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="73">
+      <c r="A73" s="2" t="n">
+        <v>71</v>
+      </c>
+      <c r="B73" t="inlineStr">
+        <is>
+          <t>010009</t>
+        </is>
+      </c>
+      <c r="C73" t="inlineStr">
+        <is>
+          <t>中融成长优选混合C</t>
+        </is>
+      </c>
+      <c r="D73" t="inlineStr">
+        <is>
+          <t>0.38</t>
+        </is>
+      </c>
+      <c r="E73" t="inlineStr">
+        <is>
+          <t>90.96</t>
+        </is>
+      </c>
+      <c r="F73" t="inlineStr">
+        <is>
+          <t>3.08</t>
+        </is>
+      </c>
+      <c r="G73" t="inlineStr">
+        <is>
+          <t>0.0117</t>
+        </is>
+      </c>
+      <c r="H73" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="74">
+      <c r="A74" s="2" t="n">
+        <v>72</v>
+      </c>
+      <c r="B74" t="inlineStr">
+        <is>
+          <t>001252</t>
+        </is>
+      </c>
+      <c r="C74" t="inlineStr">
+        <is>
+          <t>中海进取收益灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D74" t="inlineStr">
+        <is>
+          <t>0.23</t>
+        </is>
+      </c>
+      <c r="E74" t="inlineStr">
+        <is>
+          <t>94.05</t>
+        </is>
+      </c>
+      <c r="F74" t="inlineStr">
+        <is>
+          <t>4.80</t>
+        </is>
+      </c>
+      <c r="G74" t="inlineStr">
+        <is>
+          <t>0.0110</t>
+        </is>
+      </c>
+      <c r="H74" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="75">
+      <c r="A75" s="2" t="n">
+        <v>73</v>
+      </c>
+      <c r="B75" t="inlineStr">
+        <is>
+          <t>005943</t>
+        </is>
+      </c>
+      <c r="C75" t="inlineStr">
+        <is>
+          <t>工银瑞信聚福混合A</t>
+        </is>
+      </c>
+      <c r="D75" t="inlineStr">
+        <is>
+          <t>0.69</t>
+        </is>
+      </c>
+      <c r="E75" t="inlineStr">
+        <is>
+          <t>29.50</t>
+        </is>
+      </c>
+      <c r="F75" t="inlineStr">
+        <is>
+          <t>1.40</t>
+        </is>
+      </c>
+      <c r="G75" t="inlineStr">
+        <is>
+          <t>0.0097</t>
+        </is>
+      </c>
+      <c r="H75" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="76">
+      <c r="A76" s="2" t="n">
+        <v>74</v>
+      </c>
+      <c r="B76" t="inlineStr">
+        <is>
+          <t>003851</t>
+        </is>
+      </c>
+      <c r="C76" t="inlineStr">
+        <is>
+          <t>中银锦利灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D76" t="inlineStr">
+        <is>
+          <t>0.29</t>
+        </is>
+      </c>
+      <c r="E76" t="inlineStr">
+        <is>
+          <t>28.91</t>
+        </is>
+      </c>
+      <c r="F76" t="inlineStr">
+        <is>
+          <t>2.93</t>
+        </is>
+      </c>
+      <c r="G76" t="inlineStr">
+        <is>
+          <t>0.0085</t>
+        </is>
+      </c>
+      <c r="H76" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="77">
+      <c r="A77" s="2" t="n">
+        <v>75</v>
+      </c>
+      <c r="B77" t="inlineStr">
+        <is>
+          <t>350005</t>
+        </is>
+      </c>
+      <c r="C77" t="inlineStr">
+        <is>
+          <t>天治中国制造2025灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D77" t="inlineStr">
+        <is>
+          <t>0.30</t>
+        </is>
+      </c>
+      <c r="E77" t="inlineStr">
+        <is>
+          <t>37.03</t>
+        </is>
+      </c>
+      <c r="F77" t="inlineStr">
+        <is>
+          <t>2.66</t>
+        </is>
+      </c>
+      <c r="G77" t="inlineStr">
+        <is>
+          <t>0.0080</t>
+        </is>
+      </c>
+      <c r="H77" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="78">
+      <c r="A78" s="2" t="n">
+        <v>76</v>
+      </c>
+      <c r="B78" t="inlineStr">
+        <is>
+          <t>010167</t>
+        </is>
+      </c>
+      <c r="C78" t="inlineStr">
+        <is>
+          <t>中银多策略灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D78" t="inlineStr">
+        <is>
+          <t>0.73</t>
+        </is>
+      </c>
+      <c r="E78" t="inlineStr">
+        <is>
+          <t>20.92</t>
+        </is>
+      </c>
+      <c r="F78" t="inlineStr">
+        <is>
+          <t>0.96</t>
+        </is>
+      </c>
+      <c r="G78" t="inlineStr">
+        <is>
+          <t>0.0070</t>
+        </is>
+      </c>
+      <c r="H78" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="79">
+      <c r="A79" s="2" t="n">
+        <v>77</v>
+      </c>
+      <c r="B79" t="inlineStr">
+        <is>
+          <t>000672</t>
+        </is>
+      </c>
+      <c r="C79" t="inlineStr">
+        <is>
+          <t>工银绝对收益策略混合B</t>
+        </is>
+      </c>
+      <c r="D79" t="inlineStr">
+        <is>
+          <t>0.52</t>
+        </is>
+      </c>
+      <c r="E79" t="inlineStr">
+        <is>
+          <t>69.81</t>
+        </is>
+      </c>
+      <c r="F79" t="inlineStr">
+        <is>
+          <t>1.31</t>
+        </is>
+      </c>
+      <c r="G79" t="inlineStr">
+        <is>
+          <t>0.0068</t>
+        </is>
+      </c>
+      <c r="H79" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="80">
+      <c r="A80" s="2" t="n">
+        <v>78</v>
+      </c>
+      <c r="B80" t="inlineStr">
+        <is>
+          <t>008719</t>
+        </is>
+      </c>
+      <c r="C80" t="inlineStr">
+        <is>
+          <t>德邦安顺混合A</t>
+        </is>
+      </c>
+      <c r="D80" t="inlineStr">
+        <is>
+          <t>0.67</t>
+        </is>
+      </c>
+      <c r="E80" t="inlineStr">
+        <is>
+          <t>24.29</t>
+        </is>
+      </c>
+      <c r="F80" t="inlineStr">
+        <is>
+          <t>0.93</t>
+        </is>
+      </c>
+      <c r="G80" t="inlineStr">
+        <is>
+          <t>0.0062</t>
+        </is>
+      </c>
+      <c r="H80" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="81">
+      <c r="A81" s="2" t="n">
+        <v>79</v>
+      </c>
+      <c r="B81" t="inlineStr">
+        <is>
+          <t>002617</t>
+        </is>
+      </c>
+      <c r="C81" t="inlineStr">
+        <is>
+          <t>中银益利灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D81" t="inlineStr">
+        <is>
+          <t>0.18</t>
+        </is>
+      </c>
+      <c r="E81" t="inlineStr">
+        <is>
+          <t>29.36</t>
+        </is>
+      </c>
+      <c r="F81" t="inlineStr">
+        <is>
+          <t>2.97</t>
+        </is>
+      </c>
+      <c r="G81" t="inlineStr">
+        <is>
+          <t>0.0053</t>
+        </is>
+      </c>
+      <c r="H81" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="82">
+      <c r="A82" s="2" t="n">
+        <v>80</v>
+      </c>
+      <c r="B82" t="inlineStr">
+        <is>
+          <t>013025</t>
+        </is>
+      </c>
+      <c r="C82" t="inlineStr">
+        <is>
+          <t>富国宏观策略灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D82" t="inlineStr">
+        <is>
+          <t>0.19</t>
+        </is>
+      </c>
+      <c r="E82" t="inlineStr">
+        <is>
+          <t>84.79</t>
+        </is>
+      </c>
+      <c r="F82" t="inlineStr">
+        <is>
+          <t>2.78</t>
+        </is>
+      </c>
+      <c r="G82" t="inlineStr">
+        <is>
+          <t>0.0053</t>
+        </is>
+      </c>
+      <c r="H82" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="83">
+      <c r="A83" s="2" t="n">
+        <v>81</v>
+      </c>
+      <c r="B83" t="inlineStr">
+        <is>
+          <t>970050</t>
+        </is>
+      </c>
+      <c r="C83" t="inlineStr">
+        <is>
+          <t>东海海睿锐意3个月定开灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D83" t="inlineStr">
+        <is>
+          <t>0.14</t>
+        </is>
+      </c>
+      <c r="E83" t="inlineStr">
+        <is>
+          <t>79.58</t>
+        </is>
+      </c>
+      <c r="F83" t="inlineStr">
+        <is>
+          <t>3.41</t>
+        </is>
+      </c>
+      <c r="G83" t="inlineStr">
+        <is>
+          <t>0.0048</t>
+        </is>
+      </c>
+      <c r="H83" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="84">
+      <c r="A84" s="2" t="n">
+        <v>82</v>
+      </c>
+      <c r="B84" t="inlineStr">
+        <is>
+          <t>410006</t>
+        </is>
+      </c>
+      <c r="C84" t="inlineStr">
+        <is>
+          <t>华富策略精选混合</t>
+        </is>
+      </c>
+      <c r="D84" t="inlineStr">
+        <is>
+          <t>0.11</t>
+        </is>
+      </c>
+      <c r="E84" t="inlineStr">
+        <is>
+          <t>76.30</t>
+        </is>
+      </c>
+      <c r="F84" t="inlineStr">
+        <is>
+          <t>4.05</t>
+        </is>
+      </c>
+      <c r="G84" t="inlineStr">
+        <is>
+          <t>0.0045</t>
+        </is>
+      </c>
+      <c r="H84" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="85">
+      <c r="A85" s="2" t="n">
+        <v>83</v>
+      </c>
+      <c r="B85" t="inlineStr">
+        <is>
+          <t>010668</t>
+        </is>
+      </c>
+      <c r="C85" t="inlineStr">
+        <is>
+          <t>工银瑞信优选对冲策略灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D85" t="inlineStr">
+        <is>
+          <t>0.37</t>
+        </is>
+      </c>
+      <c r="E85" t="inlineStr">
+        <is>
+          <t>74.95</t>
+        </is>
+      </c>
+      <c r="F85" t="inlineStr">
+        <is>
+          <t>1.18</t>
+        </is>
+      </c>
+      <c r="G85" t="inlineStr">
+        <is>
+          <t>0.0044</t>
+        </is>
+      </c>
+      <c r="H85" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="86">
+      <c r="A86" s="2" t="n">
+        <v>84</v>
+      </c>
+      <c r="B86" t="inlineStr">
+        <is>
+          <t>970083</t>
+        </is>
+      </c>
+      <c r="C86" t="inlineStr">
+        <is>
+          <t>东海证券海盈6个月持有期混合</t>
+        </is>
+      </c>
+      <c r="D86" t="inlineStr">
+        <is>
+          <t>0.14</t>
+        </is>
+      </c>
+      <c r="E86" t="inlineStr">
+        <is>
+          <t>27.41</t>
+        </is>
+      </c>
+      <c r="F86" t="inlineStr">
+        <is>
+          <t>2.99</t>
+        </is>
+      </c>
+      <c r="G86" t="inlineStr">
+        <is>
+          <t>0.0042</t>
+        </is>
+      </c>
+      <c r="H86" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="87">
+      <c r="A87" s="2" t="n">
+        <v>85</v>
+      </c>
+      <c r="B87" t="inlineStr">
+        <is>
+          <t>002908</t>
+        </is>
+      </c>
+      <c r="C87" t="inlineStr">
+        <is>
+          <t>富国睿利定期开放混合</t>
+        </is>
+      </c>
+      <c r="D87" t="inlineStr">
+        <is>
+          <t>0.38</t>
+        </is>
+      </c>
+      <c r="E87" t="inlineStr">
+        <is>
+          <t>27.90</t>
+        </is>
+      </c>
+      <c r="F87" t="inlineStr">
+        <is>
+          <t>0.99</t>
+        </is>
+      </c>
+      <c r="G87" t="inlineStr">
+        <is>
+          <t>0.0038</t>
+        </is>
+      </c>
+      <c r="H87" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="88">
+      <c r="A88" s="2" t="n">
+        <v>86</v>
+      </c>
+      <c r="B88" t="inlineStr">
+        <is>
+          <t>012715</t>
+        </is>
+      </c>
+      <c r="C88" t="inlineStr">
+        <is>
+          <t>长盛成长价值混合C</t>
+        </is>
+      </c>
+      <c r="D88" t="inlineStr">
+        <is>
+          <t>0.10</t>
+        </is>
+      </c>
+      <c r="E88" t="inlineStr">
+        <is>
+          <t>62.45</t>
+        </is>
+      </c>
+      <c r="F88" t="inlineStr">
+        <is>
+          <t>2.85</t>
+        </is>
+      </c>
+      <c r="G88" t="inlineStr">
+        <is>
+          <t>0.0028</t>
+        </is>
+      </c>
+      <c r="H88" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="89">
+      <c r="A89" s="2" t="n">
+        <v>87</v>
+      </c>
+      <c r="B89" t="inlineStr">
+        <is>
+          <t>008720</t>
+        </is>
+      </c>
+      <c r="C89" t="inlineStr">
+        <is>
+          <t>德邦安顺混合C</t>
+        </is>
+      </c>
+      <c r="D89" t="inlineStr">
+        <is>
+          <t>0.29</t>
+        </is>
+      </c>
+      <c r="E89" t="inlineStr">
+        <is>
+          <t>24.29</t>
+        </is>
+      </c>
+      <c r="F89" t="inlineStr">
+        <is>
+          <t>0.93</t>
+        </is>
+      </c>
+      <c r="G89" t="inlineStr">
+        <is>
+          <t>0.0027</t>
+        </is>
+      </c>
+      <c r="H89" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="90">
+      <c r="A90" s="2" t="n">
+        <v>88</v>
+      </c>
+      <c r="B90" t="inlineStr">
+        <is>
+          <t>011483</t>
+        </is>
+      </c>
+      <c r="C90" t="inlineStr">
+        <is>
+          <t>中银顺宁回报6个月持有期混合C</t>
+        </is>
+      </c>
+      <c r="D90" t="inlineStr">
+        <is>
+          <t>0.10</t>
+        </is>
+      </c>
+      <c r="E90" t="inlineStr">
+        <is>
+          <t>27.26</t>
+        </is>
+      </c>
+      <c r="F90" t="inlineStr">
+        <is>
+          <t>2.69</t>
+        </is>
+      </c>
+      <c r="G90" t="inlineStr">
+        <is>
+          <t>0.0027</t>
+        </is>
+      </c>
+      <c r="H90" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="91">
+      <c r="A91" s="2" t="n">
+        <v>89</v>
+      </c>
+      <c r="B91" t="inlineStr">
+        <is>
+          <t>010669</t>
+        </is>
+      </c>
+      <c r="C91" t="inlineStr">
+        <is>
+          <t>工银瑞信优选对冲策略灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D91" t="inlineStr">
+        <is>
+          <t>0.12</t>
+        </is>
+      </c>
+      <c r="E91" t="inlineStr">
+        <is>
+          <t>74.95</t>
+        </is>
+      </c>
+      <c r="F91" t="inlineStr">
+        <is>
+          <t>1.18</t>
+        </is>
+      </c>
+      <c r="G91" t="inlineStr">
+        <is>
+          <t>0.0014</t>
+        </is>
+      </c>
+      <c r="H91" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="92">
+      <c r="A92" s="2" t="n">
+        <v>90</v>
+      </c>
+      <c r="B92" t="inlineStr">
+        <is>
+          <t>007134</t>
+        </is>
+      </c>
+      <c r="C92" t="inlineStr">
+        <is>
+          <t>嘉实长青竞争优势股票C</t>
+        </is>
+      </c>
+      <c r="D92" t="inlineStr">
+        <is>
+          <t>0.02</t>
+        </is>
+      </c>
+      <c r="E92" t="inlineStr">
+        <is>
+          <t>83.74</t>
+        </is>
+      </c>
+      <c r="F92" t="inlineStr">
+        <is>
+          <t>6.28</t>
+        </is>
+      </c>
+      <c r="G92" t="inlineStr">
+        <is>
+          <t>0.0013</t>
+        </is>
+      </c>
+      <c r="H92" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="93">
+      <c r="A93" s="2" t="n">
+        <v>91</v>
+      </c>
+      <c r="B93" t="inlineStr">
+        <is>
+          <t>005006</t>
+        </is>
+      </c>
+      <c r="C93" t="inlineStr">
+        <is>
+          <t>中金金泽量化精选混合C</t>
+        </is>
+      </c>
+      <c r="D93" t="inlineStr">
+        <is>
+          <t>0.02</t>
+        </is>
+      </c>
+      <c r="E93" t="inlineStr">
+        <is>
+          <t>63.86</t>
+        </is>
+      </c>
+      <c r="F93" t="inlineStr">
+        <is>
+          <t>6.32</t>
+        </is>
+      </c>
+      <c r="G93" t="inlineStr">
+        <is>
+          <t>0.0013</t>
+        </is>
+      </c>
+      <c r="H93" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="94">
+      <c r="A94" s="2" t="n">
+        <v>92</v>
+      </c>
+      <c r="B94" t="inlineStr">
+        <is>
+          <t>010172</t>
+        </is>
+      </c>
+      <c r="C94" t="inlineStr">
+        <is>
+          <t>中银新回报灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D94" t="inlineStr">
+        <is>
+          <t>0.06</t>
+        </is>
+      </c>
+      <c r="E94" t="inlineStr">
+        <is>
+          <t>21.82</t>
+        </is>
+      </c>
+      <c r="F94" t="inlineStr">
+        <is>
+          <t>1.03</t>
+        </is>
+      </c>
+      <c r="G94" t="inlineStr">
+        <is>
+          <t>0.0006</t>
+        </is>
+      </c>
+      <c r="H94" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="95">
+      <c r="A95" s="2" t="n">
+        <v>93</v>
+      </c>
+      <c r="B95" t="inlineStr">
+        <is>
+          <t>005005</t>
+        </is>
+      </c>
+      <c r="C95" t="inlineStr">
+        <is>
+          <t>中金金泽量化精选混合A</t>
+        </is>
+      </c>
+      <c r="D95" t="inlineStr">
+        <is>
+          <t>0.01</t>
+        </is>
+      </c>
+      <c r="E95" t="inlineStr">
+        <is>
+          <t>63.86</t>
+        </is>
+      </c>
+      <c r="F95" t="inlineStr">
+        <is>
+          <t>6.32</t>
+        </is>
+      </c>
+      <c r="G95" t="inlineStr">
+        <is>
+          <t>0.0006</t>
+        </is>
+      </c>
+      <c r="H95" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="96">
+      <c r="A96" s="2" t="n">
+        <v>94</v>
+      </c>
+      <c r="B96" t="inlineStr">
+        <is>
+          <t>009501</t>
+        </is>
+      </c>
+      <c r="C96" t="inlineStr">
+        <is>
+          <t>国寿安保高股息混合C</t>
+        </is>
+      </c>
+      <c r="D96" t="inlineStr">
+        <is>
+          <t>0.00</t>
+        </is>
+      </c>
+      <c r="E96" t="inlineStr">
+        <is>
+          <t>79.91</t>
+        </is>
+      </c>
+      <c r="F96" t="inlineStr">
+        <is>
+          <t>4.12</t>
+        </is>
+      </c>
+      <c r="G96" t="n">
+        <v>0</v>
+      </c>
+      <c r="H96" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="97">
+      <c r="A97" s="2" t="n">
+        <v>95</v>
+      </c>
+      <c r="B97" t="inlineStr">
+        <is>
+          <t>005082</t>
+        </is>
+      </c>
+      <c r="C97" t="inlineStr">
+        <is>
+          <t>诺德量化蓝筹增强混合A</t>
+        </is>
+      </c>
+      <c r="D97" t="inlineStr">
+        <is>
+          <t>0.00</t>
+        </is>
+      </c>
+      <c r="E97" t="inlineStr">
+        <is>
+          <t>91.02</t>
+        </is>
+      </c>
+      <c r="F97" t="inlineStr">
+        <is>
+          <t>2.50</t>
+        </is>
+      </c>
+      <c r="G97" t="n">
+        <v>0</v>
+      </c>
+      <c r="H97" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="98">
+      <c r="A98" s="2" t="n">
+        <v>96</v>
+      </c>
+      <c r="B98" t="inlineStr">
+        <is>
+          <t>014939</t>
+        </is>
+      </c>
+      <c r="C98" t="inlineStr">
+        <is>
+          <t>同泰产业升级混合C</t>
+        </is>
+      </c>
+      <c r="D98" t="inlineStr">
+        <is>
+          <t>0.00</t>
+        </is>
+      </c>
+      <c r="E98" t="inlineStr">
+        <is>
+          <t>56.49</t>
+        </is>
+      </c>
+      <c r="F98" t="inlineStr">
+        <is>
+          <t>2.54</t>
+        </is>
+      </c>
+      <c r="G98" t="n">
+        <v>0</v>
+      </c>
+      <c r="H98" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="99">
+      <c r="A99" s="2" t="n">
+        <v>97</v>
+      </c>
+      <c r="B99" t="inlineStr">
+        <is>
+          <t>011055</t>
+        </is>
+      </c>
+      <c r="C99" t="inlineStr">
+        <is>
+          <t>申万菱信安鑫智选混合型证券投资基金C</t>
+        </is>
+      </c>
+      <c r="D99" t="inlineStr">
+        <is>
+          <t>0.00</t>
+        </is>
+      </c>
+      <c r="E99" t="inlineStr">
+        <is>
+          <t>23.99</t>
+        </is>
+      </c>
+      <c r="F99" t="inlineStr">
+        <is>
+          <t>1.16</t>
+        </is>
+      </c>
+      <c r="G99" t="n">
+        <v>0</v>
+      </c>
+      <c r="H99" t="n">
+        <v>5</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:D8"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>日期</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>持有数量(只)</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>2022-Q2</t>
+        </is>
+      </c>
+      <c r="C2" t="n">
+        <v>98</v>
+      </c>
+      <c r="D2" t="n">
+        <v>24.85</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>2022-Q1</t>
+        </is>
+      </c>
+      <c r="C3" t="n">
+        <v>71</v>
+      </c>
+      <c r="D3" t="n">
+        <v>20.66</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>2021-Q4</t>
+        </is>
+      </c>
+      <c r="C4" t="n">
+        <v>79</v>
+      </c>
+      <c r="D4" t="n">
+        <v>27.31</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>2021-Q3</t>
+        </is>
+      </c>
+      <c r="C5" t="n">
+        <v>79</v>
+      </c>
+      <c r="D5" t="n">
+        <v>41.61</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>2021-Q2</t>
+        </is>
+      </c>
+      <c r="C6" t="n">
+        <v>8</v>
+      </c>
+      <c r="D6" t="n">
+        <v>5.74</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>2021-Q1</t>
+        </is>
+      </c>
+      <c r="C7" t="n">
+        <v>7</v>
+      </c>
+      <c r="D7" t="n">
+        <v>6.52</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
           <t>2020-Q4</t>
         </is>
       </c>
-      <c r="C7" t="n">
+      <c r="C8" t="n">
         <v>9</v>
       </c>
-      <c r="D7" t="n">
+      <c r="D8" t="n">
         <v>6.47</v>
       </c>
     </row>
